--- a/Table/Table_xls/npc服务映射表.xlsx
+++ b/Table/Table_xls/npc服务映射表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>NPC服务ID</t>
   </si>
@@ -90,12 +91,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -149,7 +150,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +174,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,11 +201,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,7 +217,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,15 +278,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -217,52 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,34 +298,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -373,7 +369,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,103 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,19 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,13 +471,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,15 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -590,6 +577,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -599,10 +597,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -619,6 +615,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,23 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,152 +662,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,8 +908,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -967,11 +966,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1298,21 +1292,22 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K407"/>
+  <dimension ref="A1:L466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A327" sqref="$A327:$XFD329"/>
+      <selection pane="bottomLeft" activeCell="A451" sqref="A451:A466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
@@ -13644,648 +13639,2629 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" s="3" customFormat="1" spans="1:10">
       <c r="A387" s="31">
         <v>850051</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="3">
         <v>6</v>
       </c>
       <c r="C387" s="34">
         <v>211</v>
       </c>
-      <c r="D387" s="1">
-        <v>0</v>
-      </c>
-      <c r="E387" s="1">
-        <v>0</v>
-      </c>
-      <c r="F387" s="1">
-        <v>0</v>
-      </c>
-      <c r="G387" s="1">
-        <v>0</v>
-      </c>
-      <c r="H387" s="1">
-        <v>0</v>
-      </c>
-      <c r="I387" s="1">
-        <v>0</v>
-      </c>
-      <c r="J387" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10">
+      <c r="D387" s="20">
+        <v>0</v>
+      </c>
+      <c r="E387" s="20">
+        <v>0</v>
+      </c>
+      <c r="F387" s="20">
+        <v>0</v>
+      </c>
+      <c r="G387" s="20">
+        <v>0</v>
+      </c>
+      <c r="H387" s="20">
+        <v>0</v>
+      </c>
+      <c r="I387" s="20">
+        <v>0</v>
+      </c>
+      <c r="J387" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" s="3" customFormat="1" spans="1:10">
       <c r="A388" s="31">
         <v>850052</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="3">
         <v>6</v>
       </c>
       <c r="C388" s="34">
         <v>212</v>
       </c>
-      <c r="D388" s="1">
-        <v>0</v>
-      </c>
-      <c r="E388" s="1">
-        <v>0</v>
-      </c>
-      <c r="F388" s="1">
-        <v>0</v>
-      </c>
-      <c r="G388" s="1">
-        <v>0</v>
-      </c>
-      <c r="H388" s="1">
-        <v>0</v>
-      </c>
-      <c r="I388" s="1">
-        <v>0</v>
-      </c>
-      <c r="J388" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10">
+      <c r="D388" s="20">
+        <v>0</v>
+      </c>
+      <c r="E388" s="20">
+        <v>0</v>
+      </c>
+      <c r="F388" s="20">
+        <v>0</v>
+      </c>
+      <c r="G388" s="20">
+        <v>0</v>
+      </c>
+      <c r="H388" s="20">
+        <v>0</v>
+      </c>
+      <c r="I388" s="20">
+        <v>0</v>
+      </c>
+      <c r="J388" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" s="3" customFormat="1" spans="1:10">
       <c r="A389" s="31">
         <v>850053</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="3">
         <v>6</v>
       </c>
       <c r="C389" s="34">
         <v>213</v>
       </c>
-      <c r="D389" s="1">
-        <v>0</v>
-      </c>
-      <c r="E389" s="1">
-        <v>0</v>
-      </c>
-      <c r="F389" s="1">
-        <v>0</v>
-      </c>
-      <c r="G389" s="1">
-        <v>0</v>
-      </c>
-      <c r="H389" s="1">
-        <v>0</v>
-      </c>
-      <c r="I389" s="1">
-        <v>0</v>
-      </c>
-      <c r="J389" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10">
+      <c r="D389" s="20">
+        <v>0</v>
+      </c>
+      <c r="E389" s="20">
+        <v>0</v>
+      </c>
+      <c r="F389" s="20">
+        <v>0</v>
+      </c>
+      <c r="G389" s="20">
+        <v>0</v>
+      </c>
+      <c r="H389" s="20">
+        <v>0</v>
+      </c>
+      <c r="I389" s="20">
+        <v>0</v>
+      </c>
+      <c r="J389" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" s="3" customFormat="1" spans="1:10">
       <c r="A390" s="31">
         <v>850054</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="3">
         <v>6</v>
       </c>
       <c r="C390" s="34">
         <v>214</v>
       </c>
-      <c r="D390" s="1">
-        <v>0</v>
-      </c>
-      <c r="E390" s="1">
-        <v>0</v>
-      </c>
-      <c r="F390" s="1">
-        <v>0</v>
-      </c>
-      <c r="G390" s="1">
-        <v>0</v>
-      </c>
-      <c r="H390" s="1">
-        <v>0</v>
-      </c>
-      <c r="I390" s="1">
-        <v>0</v>
-      </c>
-      <c r="J390" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10">
+      <c r="D390" s="20">
+        <v>0</v>
+      </c>
+      <c r="E390" s="20">
+        <v>0</v>
+      </c>
+      <c r="F390" s="20">
+        <v>0</v>
+      </c>
+      <c r="G390" s="20">
+        <v>0</v>
+      </c>
+      <c r="H390" s="20">
+        <v>0</v>
+      </c>
+      <c r="I390" s="20">
+        <v>0</v>
+      </c>
+      <c r="J390" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" s="3" customFormat="1" spans="1:10">
       <c r="A391" s="31">
         <v>850055</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="3">
         <v>6</v>
       </c>
       <c r="C391" s="34">
         <v>215</v>
       </c>
-      <c r="D391" s="1">
-        <v>0</v>
-      </c>
-      <c r="E391" s="1">
-        <v>0</v>
-      </c>
-      <c r="F391" s="1">
-        <v>0</v>
-      </c>
-      <c r="G391" s="1">
-        <v>0</v>
-      </c>
-      <c r="H391" s="1">
-        <v>0</v>
-      </c>
-      <c r="I391" s="1">
-        <v>0</v>
-      </c>
-      <c r="J391" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10">
+      <c r="D391" s="20">
+        <v>0</v>
+      </c>
+      <c r="E391" s="20">
+        <v>0</v>
+      </c>
+      <c r="F391" s="20">
+        <v>0</v>
+      </c>
+      <c r="G391" s="20">
+        <v>0</v>
+      </c>
+      <c r="H391" s="20">
+        <v>0</v>
+      </c>
+      <c r="I391" s="20">
+        <v>0</v>
+      </c>
+      <c r="J391" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" s="3" customFormat="1" spans="1:10">
       <c r="A392" s="31">
         <v>850056</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="3">
         <v>6</v>
       </c>
       <c r="C392" s="34">
         <v>216</v>
       </c>
-      <c r="D392" s="1">
-        <v>0</v>
-      </c>
-      <c r="E392" s="1">
-        <v>0</v>
-      </c>
-      <c r="F392" s="1">
-        <v>0</v>
-      </c>
-      <c r="G392" s="1">
-        <v>0</v>
-      </c>
-      <c r="H392" s="1">
-        <v>0</v>
-      </c>
-      <c r="I392" s="1">
-        <v>0</v>
-      </c>
-      <c r="J392" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10">
+      <c r="D392" s="20">
+        <v>0</v>
+      </c>
+      <c r="E392" s="20">
+        <v>0</v>
+      </c>
+      <c r="F392" s="20">
+        <v>0</v>
+      </c>
+      <c r="G392" s="20">
+        <v>0</v>
+      </c>
+      <c r="H392" s="20">
+        <v>0</v>
+      </c>
+      <c r="I392" s="20">
+        <v>0</v>
+      </c>
+      <c r="J392" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" s="3" customFormat="1" spans="1:10">
       <c r="A393" s="31">
         <v>850057</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="3">
         <v>6</v>
       </c>
       <c r="C393" s="34">
         <v>217</v>
       </c>
-      <c r="D393" s="1">
-        <v>0</v>
-      </c>
-      <c r="E393" s="1">
-        <v>0</v>
-      </c>
-      <c r="F393" s="1">
-        <v>0</v>
-      </c>
-      <c r="G393" s="1">
-        <v>0</v>
-      </c>
-      <c r="H393" s="1">
-        <v>0</v>
-      </c>
-      <c r="I393" s="1">
-        <v>0</v>
-      </c>
-      <c r="J393" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10">
+      <c r="D393" s="20">
+        <v>0</v>
+      </c>
+      <c r="E393" s="20">
+        <v>0</v>
+      </c>
+      <c r="F393" s="20">
+        <v>0</v>
+      </c>
+      <c r="G393" s="20">
+        <v>0</v>
+      </c>
+      <c r="H393" s="20">
+        <v>0</v>
+      </c>
+      <c r="I393" s="20">
+        <v>0</v>
+      </c>
+      <c r="J393" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" s="3" customFormat="1" spans="1:10">
       <c r="A394" s="31">
         <v>850058</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="3">
         <v>6</v>
       </c>
       <c r="C394" s="34">
         <v>218</v>
       </c>
-      <c r="D394" s="1">
-        <v>0</v>
-      </c>
-      <c r="E394" s="1">
-        <v>0</v>
-      </c>
-      <c r="F394" s="1">
-        <v>0</v>
-      </c>
-      <c r="G394" s="1">
-        <v>0</v>
-      </c>
-      <c r="H394" s="1">
-        <v>0</v>
-      </c>
-      <c r="I394" s="1">
-        <v>0</v>
-      </c>
-      <c r="J394" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10">
+      <c r="D394" s="20">
+        <v>0</v>
+      </c>
+      <c r="E394" s="20">
+        <v>0</v>
+      </c>
+      <c r="F394" s="20">
+        <v>0</v>
+      </c>
+      <c r="G394" s="20">
+        <v>0</v>
+      </c>
+      <c r="H394" s="20">
+        <v>0</v>
+      </c>
+      <c r="I394" s="20">
+        <v>0</v>
+      </c>
+      <c r="J394" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" s="3" customFormat="1" spans="1:10">
       <c r="A395" s="31">
         <v>850059</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="3">
         <v>6</v>
       </c>
       <c r="C395" s="34">
         <v>219</v>
       </c>
-      <c r="D395" s="1">
-        <v>0</v>
-      </c>
-      <c r="E395" s="1">
-        <v>0</v>
-      </c>
-      <c r="F395" s="1">
-        <v>0</v>
-      </c>
-      <c r="G395" s="1">
-        <v>0</v>
-      </c>
-      <c r="H395" s="1">
-        <v>0</v>
-      </c>
-      <c r="I395" s="1">
-        <v>0</v>
-      </c>
-      <c r="J395" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10">
+      <c r="D395" s="20">
+        <v>0</v>
+      </c>
+      <c r="E395" s="20">
+        <v>0</v>
+      </c>
+      <c r="F395" s="20">
+        <v>0</v>
+      </c>
+      <c r="G395" s="20">
+        <v>0</v>
+      </c>
+      <c r="H395" s="20">
+        <v>0</v>
+      </c>
+      <c r="I395" s="20">
+        <v>0</v>
+      </c>
+      <c r="J395" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" s="3" customFormat="1" spans="1:10">
       <c r="A396" s="31">
         <v>850060</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="3">
         <v>6</v>
       </c>
       <c r="C396" s="34">
         <v>220</v>
       </c>
-      <c r="D396" s="1">
-        <v>0</v>
-      </c>
-      <c r="E396" s="1">
-        <v>0</v>
-      </c>
-      <c r="F396" s="1">
-        <v>0</v>
-      </c>
-      <c r="G396" s="1">
-        <v>0</v>
-      </c>
-      <c r="H396" s="1">
-        <v>0</v>
-      </c>
-      <c r="I396" s="1">
-        <v>0</v>
-      </c>
-      <c r="J396" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10">
+      <c r="D396" s="20">
+        <v>0</v>
+      </c>
+      <c r="E396" s="20">
+        <v>0</v>
+      </c>
+      <c r="F396" s="20">
+        <v>0</v>
+      </c>
+      <c r="G396" s="20">
+        <v>0</v>
+      </c>
+      <c r="H396" s="20">
+        <v>0</v>
+      </c>
+      <c r="I396" s="20">
+        <v>0</v>
+      </c>
+      <c r="J396" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" s="3" customFormat="1" spans="1:10">
       <c r="A397" s="31">
         <v>850061</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="3">
         <v>6</v>
       </c>
       <c r="C397" s="34">
         <v>221</v>
       </c>
-      <c r="D397" s="1">
-        <v>0</v>
-      </c>
-      <c r="E397" s="1">
-        <v>0</v>
-      </c>
-      <c r="F397" s="1">
-        <v>0</v>
-      </c>
-      <c r="G397" s="1">
-        <v>0</v>
-      </c>
-      <c r="H397" s="1">
-        <v>0</v>
-      </c>
-      <c r="I397" s="1">
-        <v>0</v>
-      </c>
-      <c r="J397" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10">
+      <c r="D397" s="20">
+        <v>0</v>
+      </c>
+      <c r="E397" s="20">
+        <v>0</v>
+      </c>
+      <c r="F397" s="20">
+        <v>0</v>
+      </c>
+      <c r="G397" s="20">
+        <v>0</v>
+      </c>
+      <c r="H397" s="20">
+        <v>0</v>
+      </c>
+      <c r="I397" s="20">
+        <v>0</v>
+      </c>
+      <c r="J397" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" s="3" customFormat="1" spans="1:10">
       <c r="A398" s="31">
         <v>850062</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="3">
         <v>6</v>
       </c>
       <c r="C398" s="34">
         <v>222</v>
       </c>
-      <c r="D398" s="1">
-        <v>0</v>
-      </c>
-      <c r="E398" s="1">
-        <v>0</v>
-      </c>
-      <c r="F398" s="1">
-        <v>0</v>
-      </c>
-      <c r="G398" s="1">
-        <v>0</v>
-      </c>
-      <c r="H398" s="1">
-        <v>0</v>
-      </c>
-      <c r="I398" s="1">
-        <v>0</v>
-      </c>
-      <c r="J398" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10">
+      <c r="D398" s="20">
+        <v>0</v>
+      </c>
+      <c r="E398" s="20">
+        <v>0</v>
+      </c>
+      <c r="F398" s="20">
+        <v>0</v>
+      </c>
+      <c r="G398" s="20">
+        <v>0</v>
+      </c>
+      <c r="H398" s="20">
+        <v>0</v>
+      </c>
+      <c r="I398" s="20">
+        <v>0</v>
+      </c>
+      <c r="J398" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" s="3" customFormat="1" spans="1:10">
       <c r="A399" s="31">
         <v>850063</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="3">
         <v>6</v>
       </c>
       <c r="C399" s="34">
         <v>223</v>
       </c>
-      <c r="D399" s="1">
-        <v>0</v>
-      </c>
-      <c r="E399" s="1">
-        <v>0</v>
-      </c>
-      <c r="F399" s="1">
-        <v>0</v>
-      </c>
-      <c r="G399" s="1">
-        <v>0</v>
-      </c>
-      <c r="H399" s="1">
-        <v>0</v>
-      </c>
-      <c r="I399" s="1">
-        <v>0</v>
-      </c>
-      <c r="J399" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10">
+      <c r="D399" s="20">
+        <v>0</v>
+      </c>
+      <c r="E399" s="20">
+        <v>0</v>
+      </c>
+      <c r="F399" s="20">
+        <v>0</v>
+      </c>
+      <c r="G399" s="20">
+        <v>0</v>
+      </c>
+      <c r="H399" s="20">
+        <v>0</v>
+      </c>
+      <c r="I399" s="20">
+        <v>0</v>
+      </c>
+      <c r="J399" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" s="3" customFormat="1" spans="1:10">
       <c r="A400" s="31">
         <v>850064</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="3">
         <v>6</v>
       </c>
       <c r="C400" s="34">
         <v>224</v>
       </c>
-      <c r="D400" s="1">
-        <v>0</v>
-      </c>
-      <c r="E400" s="1">
-        <v>0</v>
-      </c>
-      <c r="F400" s="1">
-        <v>0</v>
-      </c>
-      <c r="G400" s="1">
-        <v>0</v>
-      </c>
-      <c r="H400" s="1">
-        <v>0</v>
-      </c>
-      <c r="I400" s="1">
-        <v>0</v>
-      </c>
-      <c r="J400" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:10">
+      <c r="D400" s="20">
+        <v>0</v>
+      </c>
+      <c r="E400" s="20">
+        <v>0</v>
+      </c>
+      <c r="F400" s="20">
+        <v>0</v>
+      </c>
+      <c r="G400" s="20">
+        <v>0</v>
+      </c>
+      <c r="H400" s="20">
+        <v>0</v>
+      </c>
+      <c r="I400" s="20">
+        <v>0</v>
+      </c>
+      <c r="J400" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" s="3" customFormat="1" spans="1:10">
       <c r="A401" s="31">
         <v>850065</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="3">
         <v>6</v>
       </c>
       <c r="C401" s="34">
         <v>225</v>
       </c>
-      <c r="D401" s="1">
-        <v>0</v>
-      </c>
-      <c r="E401" s="1">
-        <v>0</v>
-      </c>
-      <c r="F401" s="1">
-        <v>0</v>
-      </c>
-      <c r="G401" s="1">
-        <v>0</v>
-      </c>
-      <c r="H401" s="1">
-        <v>0</v>
-      </c>
-      <c r="I401" s="1">
-        <v>0</v>
-      </c>
-      <c r="J401" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:10">
+      <c r="D401" s="20">
+        <v>0</v>
+      </c>
+      <c r="E401" s="20">
+        <v>0</v>
+      </c>
+      <c r="F401" s="20">
+        <v>0</v>
+      </c>
+      <c r="G401" s="20">
+        <v>0</v>
+      </c>
+      <c r="H401" s="20">
+        <v>0</v>
+      </c>
+      <c r="I401" s="20">
+        <v>0</v>
+      </c>
+      <c r="J401" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" s="3" customFormat="1" spans="1:10">
       <c r="A402" s="31">
         <v>850066</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="3">
         <v>6</v>
       </c>
       <c r="C402" s="34">
         <v>226</v>
       </c>
-      <c r="D402" s="1">
-        <v>0</v>
-      </c>
-      <c r="E402" s="1">
-        <v>0</v>
-      </c>
-      <c r="F402" s="1">
-        <v>0</v>
-      </c>
-      <c r="G402" s="1">
-        <v>0</v>
-      </c>
-      <c r="H402" s="1">
-        <v>0</v>
-      </c>
-      <c r="I402" s="1">
-        <v>0</v>
-      </c>
-      <c r="J402" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:10">
+      <c r="D402" s="20">
+        <v>0</v>
+      </c>
+      <c r="E402" s="20">
+        <v>0</v>
+      </c>
+      <c r="F402" s="20">
+        <v>0</v>
+      </c>
+      <c r="G402" s="20">
+        <v>0</v>
+      </c>
+      <c r="H402" s="20">
+        <v>0</v>
+      </c>
+      <c r="I402" s="20">
+        <v>0</v>
+      </c>
+      <c r="J402" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" s="3" customFormat="1" spans="1:10">
       <c r="A403" s="31">
-        <v>850067</v>
-      </c>
-      <c r="B403">
+        <v>860051</v>
+      </c>
+      <c r="B403" s="3">
         <v>6</v>
       </c>
       <c r="C403" s="34">
         <v>227</v>
       </c>
-      <c r="D403" s="1">
-        <v>0</v>
-      </c>
-      <c r="E403" s="1">
-        <v>0</v>
-      </c>
-      <c r="F403" s="1">
-        <v>0</v>
-      </c>
-      <c r="G403" s="1">
-        <v>0</v>
-      </c>
-      <c r="H403" s="1">
-        <v>0</v>
-      </c>
-      <c r="I403" s="1">
-        <v>0</v>
-      </c>
-      <c r="J403" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10">
+      <c r="D403" s="20">
+        <v>0</v>
+      </c>
+      <c r="E403" s="20">
+        <v>0</v>
+      </c>
+      <c r="F403" s="20">
+        <v>0</v>
+      </c>
+      <c r="G403" s="20">
+        <v>0</v>
+      </c>
+      <c r="H403" s="20">
+        <v>0</v>
+      </c>
+      <c r="I403" s="20">
+        <v>0</v>
+      </c>
+      <c r="J403" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" s="3" customFormat="1" spans="1:10">
       <c r="A404" s="31">
-        <v>850068</v>
-      </c>
-      <c r="B404">
+        <v>860052</v>
+      </c>
+      <c r="B404" s="3">
         <v>6</v>
       </c>
       <c r="C404" s="34">
         <v>228</v>
       </c>
-      <c r="D404" s="1">
-        <v>0</v>
-      </c>
-      <c r="E404" s="1">
-        <v>0</v>
-      </c>
-      <c r="F404" s="1">
-        <v>0</v>
-      </c>
-      <c r="G404" s="1">
-        <v>0</v>
-      </c>
-      <c r="H404" s="1">
-        <v>0</v>
-      </c>
-      <c r="I404" s="1">
-        <v>0</v>
-      </c>
-      <c r="J404" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10">
+      <c r="D404" s="20">
+        <v>0</v>
+      </c>
+      <c r="E404" s="20">
+        <v>0</v>
+      </c>
+      <c r="F404" s="20">
+        <v>0</v>
+      </c>
+      <c r="G404" s="20">
+        <v>0</v>
+      </c>
+      <c r="H404" s="20">
+        <v>0</v>
+      </c>
+      <c r="I404" s="20">
+        <v>0</v>
+      </c>
+      <c r="J404" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" s="3" customFormat="1" spans="1:10">
       <c r="A405" s="31">
-        <v>850069</v>
-      </c>
-      <c r="B405">
+        <v>860053</v>
+      </c>
+      <c r="B405" s="3">
         <v>6</v>
       </c>
       <c r="C405" s="34">
         <v>229</v>
       </c>
-      <c r="D405" s="1">
-        <v>0</v>
-      </c>
-      <c r="E405" s="1">
-        <v>0</v>
-      </c>
-      <c r="F405" s="1">
-        <v>0</v>
-      </c>
-      <c r="G405" s="1">
-        <v>0</v>
-      </c>
-      <c r="H405" s="1">
-        <v>0</v>
-      </c>
-      <c r="I405" s="1">
-        <v>0</v>
-      </c>
-      <c r="J405" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10">
+      <c r="D405" s="20">
+        <v>0</v>
+      </c>
+      <c r="E405" s="20">
+        <v>0</v>
+      </c>
+      <c r="F405" s="20">
+        <v>0</v>
+      </c>
+      <c r="G405" s="20">
+        <v>0</v>
+      </c>
+      <c r="H405" s="20">
+        <v>0</v>
+      </c>
+      <c r="I405" s="20">
+        <v>0</v>
+      </c>
+      <c r="J405" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" s="3" customFormat="1" spans="1:10">
       <c r="A406" s="31">
-        <v>850070</v>
-      </c>
-      <c r="B406">
+        <v>860054</v>
+      </c>
+      <c r="B406" s="3">
         <v>6</v>
       </c>
       <c r="C406" s="34">
         <v>230</v>
       </c>
-      <c r="D406" s="1">
-        <v>0</v>
-      </c>
-      <c r="E406" s="1">
-        <v>0</v>
-      </c>
-      <c r="F406" s="1">
-        <v>0</v>
-      </c>
-      <c r="G406" s="1">
-        <v>0</v>
-      </c>
-      <c r="H406" s="1">
-        <v>0</v>
-      </c>
-      <c r="I406" s="1">
-        <v>0</v>
-      </c>
-      <c r="J406" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="3:3">
-      <c r="C407" s="35"/>
+      <c r="D406" s="20">
+        <v>0</v>
+      </c>
+      <c r="E406" s="20">
+        <v>0</v>
+      </c>
+      <c r="F406" s="20">
+        <v>0</v>
+      </c>
+      <c r="G406" s="20">
+        <v>0</v>
+      </c>
+      <c r="H406" s="20">
+        <v>0</v>
+      </c>
+      <c r="I406" s="20">
+        <v>0</v>
+      </c>
+      <c r="J406" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" s="3" customFormat="1" spans="1:10">
+      <c r="A407" s="31">
+        <v>860055</v>
+      </c>
+      <c r="B407" s="3">
+        <v>6</v>
+      </c>
+      <c r="C407" s="34">
+        <v>231</v>
+      </c>
+      <c r="D407" s="20">
+        <v>0</v>
+      </c>
+      <c r="E407" s="20">
+        <v>0</v>
+      </c>
+      <c r="F407" s="20">
+        <v>0</v>
+      </c>
+      <c r="G407" s="20">
+        <v>0</v>
+      </c>
+      <c r="H407" s="20">
+        <v>0</v>
+      </c>
+      <c r="I407" s="20">
+        <v>0</v>
+      </c>
+      <c r="J407" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" s="3" customFormat="1" spans="1:10">
+      <c r="A408" s="31">
+        <v>860056</v>
+      </c>
+      <c r="B408" s="3">
+        <v>6</v>
+      </c>
+      <c r="C408" s="34">
+        <v>232</v>
+      </c>
+      <c r="D408" s="20">
+        <v>0</v>
+      </c>
+      <c r="E408" s="20">
+        <v>0</v>
+      </c>
+      <c r="F408" s="20">
+        <v>0</v>
+      </c>
+      <c r="G408" s="20">
+        <v>0</v>
+      </c>
+      <c r="H408" s="20">
+        <v>0</v>
+      </c>
+      <c r="I408" s="20">
+        <v>0</v>
+      </c>
+      <c r="J408" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" s="3" customFormat="1" spans="1:10">
+      <c r="A409" s="31">
+        <v>860057</v>
+      </c>
+      <c r="B409" s="3">
+        <v>6</v>
+      </c>
+      <c r="C409" s="34">
+        <v>233</v>
+      </c>
+      <c r="D409" s="20">
+        <v>0</v>
+      </c>
+      <c r="E409" s="20">
+        <v>0</v>
+      </c>
+      <c r="F409" s="20">
+        <v>0</v>
+      </c>
+      <c r="G409" s="20">
+        <v>0</v>
+      </c>
+      <c r="H409" s="20">
+        <v>0</v>
+      </c>
+      <c r="I409" s="20">
+        <v>0</v>
+      </c>
+      <c r="J409" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" s="3" customFormat="1" spans="1:10">
+      <c r="A410" s="31">
+        <v>860058</v>
+      </c>
+      <c r="B410" s="3">
+        <v>6</v>
+      </c>
+      <c r="C410" s="34">
+        <v>234</v>
+      </c>
+      <c r="D410" s="20">
+        <v>0</v>
+      </c>
+      <c r="E410" s="20">
+        <v>0</v>
+      </c>
+      <c r="F410" s="20">
+        <v>0</v>
+      </c>
+      <c r="G410" s="20">
+        <v>0</v>
+      </c>
+      <c r="H410" s="20">
+        <v>0</v>
+      </c>
+      <c r="I410" s="20">
+        <v>0</v>
+      </c>
+      <c r="J410" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" s="3" customFormat="1" spans="1:10">
+      <c r="A411" s="31">
+        <v>860059</v>
+      </c>
+      <c r="B411" s="3">
+        <v>6</v>
+      </c>
+      <c r="C411" s="34">
+        <v>235</v>
+      </c>
+      <c r="D411" s="20">
+        <v>0</v>
+      </c>
+      <c r="E411" s="20">
+        <v>0</v>
+      </c>
+      <c r="F411" s="20">
+        <v>0</v>
+      </c>
+      <c r="G411" s="20">
+        <v>0</v>
+      </c>
+      <c r="H411" s="20">
+        <v>0</v>
+      </c>
+      <c r="I411" s="20">
+        <v>0</v>
+      </c>
+      <c r="J411" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" s="3" customFormat="1" spans="1:10">
+      <c r="A412" s="31">
+        <v>860060</v>
+      </c>
+      <c r="B412" s="3">
+        <v>6</v>
+      </c>
+      <c r="C412" s="34">
+        <v>236</v>
+      </c>
+      <c r="D412" s="20">
+        <v>0</v>
+      </c>
+      <c r="E412" s="20">
+        <v>0</v>
+      </c>
+      <c r="F412" s="20">
+        <v>0</v>
+      </c>
+      <c r="G412" s="20">
+        <v>0</v>
+      </c>
+      <c r="H412" s="20">
+        <v>0</v>
+      </c>
+      <c r="I412" s="20">
+        <v>0</v>
+      </c>
+      <c r="J412" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" s="3" customFormat="1" spans="1:10">
+      <c r="A413" s="31">
+        <v>860061</v>
+      </c>
+      <c r="B413" s="3">
+        <v>6</v>
+      </c>
+      <c r="C413" s="34">
+        <v>237</v>
+      </c>
+      <c r="D413" s="20">
+        <v>0</v>
+      </c>
+      <c r="E413" s="20">
+        <v>0</v>
+      </c>
+      <c r="F413" s="20">
+        <v>0</v>
+      </c>
+      <c r="G413" s="20">
+        <v>0</v>
+      </c>
+      <c r="H413" s="20">
+        <v>0</v>
+      </c>
+      <c r="I413" s="20">
+        <v>0</v>
+      </c>
+      <c r="J413" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" s="3" customFormat="1" spans="1:10">
+      <c r="A414" s="31">
+        <v>860062</v>
+      </c>
+      <c r="B414" s="3">
+        <v>6</v>
+      </c>
+      <c r="C414" s="34">
+        <v>238</v>
+      </c>
+      <c r="D414" s="20">
+        <v>0</v>
+      </c>
+      <c r="E414" s="20">
+        <v>0</v>
+      </c>
+      <c r="F414" s="20">
+        <v>0</v>
+      </c>
+      <c r="G414" s="20">
+        <v>0</v>
+      </c>
+      <c r="H414" s="20">
+        <v>0</v>
+      </c>
+      <c r="I414" s="20">
+        <v>0</v>
+      </c>
+      <c r="J414" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" s="3" customFormat="1" spans="1:10">
+      <c r="A415" s="31">
+        <v>860063</v>
+      </c>
+      <c r="B415" s="3">
+        <v>6</v>
+      </c>
+      <c r="C415" s="34">
+        <v>239</v>
+      </c>
+      <c r="D415" s="20">
+        <v>0</v>
+      </c>
+      <c r="E415" s="20">
+        <v>0</v>
+      </c>
+      <c r="F415" s="20">
+        <v>0</v>
+      </c>
+      <c r="G415" s="20">
+        <v>0</v>
+      </c>
+      <c r="H415" s="20">
+        <v>0</v>
+      </c>
+      <c r="I415" s="20">
+        <v>0</v>
+      </c>
+      <c r="J415" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" s="3" customFormat="1" spans="1:10">
+      <c r="A416" s="31">
+        <v>860064</v>
+      </c>
+      <c r="B416" s="3">
+        <v>6</v>
+      </c>
+      <c r="C416" s="34">
+        <v>240</v>
+      </c>
+      <c r="D416" s="20">
+        <v>0</v>
+      </c>
+      <c r="E416" s="20">
+        <v>0</v>
+      </c>
+      <c r="F416" s="20">
+        <v>0</v>
+      </c>
+      <c r="G416" s="20">
+        <v>0</v>
+      </c>
+      <c r="H416" s="20">
+        <v>0</v>
+      </c>
+      <c r="I416" s="20">
+        <v>0</v>
+      </c>
+      <c r="J416" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" s="3" customFormat="1" spans="1:10">
+      <c r="A417" s="31">
+        <v>860065</v>
+      </c>
+      <c r="B417" s="3">
+        <v>6</v>
+      </c>
+      <c r="C417" s="34">
+        <v>241</v>
+      </c>
+      <c r="D417" s="20">
+        <v>0</v>
+      </c>
+      <c r="E417" s="20">
+        <v>0</v>
+      </c>
+      <c r="F417" s="20">
+        <v>0</v>
+      </c>
+      <c r="G417" s="20">
+        <v>0</v>
+      </c>
+      <c r="H417" s="20">
+        <v>0</v>
+      </c>
+      <c r="I417" s="20">
+        <v>0</v>
+      </c>
+      <c r="J417" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" s="3" customFormat="1" spans="1:10">
+      <c r="A418" s="31">
+        <v>860066</v>
+      </c>
+      <c r="B418" s="3">
+        <v>6</v>
+      </c>
+      <c r="C418" s="34">
+        <v>242</v>
+      </c>
+      <c r="D418" s="20">
+        <v>0</v>
+      </c>
+      <c r="E418" s="20">
+        <v>0</v>
+      </c>
+      <c r="F418" s="20">
+        <v>0</v>
+      </c>
+      <c r="G418" s="20">
+        <v>0</v>
+      </c>
+      <c r="H418" s="20">
+        <v>0</v>
+      </c>
+      <c r="I418" s="20">
+        <v>0</v>
+      </c>
+      <c r="J418" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" s="3" customFormat="1" spans="1:10">
+      <c r="A419" s="31">
+        <v>870051</v>
+      </c>
+      <c r="B419" s="3">
+        <v>6</v>
+      </c>
+      <c r="C419" s="34">
+        <v>243</v>
+      </c>
+      <c r="D419" s="20">
+        <v>0</v>
+      </c>
+      <c r="E419" s="20">
+        <v>0</v>
+      </c>
+      <c r="F419" s="20">
+        <v>0</v>
+      </c>
+      <c r="G419" s="20">
+        <v>0</v>
+      </c>
+      <c r="H419" s="20">
+        <v>0</v>
+      </c>
+      <c r="I419" s="20">
+        <v>0</v>
+      </c>
+      <c r="J419" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" s="3" customFormat="1" spans="1:10">
+      <c r="A420" s="31">
+        <v>870052</v>
+      </c>
+      <c r="B420" s="3">
+        <v>6</v>
+      </c>
+      <c r="C420" s="34">
+        <v>244</v>
+      </c>
+      <c r="D420" s="20">
+        <v>0</v>
+      </c>
+      <c r="E420" s="20">
+        <v>0</v>
+      </c>
+      <c r="F420" s="20">
+        <v>0</v>
+      </c>
+      <c r="G420" s="20">
+        <v>0</v>
+      </c>
+      <c r="H420" s="20">
+        <v>0</v>
+      </c>
+      <c r="I420" s="20">
+        <v>0</v>
+      </c>
+      <c r="J420" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" s="3" customFormat="1" spans="1:10">
+      <c r="A421" s="31">
+        <v>870053</v>
+      </c>
+      <c r="B421" s="3">
+        <v>6</v>
+      </c>
+      <c r="C421" s="34">
+        <v>245</v>
+      </c>
+      <c r="D421" s="20">
+        <v>0</v>
+      </c>
+      <c r="E421" s="20">
+        <v>0</v>
+      </c>
+      <c r="F421" s="20">
+        <v>0</v>
+      </c>
+      <c r="G421" s="20">
+        <v>0</v>
+      </c>
+      <c r="H421" s="20">
+        <v>0</v>
+      </c>
+      <c r="I421" s="20">
+        <v>0</v>
+      </c>
+      <c r="J421" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" s="3" customFormat="1" spans="1:10">
+      <c r="A422" s="31">
+        <v>870054</v>
+      </c>
+      <c r="B422" s="3">
+        <v>6</v>
+      </c>
+      <c r="C422" s="34">
+        <v>246</v>
+      </c>
+      <c r="D422" s="20">
+        <v>0</v>
+      </c>
+      <c r="E422" s="20">
+        <v>0</v>
+      </c>
+      <c r="F422" s="20">
+        <v>0</v>
+      </c>
+      <c r="G422" s="20">
+        <v>0</v>
+      </c>
+      <c r="H422" s="20">
+        <v>0</v>
+      </c>
+      <c r="I422" s="20">
+        <v>0</v>
+      </c>
+      <c r="J422" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" s="3" customFormat="1" spans="1:10">
+      <c r="A423" s="31">
+        <v>870055</v>
+      </c>
+      <c r="B423" s="3">
+        <v>6</v>
+      </c>
+      <c r="C423" s="34">
+        <v>247</v>
+      </c>
+      <c r="D423" s="20">
+        <v>0</v>
+      </c>
+      <c r="E423" s="20">
+        <v>0</v>
+      </c>
+      <c r="F423" s="20">
+        <v>0</v>
+      </c>
+      <c r="G423" s="20">
+        <v>0</v>
+      </c>
+      <c r="H423" s="20">
+        <v>0</v>
+      </c>
+      <c r="I423" s="20">
+        <v>0</v>
+      </c>
+      <c r="J423" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" s="3" customFormat="1" spans="1:10">
+      <c r="A424" s="31">
+        <v>870056</v>
+      </c>
+      <c r="B424" s="3">
+        <v>6</v>
+      </c>
+      <c r="C424" s="34">
+        <v>248</v>
+      </c>
+      <c r="D424" s="20">
+        <v>0</v>
+      </c>
+      <c r="E424" s="20">
+        <v>0</v>
+      </c>
+      <c r="F424" s="20">
+        <v>0</v>
+      </c>
+      <c r="G424" s="20">
+        <v>0</v>
+      </c>
+      <c r="H424" s="20">
+        <v>0</v>
+      </c>
+      <c r="I424" s="20">
+        <v>0</v>
+      </c>
+      <c r="J424" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" s="3" customFormat="1" spans="1:10">
+      <c r="A425" s="31">
+        <v>870057</v>
+      </c>
+      <c r="B425" s="3">
+        <v>6</v>
+      </c>
+      <c r="C425" s="34">
+        <v>249</v>
+      </c>
+      <c r="D425" s="20">
+        <v>0</v>
+      </c>
+      <c r="E425" s="20">
+        <v>0</v>
+      </c>
+      <c r="F425" s="20">
+        <v>0</v>
+      </c>
+      <c r="G425" s="20">
+        <v>0</v>
+      </c>
+      <c r="H425" s="20">
+        <v>0</v>
+      </c>
+      <c r="I425" s="20">
+        <v>0</v>
+      </c>
+      <c r="J425" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" s="3" customFormat="1" spans="1:10">
+      <c r="A426" s="31">
+        <v>870058</v>
+      </c>
+      <c r="B426" s="3">
+        <v>6</v>
+      </c>
+      <c r="C426" s="34">
+        <v>250</v>
+      </c>
+      <c r="D426" s="20">
+        <v>0</v>
+      </c>
+      <c r="E426" s="20">
+        <v>0</v>
+      </c>
+      <c r="F426" s="20">
+        <v>0</v>
+      </c>
+      <c r="G426" s="20">
+        <v>0</v>
+      </c>
+      <c r="H426" s="20">
+        <v>0</v>
+      </c>
+      <c r="I426" s="20">
+        <v>0</v>
+      </c>
+      <c r="J426" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" s="3" customFormat="1" spans="1:10">
+      <c r="A427" s="31">
+        <v>870059</v>
+      </c>
+      <c r="B427" s="3">
+        <v>6</v>
+      </c>
+      <c r="C427" s="34">
+        <v>251</v>
+      </c>
+      <c r="D427" s="20">
+        <v>0</v>
+      </c>
+      <c r="E427" s="20">
+        <v>0</v>
+      </c>
+      <c r="F427" s="20">
+        <v>0</v>
+      </c>
+      <c r="G427" s="20">
+        <v>0</v>
+      </c>
+      <c r="H427" s="20">
+        <v>0</v>
+      </c>
+      <c r="I427" s="20">
+        <v>0</v>
+      </c>
+      <c r="J427" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" s="3" customFormat="1" spans="1:10">
+      <c r="A428" s="31">
+        <v>870060</v>
+      </c>
+      <c r="B428" s="3">
+        <v>6</v>
+      </c>
+      <c r="C428" s="34">
+        <v>252</v>
+      </c>
+      <c r="D428" s="20">
+        <v>0</v>
+      </c>
+      <c r="E428" s="20">
+        <v>0</v>
+      </c>
+      <c r="F428" s="20">
+        <v>0</v>
+      </c>
+      <c r="G428" s="20">
+        <v>0</v>
+      </c>
+      <c r="H428" s="20">
+        <v>0</v>
+      </c>
+      <c r="I428" s="20">
+        <v>0</v>
+      </c>
+      <c r="J428" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" s="3" customFormat="1" spans="1:10">
+      <c r="A429" s="31">
+        <v>870061</v>
+      </c>
+      <c r="B429" s="3">
+        <v>6</v>
+      </c>
+      <c r="C429" s="34">
+        <v>253</v>
+      </c>
+      <c r="D429" s="20">
+        <v>0</v>
+      </c>
+      <c r="E429" s="20">
+        <v>0</v>
+      </c>
+      <c r="F429" s="20">
+        <v>0</v>
+      </c>
+      <c r="G429" s="20">
+        <v>0</v>
+      </c>
+      <c r="H429" s="20">
+        <v>0</v>
+      </c>
+      <c r="I429" s="20">
+        <v>0</v>
+      </c>
+      <c r="J429" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" s="3" customFormat="1" spans="1:10">
+      <c r="A430" s="31">
+        <v>870062</v>
+      </c>
+      <c r="B430" s="3">
+        <v>6</v>
+      </c>
+      <c r="C430" s="34">
+        <v>254</v>
+      </c>
+      <c r="D430" s="20">
+        <v>0</v>
+      </c>
+      <c r="E430" s="20">
+        <v>0</v>
+      </c>
+      <c r="F430" s="20">
+        <v>0</v>
+      </c>
+      <c r="G430" s="20">
+        <v>0</v>
+      </c>
+      <c r="H430" s="20">
+        <v>0</v>
+      </c>
+      <c r="I430" s="20">
+        <v>0</v>
+      </c>
+      <c r="J430" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" s="3" customFormat="1" spans="1:10">
+      <c r="A431" s="31">
+        <v>870063</v>
+      </c>
+      <c r="B431" s="3">
+        <v>6</v>
+      </c>
+      <c r="C431" s="34">
+        <v>255</v>
+      </c>
+      <c r="D431" s="20">
+        <v>0</v>
+      </c>
+      <c r="E431" s="20">
+        <v>0</v>
+      </c>
+      <c r="F431" s="20">
+        <v>0</v>
+      </c>
+      <c r="G431" s="20">
+        <v>0</v>
+      </c>
+      <c r="H431" s="20">
+        <v>0</v>
+      </c>
+      <c r="I431" s="20">
+        <v>0</v>
+      </c>
+      <c r="J431" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" s="3" customFormat="1" spans="1:10">
+      <c r="A432" s="31">
+        <v>870064</v>
+      </c>
+      <c r="B432" s="3">
+        <v>6</v>
+      </c>
+      <c r="C432" s="34">
+        <v>256</v>
+      </c>
+      <c r="D432" s="20">
+        <v>0</v>
+      </c>
+      <c r="E432" s="20">
+        <v>0</v>
+      </c>
+      <c r="F432" s="20">
+        <v>0</v>
+      </c>
+      <c r="G432" s="20">
+        <v>0</v>
+      </c>
+      <c r="H432" s="20">
+        <v>0</v>
+      </c>
+      <c r="I432" s="20">
+        <v>0</v>
+      </c>
+      <c r="J432" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" s="3" customFormat="1" spans="1:10">
+      <c r="A433" s="31">
+        <v>870065</v>
+      </c>
+      <c r="B433" s="3">
+        <v>6</v>
+      </c>
+      <c r="C433" s="34">
+        <v>257</v>
+      </c>
+      <c r="D433" s="20">
+        <v>0</v>
+      </c>
+      <c r="E433" s="20">
+        <v>0</v>
+      </c>
+      <c r="F433" s="20">
+        <v>0</v>
+      </c>
+      <c r="G433" s="20">
+        <v>0</v>
+      </c>
+      <c r="H433" s="20">
+        <v>0</v>
+      </c>
+      <c r="I433" s="20">
+        <v>0</v>
+      </c>
+      <c r="J433" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" s="3" customFormat="1" spans="1:10">
+      <c r="A434" s="31">
+        <v>870066</v>
+      </c>
+      <c r="B434" s="3">
+        <v>6</v>
+      </c>
+      <c r="C434" s="34">
+        <v>258</v>
+      </c>
+      <c r="D434" s="20">
+        <v>0</v>
+      </c>
+      <c r="E434" s="20">
+        <v>0</v>
+      </c>
+      <c r="F434" s="20">
+        <v>0</v>
+      </c>
+      <c r="G434" s="20">
+        <v>0</v>
+      </c>
+      <c r="H434" s="20">
+        <v>0</v>
+      </c>
+      <c r="I434" s="20">
+        <v>0</v>
+      </c>
+      <c r="J434" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="A435" s="35">
+        <v>880051</v>
+      </c>
+      <c r="B435" s="3">
+        <v>6</v>
+      </c>
+      <c r="C435" s="36">
+        <v>259</v>
+      </c>
+      <c r="D435" s="20">
+        <v>0</v>
+      </c>
+      <c r="E435" s="20">
+        <v>0</v>
+      </c>
+      <c r="F435" s="20">
+        <v>0</v>
+      </c>
+      <c r="G435" s="20">
+        <v>0</v>
+      </c>
+      <c r="H435" s="20">
+        <v>0</v>
+      </c>
+      <c r="I435" s="20">
+        <v>0</v>
+      </c>
+      <c r="J435" s="20">
+        <v>0</v>
+      </c>
+      <c r="K435" s="3"/>
+      <c r="L435" s="3"/>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436" s="35">
+        <v>880052</v>
+      </c>
+      <c r="B436" s="3">
+        <v>6</v>
+      </c>
+      <c r="C436" s="36">
+        <v>260</v>
+      </c>
+      <c r="D436" s="20">
+        <v>0</v>
+      </c>
+      <c r="E436" s="20">
+        <v>0</v>
+      </c>
+      <c r="F436" s="20">
+        <v>0</v>
+      </c>
+      <c r="G436" s="20">
+        <v>0</v>
+      </c>
+      <c r="H436" s="20">
+        <v>0</v>
+      </c>
+      <c r="I436" s="20">
+        <v>0</v>
+      </c>
+      <c r="J436" s="20">
+        <v>0</v>
+      </c>
+      <c r="K436" s="3"/>
+      <c r="L436" s="3"/>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437" s="35">
+        <v>880053</v>
+      </c>
+      <c r="B437" s="3">
+        <v>6</v>
+      </c>
+      <c r="C437" s="36">
+        <v>261</v>
+      </c>
+      <c r="D437" s="20">
+        <v>0</v>
+      </c>
+      <c r="E437" s="20">
+        <v>0</v>
+      </c>
+      <c r="F437" s="20">
+        <v>0</v>
+      </c>
+      <c r="G437" s="20">
+        <v>0</v>
+      </c>
+      <c r="H437" s="20">
+        <v>0</v>
+      </c>
+      <c r="I437" s="20">
+        <v>0</v>
+      </c>
+      <c r="J437" s="20">
+        <v>0</v>
+      </c>
+      <c r="K437" s="3"/>
+      <c r="L437" s="3"/>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="35">
+        <v>880054</v>
+      </c>
+      <c r="B438" s="3">
+        <v>6</v>
+      </c>
+      <c r="C438" s="36">
+        <v>262</v>
+      </c>
+      <c r="D438" s="20">
+        <v>0</v>
+      </c>
+      <c r="E438" s="20">
+        <v>0</v>
+      </c>
+      <c r="F438" s="20">
+        <v>0</v>
+      </c>
+      <c r="G438" s="20">
+        <v>0</v>
+      </c>
+      <c r="H438" s="20">
+        <v>0</v>
+      </c>
+      <c r="I438" s="20">
+        <v>0</v>
+      </c>
+      <c r="J438" s="20">
+        <v>0</v>
+      </c>
+      <c r="K438" s="3"/>
+      <c r="L438" s="3"/>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="35">
+        <v>880055</v>
+      </c>
+      <c r="B439" s="3">
+        <v>6</v>
+      </c>
+      <c r="C439" s="36">
+        <v>263</v>
+      </c>
+      <c r="D439" s="20">
+        <v>0</v>
+      </c>
+      <c r="E439" s="20">
+        <v>0</v>
+      </c>
+      <c r="F439" s="20">
+        <v>0</v>
+      </c>
+      <c r="G439" s="20">
+        <v>0</v>
+      </c>
+      <c r="H439" s="20">
+        <v>0</v>
+      </c>
+      <c r="I439" s="20">
+        <v>0</v>
+      </c>
+      <c r="J439" s="20">
+        <v>0</v>
+      </c>
+      <c r="K439" s="3"/>
+      <c r="L439" s="3"/>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="35">
+        <v>880056</v>
+      </c>
+      <c r="B440" s="3">
+        <v>6</v>
+      </c>
+      <c r="C440" s="36">
+        <v>264</v>
+      </c>
+      <c r="D440" s="20">
+        <v>0</v>
+      </c>
+      <c r="E440" s="20">
+        <v>0</v>
+      </c>
+      <c r="F440" s="20">
+        <v>0</v>
+      </c>
+      <c r="G440" s="20">
+        <v>0</v>
+      </c>
+      <c r="H440" s="20">
+        <v>0</v>
+      </c>
+      <c r="I440" s="20">
+        <v>0</v>
+      </c>
+      <c r="J440" s="20">
+        <v>0</v>
+      </c>
+      <c r="K440" s="3"/>
+      <c r="L440" s="3"/>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="35">
+        <v>880057</v>
+      </c>
+      <c r="B441" s="3">
+        <v>6</v>
+      </c>
+      <c r="C441" s="36">
+        <v>265</v>
+      </c>
+      <c r="D441" s="20">
+        <v>0</v>
+      </c>
+      <c r="E441" s="20">
+        <v>0</v>
+      </c>
+      <c r="F441" s="20">
+        <v>0</v>
+      </c>
+      <c r="G441" s="20">
+        <v>0</v>
+      </c>
+      <c r="H441" s="20">
+        <v>0</v>
+      </c>
+      <c r="I441" s="20">
+        <v>0</v>
+      </c>
+      <c r="J441" s="20">
+        <v>0</v>
+      </c>
+      <c r="K441" s="3"/>
+      <c r="L441" s="3"/>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="35">
+        <v>880058</v>
+      </c>
+      <c r="B442" s="3">
+        <v>6</v>
+      </c>
+      <c r="C442" s="36">
+        <v>266</v>
+      </c>
+      <c r="D442" s="20">
+        <v>0</v>
+      </c>
+      <c r="E442" s="20">
+        <v>0</v>
+      </c>
+      <c r="F442" s="20">
+        <v>0</v>
+      </c>
+      <c r="G442" s="20">
+        <v>0</v>
+      </c>
+      <c r="H442" s="20">
+        <v>0</v>
+      </c>
+      <c r="I442" s="20">
+        <v>0</v>
+      </c>
+      <c r="J442" s="20">
+        <v>0</v>
+      </c>
+      <c r="K442" s="3"/>
+      <c r="L442" s="3"/>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="35">
+        <v>880059</v>
+      </c>
+      <c r="B443" s="3">
+        <v>6</v>
+      </c>
+      <c r="C443" s="36">
+        <v>267</v>
+      </c>
+      <c r="D443" s="20">
+        <v>0</v>
+      </c>
+      <c r="E443" s="20">
+        <v>0</v>
+      </c>
+      <c r="F443" s="20">
+        <v>0</v>
+      </c>
+      <c r="G443" s="20">
+        <v>0</v>
+      </c>
+      <c r="H443" s="20">
+        <v>0</v>
+      </c>
+      <c r="I443" s="20">
+        <v>0</v>
+      </c>
+      <c r="J443" s="20">
+        <v>0</v>
+      </c>
+      <c r="K443" s="3"/>
+      <c r="L443" s="3"/>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="35">
+        <v>880060</v>
+      </c>
+      <c r="B444" s="3">
+        <v>6</v>
+      </c>
+      <c r="C444" s="36">
+        <v>268</v>
+      </c>
+      <c r="D444" s="20">
+        <v>0</v>
+      </c>
+      <c r="E444" s="20">
+        <v>0</v>
+      </c>
+      <c r="F444" s="20">
+        <v>0</v>
+      </c>
+      <c r="G444" s="20">
+        <v>0</v>
+      </c>
+      <c r="H444" s="20">
+        <v>0</v>
+      </c>
+      <c r="I444" s="20">
+        <v>0</v>
+      </c>
+      <c r="J444" s="20">
+        <v>0</v>
+      </c>
+      <c r="K444" s="3"/>
+      <c r="L444" s="3"/>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="35">
+        <v>880061</v>
+      </c>
+      <c r="B445" s="3">
+        <v>6</v>
+      </c>
+      <c r="C445" s="36">
+        <v>269</v>
+      </c>
+      <c r="D445" s="20">
+        <v>0</v>
+      </c>
+      <c r="E445" s="20">
+        <v>0</v>
+      </c>
+      <c r="F445" s="20">
+        <v>0</v>
+      </c>
+      <c r="G445" s="20">
+        <v>0</v>
+      </c>
+      <c r="H445" s="20">
+        <v>0</v>
+      </c>
+      <c r="I445" s="20">
+        <v>0</v>
+      </c>
+      <c r="J445" s="20">
+        <v>0</v>
+      </c>
+      <c r="K445" s="3"/>
+      <c r="L445" s="3"/>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="35">
+        <v>880062</v>
+      </c>
+      <c r="B446" s="3">
+        <v>6</v>
+      </c>
+      <c r="C446" s="36">
+        <v>270</v>
+      </c>
+      <c r="D446" s="20">
+        <v>0</v>
+      </c>
+      <c r="E446" s="20">
+        <v>0</v>
+      </c>
+      <c r="F446" s="20">
+        <v>0</v>
+      </c>
+      <c r="G446" s="20">
+        <v>0</v>
+      </c>
+      <c r="H446" s="20">
+        <v>0</v>
+      </c>
+      <c r="I446" s="20">
+        <v>0</v>
+      </c>
+      <c r="J446" s="20">
+        <v>0</v>
+      </c>
+      <c r="K446" s="3"/>
+      <c r="L446" s="3"/>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="35">
+        <v>880063</v>
+      </c>
+      <c r="B447" s="3">
+        <v>6</v>
+      </c>
+      <c r="C447" s="36">
+        <v>271</v>
+      </c>
+      <c r="D447" s="20">
+        <v>0</v>
+      </c>
+      <c r="E447" s="20">
+        <v>0</v>
+      </c>
+      <c r="F447" s="20">
+        <v>0</v>
+      </c>
+      <c r="G447" s="20">
+        <v>0</v>
+      </c>
+      <c r="H447" s="20">
+        <v>0</v>
+      </c>
+      <c r="I447" s="20">
+        <v>0</v>
+      </c>
+      <c r="J447" s="20">
+        <v>0</v>
+      </c>
+      <c r="K447" s="3"/>
+      <c r="L447" s="3"/>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="35">
+        <v>880064</v>
+      </c>
+      <c r="B448" s="3">
+        <v>6</v>
+      </c>
+      <c r="C448" s="36">
+        <v>272</v>
+      </c>
+      <c r="D448" s="20">
+        <v>0</v>
+      </c>
+      <c r="E448" s="20">
+        <v>0</v>
+      </c>
+      <c r="F448" s="20">
+        <v>0</v>
+      </c>
+      <c r="G448" s="20">
+        <v>0</v>
+      </c>
+      <c r="H448" s="20">
+        <v>0</v>
+      </c>
+      <c r="I448" s="20">
+        <v>0</v>
+      </c>
+      <c r="J448" s="20">
+        <v>0</v>
+      </c>
+      <c r="K448" s="3"/>
+      <c r="L448" s="3"/>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="35">
+        <v>880065</v>
+      </c>
+      <c r="B449" s="3">
+        <v>6</v>
+      </c>
+      <c r="C449" s="36">
+        <v>273</v>
+      </c>
+      <c r="D449" s="20">
+        <v>0</v>
+      </c>
+      <c r="E449" s="20">
+        <v>0</v>
+      </c>
+      <c r="F449" s="20">
+        <v>0</v>
+      </c>
+      <c r="G449" s="20">
+        <v>0</v>
+      </c>
+      <c r="H449" s="20">
+        <v>0</v>
+      </c>
+      <c r="I449" s="20">
+        <v>0</v>
+      </c>
+      <c r="J449" s="20">
+        <v>0</v>
+      </c>
+      <c r="K449" s="3"/>
+      <c r="L449" s="3"/>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="35">
+        <v>880066</v>
+      </c>
+      <c r="B450" s="3">
+        <v>6</v>
+      </c>
+      <c r="C450" s="36">
+        <v>274</v>
+      </c>
+      <c r="D450" s="20">
+        <v>0</v>
+      </c>
+      <c r="E450" s="20">
+        <v>0</v>
+      </c>
+      <c r="F450" s="20">
+        <v>0</v>
+      </c>
+      <c r="G450" s="20">
+        <v>0</v>
+      </c>
+      <c r="H450" s="20">
+        <v>0</v>
+      </c>
+      <c r="I450" s="20">
+        <v>0</v>
+      </c>
+      <c r="J450" s="20">
+        <v>0</v>
+      </c>
+      <c r="K450" s="3"/>
+      <c r="L450" s="3"/>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="35">
+        <v>890051</v>
+      </c>
+      <c r="B451" s="3">
+        <v>6</v>
+      </c>
+      <c r="C451" s="36">
+        <v>275</v>
+      </c>
+      <c r="D451" s="20">
+        <v>0</v>
+      </c>
+      <c r="E451" s="20">
+        <v>0</v>
+      </c>
+      <c r="F451" s="20">
+        <v>0</v>
+      </c>
+      <c r="G451" s="20">
+        <v>0</v>
+      </c>
+      <c r="H451" s="20">
+        <v>0</v>
+      </c>
+      <c r="I451" s="20">
+        <v>0</v>
+      </c>
+      <c r="J451" s="20">
+        <v>0</v>
+      </c>
+      <c r="K451" s="3"/>
+      <c r="L451" s="3"/>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="35">
+        <v>890052</v>
+      </c>
+      <c r="B452" s="3">
+        <v>6</v>
+      </c>
+      <c r="C452" s="36">
+        <v>276</v>
+      </c>
+      <c r="D452" s="20">
+        <v>0</v>
+      </c>
+      <c r="E452" s="20">
+        <v>0</v>
+      </c>
+      <c r="F452" s="20">
+        <v>0</v>
+      </c>
+      <c r="G452" s="20">
+        <v>0</v>
+      </c>
+      <c r="H452" s="20">
+        <v>0</v>
+      </c>
+      <c r="I452" s="20">
+        <v>0</v>
+      </c>
+      <c r="J452" s="20">
+        <v>0</v>
+      </c>
+      <c r="K452" s="3"/>
+      <c r="L452" s="3"/>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="35">
+        <v>890053</v>
+      </c>
+      <c r="B453" s="3">
+        <v>6</v>
+      </c>
+      <c r="C453" s="36">
+        <v>277</v>
+      </c>
+      <c r="D453" s="20">
+        <v>0</v>
+      </c>
+      <c r="E453" s="20">
+        <v>0</v>
+      </c>
+      <c r="F453" s="20">
+        <v>0</v>
+      </c>
+      <c r="G453" s="20">
+        <v>0</v>
+      </c>
+      <c r="H453" s="20">
+        <v>0</v>
+      </c>
+      <c r="I453" s="20">
+        <v>0</v>
+      </c>
+      <c r="J453" s="20">
+        <v>0</v>
+      </c>
+      <c r="K453" s="3"/>
+      <c r="L453" s="3"/>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="35">
+        <v>890054</v>
+      </c>
+      <c r="B454" s="3">
+        <v>6</v>
+      </c>
+      <c r="C454" s="36">
+        <v>278</v>
+      </c>
+      <c r="D454" s="20">
+        <v>0</v>
+      </c>
+      <c r="E454" s="20">
+        <v>0</v>
+      </c>
+      <c r="F454" s="20">
+        <v>0</v>
+      </c>
+      <c r="G454" s="20">
+        <v>0</v>
+      </c>
+      <c r="H454" s="20">
+        <v>0</v>
+      </c>
+      <c r="I454" s="20">
+        <v>0</v>
+      </c>
+      <c r="J454" s="20">
+        <v>0</v>
+      </c>
+      <c r="K454" s="3"/>
+      <c r="L454" s="3"/>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="35">
+        <v>890055</v>
+      </c>
+      <c r="B455" s="3">
+        <v>6</v>
+      </c>
+      <c r="C455" s="36">
+        <v>279</v>
+      </c>
+      <c r="D455" s="20">
+        <v>0</v>
+      </c>
+      <c r="E455" s="20">
+        <v>0</v>
+      </c>
+      <c r="F455" s="20">
+        <v>0</v>
+      </c>
+      <c r="G455" s="20">
+        <v>0</v>
+      </c>
+      <c r="H455" s="20">
+        <v>0</v>
+      </c>
+      <c r="I455" s="20">
+        <v>0</v>
+      </c>
+      <c r="J455" s="20">
+        <v>0</v>
+      </c>
+      <c r="K455" s="3"/>
+      <c r="L455" s="3"/>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="35">
+        <v>890056</v>
+      </c>
+      <c r="B456" s="3">
+        <v>6</v>
+      </c>
+      <c r="C456" s="36">
+        <v>280</v>
+      </c>
+      <c r="D456" s="20">
+        <v>0</v>
+      </c>
+      <c r="E456" s="20">
+        <v>0</v>
+      </c>
+      <c r="F456" s="20">
+        <v>0</v>
+      </c>
+      <c r="G456" s="20">
+        <v>0</v>
+      </c>
+      <c r="H456" s="20">
+        <v>0</v>
+      </c>
+      <c r="I456" s="20">
+        <v>0</v>
+      </c>
+      <c r="J456" s="20">
+        <v>0</v>
+      </c>
+      <c r="K456" s="3"/>
+      <c r="L456" s="3"/>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="35">
+        <v>890057</v>
+      </c>
+      <c r="B457" s="3">
+        <v>6</v>
+      </c>
+      <c r="C457" s="36">
+        <v>281</v>
+      </c>
+      <c r="D457" s="20">
+        <v>0</v>
+      </c>
+      <c r="E457" s="20">
+        <v>0</v>
+      </c>
+      <c r="F457" s="20">
+        <v>0</v>
+      </c>
+      <c r="G457" s="20">
+        <v>0</v>
+      </c>
+      <c r="H457" s="20">
+        <v>0</v>
+      </c>
+      <c r="I457" s="20">
+        <v>0</v>
+      </c>
+      <c r="J457" s="20">
+        <v>0</v>
+      </c>
+      <c r="K457" s="3"/>
+      <c r="L457" s="3"/>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="35">
+        <v>890058</v>
+      </c>
+      <c r="B458" s="3">
+        <v>6</v>
+      </c>
+      <c r="C458" s="36">
+        <v>282</v>
+      </c>
+      <c r="D458" s="20">
+        <v>0</v>
+      </c>
+      <c r="E458" s="20">
+        <v>0</v>
+      </c>
+      <c r="F458" s="20">
+        <v>0</v>
+      </c>
+      <c r="G458" s="20">
+        <v>0</v>
+      </c>
+      <c r="H458" s="20">
+        <v>0</v>
+      </c>
+      <c r="I458" s="20">
+        <v>0</v>
+      </c>
+      <c r="J458" s="20">
+        <v>0</v>
+      </c>
+      <c r="K458" s="3"/>
+      <c r="L458" s="3"/>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="35">
+        <v>890059</v>
+      </c>
+      <c r="B459" s="3">
+        <v>6</v>
+      </c>
+      <c r="C459" s="36">
+        <v>283</v>
+      </c>
+      <c r="D459" s="20">
+        <v>0</v>
+      </c>
+      <c r="E459" s="20">
+        <v>0</v>
+      </c>
+      <c r="F459" s="20">
+        <v>0</v>
+      </c>
+      <c r="G459" s="20">
+        <v>0</v>
+      </c>
+      <c r="H459" s="20">
+        <v>0</v>
+      </c>
+      <c r="I459" s="20">
+        <v>0</v>
+      </c>
+      <c r="J459" s="20">
+        <v>0</v>
+      </c>
+      <c r="K459" s="3"/>
+      <c r="L459" s="3"/>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="35">
+        <v>890060</v>
+      </c>
+      <c r="B460" s="3">
+        <v>6</v>
+      </c>
+      <c r="C460" s="36">
+        <v>284</v>
+      </c>
+      <c r="D460" s="20">
+        <v>0</v>
+      </c>
+      <c r="E460" s="20">
+        <v>0</v>
+      </c>
+      <c r="F460" s="20">
+        <v>0</v>
+      </c>
+      <c r="G460" s="20">
+        <v>0</v>
+      </c>
+      <c r="H460" s="20">
+        <v>0</v>
+      </c>
+      <c r="I460" s="20">
+        <v>0</v>
+      </c>
+      <c r="J460" s="20">
+        <v>0</v>
+      </c>
+      <c r="K460" s="3"/>
+      <c r="L460" s="3"/>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="35">
+        <v>890061</v>
+      </c>
+      <c r="B461" s="3">
+        <v>6</v>
+      </c>
+      <c r="C461" s="36">
+        <v>285</v>
+      </c>
+      <c r="D461" s="20">
+        <v>0</v>
+      </c>
+      <c r="E461" s="20">
+        <v>0</v>
+      </c>
+      <c r="F461" s="20">
+        <v>0</v>
+      </c>
+      <c r="G461" s="20">
+        <v>0</v>
+      </c>
+      <c r="H461" s="20">
+        <v>0</v>
+      </c>
+      <c r="I461" s="20">
+        <v>0</v>
+      </c>
+      <c r="J461" s="20">
+        <v>0</v>
+      </c>
+      <c r="K461" s="3"/>
+      <c r="L461" s="3"/>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="35">
+        <v>890062</v>
+      </c>
+      <c r="B462" s="3">
+        <v>6</v>
+      </c>
+      <c r="C462" s="36">
+        <v>286</v>
+      </c>
+      <c r="D462" s="20">
+        <v>0</v>
+      </c>
+      <c r="E462" s="20">
+        <v>0</v>
+      </c>
+      <c r="F462" s="20">
+        <v>0</v>
+      </c>
+      <c r="G462" s="20">
+        <v>0</v>
+      </c>
+      <c r="H462" s="20">
+        <v>0</v>
+      </c>
+      <c r="I462" s="20">
+        <v>0</v>
+      </c>
+      <c r="J462" s="20">
+        <v>0</v>
+      </c>
+      <c r="K462" s="3"/>
+      <c r="L462" s="3"/>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="35">
+        <v>890063</v>
+      </c>
+      <c r="B463" s="3">
+        <v>6</v>
+      </c>
+      <c r="C463" s="36">
+        <v>287</v>
+      </c>
+      <c r="D463" s="20">
+        <v>0</v>
+      </c>
+      <c r="E463" s="20">
+        <v>0</v>
+      </c>
+      <c r="F463" s="20">
+        <v>0</v>
+      </c>
+      <c r="G463" s="20">
+        <v>0</v>
+      </c>
+      <c r="H463" s="20">
+        <v>0</v>
+      </c>
+      <c r="I463" s="20">
+        <v>0</v>
+      </c>
+      <c r="J463" s="20">
+        <v>0</v>
+      </c>
+      <c r="K463" s="3"/>
+      <c r="L463" s="3"/>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="35">
+        <v>890064</v>
+      </c>
+      <c r="B464" s="3">
+        <v>6</v>
+      </c>
+      <c r="C464" s="36">
+        <v>288</v>
+      </c>
+      <c r="D464" s="20">
+        <v>0</v>
+      </c>
+      <c r="E464" s="20">
+        <v>0</v>
+      </c>
+      <c r="F464" s="20">
+        <v>0</v>
+      </c>
+      <c r="G464" s="20">
+        <v>0</v>
+      </c>
+      <c r="H464" s="20">
+        <v>0</v>
+      </c>
+      <c r="I464" s="20">
+        <v>0</v>
+      </c>
+      <c r="J464" s="20">
+        <v>0</v>
+      </c>
+      <c r="K464" s="3"/>
+      <c r="L464" s="3"/>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="35">
+        <v>890065</v>
+      </c>
+      <c r="B465" s="3">
+        <v>6</v>
+      </c>
+      <c r="C465" s="36">
+        <v>289</v>
+      </c>
+      <c r="D465" s="20">
+        <v>0</v>
+      </c>
+      <c r="E465" s="20">
+        <v>0</v>
+      </c>
+      <c r="F465" s="20">
+        <v>0</v>
+      </c>
+      <c r="G465" s="20">
+        <v>0</v>
+      </c>
+      <c r="H465" s="20">
+        <v>0</v>
+      </c>
+      <c r="I465" s="20">
+        <v>0</v>
+      </c>
+      <c r="J465" s="20">
+        <v>0</v>
+      </c>
+      <c r="K465" s="3"/>
+      <c r="L465" s="3"/>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="35">
+        <v>890066</v>
+      </c>
+      <c r="B466" s="3">
+        <v>6</v>
+      </c>
+      <c r="C466" s="36">
+        <v>290</v>
+      </c>
+      <c r="D466" s="20">
+        <v>0</v>
+      </c>
+      <c r="E466" s="20">
+        <v>0</v>
+      </c>
+      <c r="F466" s="20">
+        <v>0</v>
+      </c>
+      <c r="G466" s="20">
+        <v>0</v>
+      </c>
+      <c r="H466" s="20">
+        <v>0</v>
+      </c>
+      <c r="I466" s="20">
+        <v>0</v>
+      </c>
+      <c r="J466" s="20">
+        <v>0</v>
+      </c>
+      <c r="K466" s="3"/>
+      <c r="L466" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:J79">
@@ -14299,7 +16275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14307,7 +16283,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14316,7 +16292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14324,7 +16300,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/npc服务映射表.xlsx
+++ b/Table/Table_xls/npc服务映射表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NPC服务ID</t>
   </si>
@@ -91,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -156,16 +155,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,46 +185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +199,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -253,17 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +261,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -286,7 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,10 +293,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -363,25 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,49 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +392,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,19 +493,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,31 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,27 +564,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -589,17 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +598,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -630,6 +623,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,8 +656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +669,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +681,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,10 +913,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -966,6 +968,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1292,29 +1299,28 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L466"/>
+  <dimension ref="A1:L639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A451" sqref="A451:A466"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="291" customHeight="1" spans="1:10">
+    <row r="1" ht="66" customHeight="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5772,7 +5778,7 @@
         <v>101100</v>
       </c>
       <c r="B141" s="20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C141" s="21">
         <v>1500000</v>
@@ -5804,7 +5810,7 @@
         <v>101101</v>
       </c>
       <c r="B142" s="20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C142" s="21">
         <v>1510000</v>
@@ -5836,7 +5842,7 @@
         <v>101102</v>
       </c>
       <c r="B143" s="20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C143" s="21">
         <v>1520000</v>
@@ -5868,7 +5874,7 @@
         <v>101103</v>
       </c>
       <c r="B144" s="20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C144" s="21">
         <v>1530000</v>
@@ -5900,7 +5906,7 @@
         <v>101104</v>
       </c>
       <c r="B145" s="20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C145" s="21">
         <v>1540000</v>
@@ -15176,13 +15182,13 @@
       </c>
     </row>
     <row r="435" spans="1:12">
-      <c r="A435" s="35">
+      <c r="A435" s="31">
         <v>880051</v>
       </c>
       <c r="B435" s="3">
         <v>6</v>
       </c>
-      <c r="C435" s="36">
+      <c r="C435" s="35">
         <v>259</v>
       </c>
       <c r="D435" s="20">
@@ -15210,13 +15216,13 @@
       <c r="L435" s="3"/>
     </row>
     <row r="436" spans="1:12">
-      <c r="A436" s="35">
+      <c r="A436" s="31">
         <v>880052</v>
       </c>
       <c r="B436" s="3">
         <v>6</v>
       </c>
-      <c r="C436" s="36">
+      <c r="C436" s="35">
         <v>260</v>
       </c>
       <c r="D436" s="20">
@@ -15244,13 +15250,13 @@
       <c r="L436" s="3"/>
     </row>
     <row r="437" spans="1:12">
-      <c r="A437" s="35">
+      <c r="A437" s="31">
         <v>880053</v>
       </c>
       <c r="B437" s="3">
         <v>6</v>
       </c>
-      <c r="C437" s="36">
+      <c r="C437" s="35">
         <v>261</v>
       </c>
       <c r="D437" s="20">
@@ -15278,13 +15284,13 @@
       <c r="L437" s="3"/>
     </row>
     <row r="438" spans="1:12">
-      <c r="A438" s="35">
+      <c r="A438" s="31">
         <v>880054</v>
       </c>
       <c r="B438" s="3">
         <v>6</v>
       </c>
-      <c r="C438" s="36">
+      <c r="C438" s="35">
         <v>262</v>
       </c>
       <c r="D438" s="20">
@@ -15312,13 +15318,13 @@
       <c r="L438" s="3"/>
     </row>
     <row r="439" spans="1:12">
-      <c r="A439" s="35">
+      <c r="A439" s="31">
         <v>880055</v>
       </c>
       <c r="B439" s="3">
         <v>6</v>
       </c>
-      <c r="C439" s="36">
+      <c r="C439" s="35">
         <v>263</v>
       </c>
       <c r="D439" s="20">
@@ -15346,13 +15352,13 @@
       <c r="L439" s="3"/>
     </row>
     <row r="440" spans="1:12">
-      <c r="A440" s="35">
+      <c r="A440" s="31">
         <v>880056</v>
       </c>
       <c r="B440" s="3">
         <v>6</v>
       </c>
-      <c r="C440" s="36">
+      <c r="C440" s="35">
         <v>264</v>
       </c>
       <c r="D440" s="20">
@@ -15380,13 +15386,13 @@
       <c r="L440" s="3"/>
     </row>
     <row r="441" spans="1:12">
-      <c r="A441" s="35">
+      <c r="A441" s="31">
         <v>880057</v>
       </c>
       <c r="B441" s="3">
         <v>6</v>
       </c>
-      <c r="C441" s="36">
+      <c r="C441" s="35">
         <v>265</v>
       </c>
       <c r="D441" s="20">
@@ -15414,13 +15420,13 @@
       <c r="L441" s="3"/>
     </row>
     <row r="442" spans="1:12">
-      <c r="A442" s="35">
+      <c r="A442" s="31">
         <v>880058</v>
       </c>
       <c r="B442" s="3">
         <v>6</v>
       </c>
-      <c r="C442" s="36">
+      <c r="C442" s="35">
         <v>266</v>
       </c>
       <c r="D442" s="20">
@@ -15448,13 +15454,13 @@
       <c r="L442" s="3"/>
     </row>
     <row r="443" spans="1:12">
-      <c r="A443" s="35">
+      <c r="A443" s="31">
         <v>880059</v>
       </c>
       <c r="B443" s="3">
         <v>6</v>
       </c>
-      <c r="C443" s="36">
+      <c r="C443" s="35">
         <v>267</v>
       </c>
       <c r="D443" s="20">
@@ -15482,13 +15488,13 @@
       <c r="L443" s="3"/>
     </row>
     <row r="444" spans="1:12">
-      <c r="A444" s="35">
+      <c r="A444" s="31">
         <v>880060</v>
       </c>
       <c r="B444" s="3">
         <v>6</v>
       </c>
-      <c r="C444" s="36">
+      <c r="C444" s="35">
         <v>268</v>
       </c>
       <c r="D444" s="20">
@@ -15516,13 +15522,13 @@
       <c r="L444" s="3"/>
     </row>
     <row r="445" spans="1:12">
-      <c r="A445" s="35">
+      <c r="A445" s="31">
         <v>880061</v>
       </c>
       <c r="B445" s="3">
         <v>6</v>
       </c>
-      <c r="C445" s="36">
+      <c r="C445" s="35">
         <v>269</v>
       </c>
       <c r="D445" s="20">
@@ -15550,13 +15556,13 @@
       <c r="L445" s="3"/>
     </row>
     <row r="446" spans="1:12">
-      <c r="A446" s="35">
+      <c r="A446" s="31">
         <v>880062</v>
       </c>
       <c r="B446" s="3">
         <v>6</v>
       </c>
-      <c r="C446" s="36">
+      <c r="C446" s="35">
         <v>270</v>
       </c>
       <c r="D446" s="20">
@@ -15584,13 +15590,13 @@
       <c r="L446" s="3"/>
     </row>
     <row r="447" spans="1:12">
-      <c r="A447" s="35">
+      <c r="A447" s="31">
         <v>880063</v>
       </c>
       <c r="B447" s="3">
         <v>6</v>
       </c>
-      <c r="C447" s="36">
+      <c r="C447" s="35">
         <v>271</v>
       </c>
       <c r="D447" s="20">
@@ -15618,13 +15624,13 @@
       <c r="L447" s="3"/>
     </row>
     <row r="448" spans="1:12">
-      <c r="A448" s="35">
+      <c r="A448" s="31">
         <v>880064</v>
       </c>
       <c r="B448" s="3">
         <v>6</v>
       </c>
-      <c r="C448" s="36">
+      <c r="C448" s="35">
         <v>272</v>
       </c>
       <c r="D448" s="20">
@@ -15652,13 +15658,13 @@
       <c r="L448" s="3"/>
     </row>
     <row r="449" spans="1:12">
-      <c r="A449" s="35">
+      <c r="A449" s="31">
         <v>880065</v>
       </c>
       <c r="B449" s="3">
         <v>6</v>
       </c>
-      <c r="C449" s="36">
+      <c r="C449" s="35">
         <v>273</v>
       </c>
       <c r="D449" s="20">
@@ -15686,13 +15692,13 @@
       <c r="L449" s="3"/>
     </row>
     <row r="450" spans="1:12">
-      <c r="A450" s="35">
+      <c r="A450" s="31">
         <v>880066</v>
       </c>
       <c r="B450" s="3">
         <v>6</v>
       </c>
-      <c r="C450" s="36">
+      <c r="C450" s="35">
         <v>274</v>
       </c>
       <c r="D450" s="20">
@@ -15720,13 +15726,13 @@
       <c r="L450" s="3"/>
     </row>
     <row r="451" spans="1:12">
-      <c r="A451" s="35">
+      <c r="A451" s="31">
         <v>890051</v>
       </c>
       <c r="B451" s="3">
         <v>6</v>
       </c>
-      <c r="C451" s="36">
+      <c r="C451" s="35">
         <v>275</v>
       </c>
       <c r="D451" s="20">
@@ -15754,13 +15760,13 @@
       <c r="L451" s="3"/>
     </row>
     <row r="452" spans="1:12">
-      <c r="A452" s="35">
+      <c r="A452" s="31">
         <v>890052</v>
       </c>
       <c r="B452" s="3">
         <v>6</v>
       </c>
-      <c r="C452" s="36">
+      <c r="C452" s="35">
         <v>276</v>
       </c>
       <c r="D452" s="20">
@@ -15788,13 +15794,13 @@
       <c r="L452" s="3"/>
     </row>
     <row r="453" spans="1:12">
-      <c r="A453" s="35">
+      <c r="A453" s="31">
         <v>890053</v>
       </c>
       <c r="B453" s="3">
         <v>6</v>
       </c>
-      <c r="C453" s="36">
+      <c r="C453" s="35">
         <v>277</v>
       </c>
       <c r="D453" s="20">
@@ -15822,13 +15828,13 @@
       <c r="L453" s="3"/>
     </row>
     <row r="454" spans="1:12">
-      <c r="A454" s="35">
+      <c r="A454" s="31">
         <v>890054</v>
       </c>
       <c r="B454" s="3">
         <v>6</v>
       </c>
-      <c r="C454" s="36">
+      <c r="C454" s="35">
         <v>278</v>
       </c>
       <c r="D454" s="20">
@@ -15856,13 +15862,13 @@
       <c r="L454" s="3"/>
     </row>
     <row r="455" spans="1:12">
-      <c r="A455" s="35">
+      <c r="A455" s="31">
         <v>890055</v>
       </c>
       <c r="B455" s="3">
         <v>6</v>
       </c>
-      <c r="C455" s="36">
+      <c r="C455" s="35">
         <v>279</v>
       </c>
       <c r="D455" s="20">
@@ -15890,13 +15896,13 @@
       <c r="L455" s="3"/>
     </row>
     <row r="456" spans="1:12">
-      <c r="A456" s="35">
+      <c r="A456" s="31">
         <v>890056</v>
       </c>
       <c r="B456" s="3">
         <v>6</v>
       </c>
-      <c r="C456" s="36">
+      <c r="C456" s="35">
         <v>280</v>
       </c>
       <c r="D456" s="20">
@@ -15924,13 +15930,13 @@
       <c r="L456" s="3"/>
     </row>
     <row r="457" spans="1:12">
-      <c r="A457" s="35">
+      <c r="A457" s="31">
         <v>890057</v>
       </c>
       <c r="B457" s="3">
         <v>6</v>
       </c>
-      <c r="C457" s="36">
+      <c r="C457" s="35">
         <v>281</v>
       </c>
       <c r="D457" s="20">
@@ -15958,13 +15964,13 @@
       <c r="L457" s="3"/>
     </row>
     <row r="458" spans="1:12">
-      <c r="A458" s="35">
+      <c r="A458" s="31">
         <v>890058</v>
       </c>
       <c r="B458" s="3">
         <v>6</v>
       </c>
-      <c r="C458" s="36">
+      <c r="C458" s="35">
         <v>282</v>
       </c>
       <c r="D458" s="20">
@@ -15992,13 +15998,13 @@
       <c r="L458" s="3"/>
     </row>
     <row r="459" spans="1:12">
-      <c r="A459" s="35">
+      <c r="A459" s="31">
         <v>890059</v>
       </c>
       <c r="B459" s="3">
         <v>6</v>
       </c>
-      <c r="C459" s="36">
+      <c r="C459" s="35">
         <v>283</v>
       </c>
       <c r="D459" s="20">
@@ -16026,13 +16032,13 @@
       <c r="L459" s="3"/>
     </row>
     <row r="460" spans="1:12">
-      <c r="A460" s="35">
+      <c r="A460" s="31">
         <v>890060</v>
       </c>
       <c r="B460" s="3">
         <v>6</v>
       </c>
-      <c r="C460" s="36">
+      <c r="C460" s="35">
         <v>284</v>
       </c>
       <c r="D460" s="20">
@@ -16060,13 +16066,13 @@
       <c r="L460" s="3"/>
     </row>
     <row r="461" spans="1:12">
-      <c r="A461" s="35">
+      <c r="A461" s="31">
         <v>890061</v>
       </c>
       <c r="B461" s="3">
         <v>6</v>
       </c>
-      <c r="C461" s="36">
+      <c r="C461" s="35">
         <v>285</v>
       </c>
       <c r="D461" s="20">
@@ -16094,13 +16100,13 @@
       <c r="L461" s="3"/>
     </row>
     <row r="462" spans="1:12">
-      <c r="A462" s="35">
+      <c r="A462" s="31">
         <v>890062</v>
       </c>
       <c r="B462" s="3">
         <v>6</v>
       </c>
-      <c r="C462" s="36">
+      <c r="C462" s="35">
         <v>286</v>
       </c>
       <c r="D462" s="20">
@@ -16128,13 +16134,13 @@
       <c r="L462" s="3"/>
     </row>
     <row r="463" spans="1:12">
-      <c r="A463" s="35">
+      <c r="A463" s="31">
         <v>890063</v>
       </c>
       <c r="B463" s="3">
         <v>6</v>
       </c>
-      <c r="C463" s="36">
+      <c r="C463" s="35">
         <v>287</v>
       </c>
       <c r="D463" s="20">
@@ -16162,13 +16168,13 @@
       <c r="L463" s="3"/>
     </row>
     <row r="464" spans="1:12">
-      <c r="A464" s="35">
+      <c r="A464" s="31">
         <v>890064</v>
       </c>
       <c r="B464" s="3">
         <v>6</v>
       </c>
-      <c r="C464" s="36">
+      <c r="C464" s="35">
         <v>288</v>
       </c>
       <c r="D464" s="20">
@@ -16196,13 +16202,13 @@
       <c r="L464" s="3"/>
     </row>
     <row r="465" spans="1:12">
-      <c r="A465" s="35">
+      <c r="A465" s="31">
         <v>890065</v>
       </c>
       <c r="B465" s="3">
         <v>6</v>
       </c>
-      <c r="C465" s="36">
+      <c r="C465" s="35">
         <v>289</v>
       </c>
       <c r="D465" s="20">
@@ -16230,13 +16236,13 @@
       <c r="L465" s="3"/>
     </row>
     <row r="466" spans="1:12">
-      <c r="A466" s="35">
+      <c r="A466" s="31">
         <v>890066</v>
       </c>
       <c r="B466" s="3">
         <v>6</v>
       </c>
-      <c r="C466" s="36">
+      <c r="C466" s="35">
         <v>290</v>
       </c>
       <c r="D466" s="20">
@@ -16262,6 +16268,4731 @@
       </c>
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
+    </row>
+    <row r="467" spans="1:10">
+      <c r="A467" s="31">
+        <v>891051</v>
+      </c>
+      <c r="B467" s="3">
+        <v>6</v>
+      </c>
+      <c r="C467" s="35">
+        <v>291</v>
+      </c>
+      <c r="D467" s="20">
+        <v>0</v>
+      </c>
+      <c r="E467" s="20">
+        <v>0</v>
+      </c>
+      <c r="F467" s="20">
+        <v>0</v>
+      </c>
+      <c r="G467" s="20">
+        <v>0</v>
+      </c>
+      <c r="H467" s="20">
+        <v>0</v>
+      </c>
+      <c r="I467" s="20">
+        <v>0</v>
+      </c>
+      <c r="J467" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10">
+      <c r="A468" s="31">
+        <v>891052</v>
+      </c>
+      <c r="B468" s="3">
+        <v>6</v>
+      </c>
+      <c r="C468" s="35">
+        <v>292</v>
+      </c>
+      <c r="D468" s="20">
+        <v>0</v>
+      </c>
+      <c r="E468" s="20">
+        <v>0</v>
+      </c>
+      <c r="F468" s="20">
+        <v>0</v>
+      </c>
+      <c r="G468" s="20">
+        <v>0</v>
+      </c>
+      <c r="H468" s="20">
+        <v>0</v>
+      </c>
+      <c r="I468" s="20">
+        <v>0</v>
+      </c>
+      <c r="J468" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10">
+      <c r="A469" s="31">
+        <v>891053</v>
+      </c>
+      <c r="B469" s="3">
+        <v>6</v>
+      </c>
+      <c r="C469" s="35">
+        <v>293</v>
+      </c>
+      <c r="D469" s="20">
+        <v>0</v>
+      </c>
+      <c r="E469" s="20">
+        <v>0</v>
+      </c>
+      <c r="F469" s="20">
+        <v>0</v>
+      </c>
+      <c r="G469" s="20">
+        <v>0</v>
+      </c>
+      <c r="H469" s="20">
+        <v>0</v>
+      </c>
+      <c r="I469" s="20">
+        <v>0</v>
+      </c>
+      <c r="J469" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10">
+      <c r="A470" s="31">
+        <v>891054</v>
+      </c>
+      <c r="B470" s="3">
+        <v>6</v>
+      </c>
+      <c r="C470" s="35">
+        <v>294</v>
+      </c>
+      <c r="D470" s="20">
+        <v>0</v>
+      </c>
+      <c r="E470" s="20">
+        <v>0</v>
+      </c>
+      <c r="F470" s="20">
+        <v>0</v>
+      </c>
+      <c r="G470" s="20">
+        <v>0</v>
+      </c>
+      <c r="H470" s="20">
+        <v>0</v>
+      </c>
+      <c r="I470" s="20">
+        <v>0</v>
+      </c>
+      <c r="J470" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10">
+      <c r="A471" s="31">
+        <v>891055</v>
+      </c>
+      <c r="B471" s="3">
+        <v>6</v>
+      </c>
+      <c r="C471" s="35">
+        <v>295</v>
+      </c>
+      <c r="D471" s="20">
+        <v>0</v>
+      </c>
+      <c r="E471" s="20">
+        <v>0</v>
+      </c>
+      <c r="F471" s="20">
+        <v>0</v>
+      </c>
+      <c r="G471" s="20">
+        <v>0</v>
+      </c>
+      <c r="H471" s="20">
+        <v>0</v>
+      </c>
+      <c r="I471" s="20">
+        <v>0</v>
+      </c>
+      <c r="J471" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10">
+      <c r="A472" s="31">
+        <v>891056</v>
+      </c>
+      <c r="B472" s="3">
+        <v>6</v>
+      </c>
+      <c r="C472" s="35">
+        <v>296</v>
+      </c>
+      <c r="D472" s="20">
+        <v>0</v>
+      </c>
+      <c r="E472" s="20">
+        <v>0</v>
+      </c>
+      <c r="F472" s="20">
+        <v>0</v>
+      </c>
+      <c r="G472" s="20">
+        <v>0</v>
+      </c>
+      <c r="H472" s="20">
+        <v>0</v>
+      </c>
+      <c r="I472" s="20">
+        <v>0</v>
+      </c>
+      <c r="J472" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10">
+      <c r="A473" s="31">
+        <v>891057</v>
+      </c>
+      <c r="B473" s="3">
+        <v>6</v>
+      </c>
+      <c r="C473" s="35">
+        <v>297</v>
+      </c>
+      <c r="D473" s="20">
+        <v>0</v>
+      </c>
+      <c r="E473" s="20">
+        <v>0</v>
+      </c>
+      <c r="F473" s="20">
+        <v>0</v>
+      </c>
+      <c r="G473" s="20">
+        <v>0</v>
+      </c>
+      <c r="H473" s="20">
+        <v>0</v>
+      </c>
+      <c r="I473" s="20">
+        <v>0</v>
+      </c>
+      <c r="J473" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10">
+      <c r="A474" s="31">
+        <v>891058</v>
+      </c>
+      <c r="B474" s="3">
+        <v>6</v>
+      </c>
+      <c r="C474" s="35">
+        <v>298</v>
+      </c>
+      <c r="D474" s="20">
+        <v>0</v>
+      </c>
+      <c r="E474" s="20">
+        <v>0</v>
+      </c>
+      <c r="F474" s="20">
+        <v>0</v>
+      </c>
+      <c r="G474" s="20">
+        <v>0</v>
+      </c>
+      <c r="H474" s="20">
+        <v>0</v>
+      </c>
+      <c r="I474" s="20">
+        <v>0</v>
+      </c>
+      <c r="J474" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10">
+      <c r="A475" s="31">
+        <v>891059</v>
+      </c>
+      <c r="B475" s="3">
+        <v>6</v>
+      </c>
+      <c r="C475" s="35">
+        <v>299</v>
+      </c>
+      <c r="D475" s="20">
+        <v>0</v>
+      </c>
+      <c r="E475" s="20">
+        <v>0</v>
+      </c>
+      <c r="F475" s="20">
+        <v>0</v>
+      </c>
+      <c r="G475" s="20">
+        <v>0</v>
+      </c>
+      <c r="H475" s="20">
+        <v>0</v>
+      </c>
+      <c r="I475" s="20">
+        <v>0</v>
+      </c>
+      <c r="J475" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10">
+      <c r="A476" s="31">
+        <v>892051</v>
+      </c>
+      <c r="B476" s="3">
+        <v>6</v>
+      </c>
+      <c r="C476" s="35">
+        <v>300</v>
+      </c>
+      <c r="D476" s="20">
+        <v>0</v>
+      </c>
+      <c r="E476" s="20">
+        <v>0</v>
+      </c>
+      <c r="F476" s="20">
+        <v>0</v>
+      </c>
+      <c r="G476" s="20">
+        <v>0</v>
+      </c>
+      <c r="H476" s="20">
+        <v>0</v>
+      </c>
+      <c r="I476" s="20">
+        <v>0</v>
+      </c>
+      <c r="J476" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10">
+      <c r="A477" s="31">
+        <v>892052</v>
+      </c>
+      <c r="B477" s="3">
+        <v>6</v>
+      </c>
+      <c r="C477" s="35">
+        <v>301</v>
+      </c>
+      <c r="D477" s="20">
+        <v>0</v>
+      </c>
+      <c r="E477" s="20">
+        <v>0</v>
+      </c>
+      <c r="F477" s="20">
+        <v>0</v>
+      </c>
+      <c r="G477" s="20">
+        <v>0</v>
+      </c>
+      <c r="H477" s="20">
+        <v>0</v>
+      </c>
+      <c r="I477" s="20">
+        <v>0</v>
+      </c>
+      <c r="J477" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10">
+      <c r="A478" s="31">
+        <v>892053</v>
+      </c>
+      <c r="B478" s="3">
+        <v>6</v>
+      </c>
+      <c r="C478" s="35">
+        <v>302</v>
+      </c>
+      <c r="D478" s="20">
+        <v>0</v>
+      </c>
+      <c r="E478" s="20">
+        <v>0</v>
+      </c>
+      <c r="F478" s="20">
+        <v>0</v>
+      </c>
+      <c r="G478" s="20">
+        <v>0</v>
+      </c>
+      <c r="H478" s="20">
+        <v>0</v>
+      </c>
+      <c r="I478" s="20">
+        <v>0</v>
+      </c>
+      <c r="J478" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10">
+      <c r="A479" s="31">
+        <v>892054</v>
+      </c>
+      <c r="B479" s="3">
+        <v>6</v>
+      </c>
+      <c r="C479" s="35">
+        <v>303</v>
+      </c>
+      <c r="D479" s="20">
+        <v>0</v>
+      </c>
+      <c r="E479" s="20">
+        <v>0</v>
+      </c>
+      <c r="F479" s="20">
+        <v>0</v>
+      </c>
+      <c r="G479" s="20">
+        <v>0</v>
+      </c>
+      <c r="H479" s="20">
+        <v>0</v>
+      </c>
+      <c r="I479" s="20">
+        <v>0</v>
+      </c>
+      <c r="J479" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10">
+      <c r="A480" s="31">
+        <v>892055</v>
+      </c>
+      <c r="B480" s="3">
+        <v>6</v>
+      </c>
+      <c r="C480" s="35">
+        <v>304</v>
+      </c>
+      <c r="D480" s="20">
+        <v>0</v>
+      </c>
+      <c r="E480" s="20">
+        <v>0</v>
+      </c>
+      <c r="F480" s="20">
+        <v>0</v>
+      </c>
+      <c r="G480" s="20">
+        <v>0</v>
+      </c>
+      <c r="H480" s="20">
+        <v>0</v>
+      </c>
+      <c r="I480" s="20">
+        <v>0</v>
+      </c>
+      <c r="J480" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10">
+      <c r="A481" s="31">
+        <v>892056</v>
+      </c>
+      <c r="B481" s="3">
+        <v>6</v>
+      </c>
+      <c r="C481" s="35">
+        <v>305</v>
+      </c>
+      <c r="D481" s="20">
+        <v>0</v>
+      </c>
+      <c r="E481" s="20">
+        <v>0</v>
+      </c>
+      <c r="F481" s="20">
+        <v>0</v>
+      </c>
+      <c r="G481" s="20">
+        <v>0</v>
+      </c>
+      <c r="H481" s="20">
+        <v>0</v>
+      </c>
+      <c r="I481" s="20">
+        <v>0</v>
+      </c>
+      <c r="J481" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10">
+      <c r="A482" s="31">
+        <v>892057</v>
+      </c>
+      <c r="B482" s="3">
+        <v>6</v>
+      </c>
+      <c r="C482" s="35">
+        <v>306</v>
+      </c>
+      <c r="D482" s="20">
+        <v>0</v>
+      </c>
+      <c r="E482" s="20">
+        <v>0</v>
+      </c>
+      <c r="F482" s="20">
+        <v>0</v>
+      </c>
+      <c r="G482" s="20">
+        <v>0</v>
+      </c>
+      <c r="H482" s="20">
+        <v>0</v>
+      </c>
+      <c r="I482" s="20">
+        <v>0</v>
+      </c>
+      <c r="J482" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10">
+      <c r="A483" s="31">
+        <v>892058</v>
+      </c>
+      <c r="B483" s="3">
+        <v>6</v>
+      </c>
+      <c r="C483" s="35">
+        <v>307</v>
+      </c>
+      <c r="D483" s="20">
+        <v>0</v>
+      </c>
+      <c r="E483" s="20">
+        <v>0</v>
+      </c>
+      <c r="F483" s="20">
+        <v>0</v>
+      </c>
+      <c r="G483" s="20">
+        <v>0</v>
+      </c>
+      <c r="H483" s="20">
+        <v>0</v>
+      </c>
+      <c r="I483" s="20">
+        <v>0</v>
+      </c>
+      <c r="J483" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10">
+      <c r="A484" s="31">
+        <v>892059</v>
+      </c>
+      <c r="B484" s="3">
+        <v>6</v>
+      </c>
+      <c r="C484" s="35">
+        <v>308</v>
+      </c>
+      <c r="D484" s="20">
+        <v>0</v>
+      </c>
+      <c r="E484" s="20">
+        <v>0</v>
+      </c>
+      <c r="F484" s="20">
+        <v>0</v>
+      </c>
+      <c r="G484" s="20">
+        <v>0</v>
+      </c>
+      <c r="H484" s="20">
+        <v>0</v>
+      </c>
+      <c r="I484" s="20">
+        <v>0</v>
+      </c>
+      <c r="J484" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10">
+      <c r="A485" s="31">
+        <v>893051</v>
+      </c>
+      <c r="B485" s="3">
+        <v>6</v>
+      </c>
+      <c r="C485" s="35">
+        <v>309</v>
+      </c>
+      <c r="D485" s="20">
+        <v>0</v>
+      </c>
+      <c r="E485" s="20">
+        <v>0</v>
+      </c>
+      <c r="F485" s="20">
+        <v>0</v>
+      </c>
+      <c r="G485" s="20">
+        <v>0</v>
+      </c>
+      <c r="H485" s="20">
+        <v>0</v>
+      </c>
+      <c r="I485" s="20">
+        <v>0</v>
+      </c>
+      <c r="J485" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10">
+      <c r="A486" s="31">
+        <v>893052</v>
+      </c>
+      <c r="B486" s="3">
+        <v>6</v>
+      </c>
+      <c r="C486" s="35">
+        <v>310</v>
+      </c>
+      <c r="D486" s="20">
+        <v>0</v>
+      </c>
+      <c r="E486" s="20">
+        <v>0</v>
+      </c>
+      <c r="F486" s="20">
+        <v>0</v>
+      </c>
+      <c r="G486" s="20">
+        <v>0</v>
+      </c>
+      <c r="H486" s="20">
+        <v>0</v>
+      </c>
+      <c r="I486" s="20">
+        <v>0</v>
+      </c>
+      <c r="J486" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10">
+      <c r="A487" s="31">
+        <v>893053</v>
+      </c>
+      <c r="B487" s="3">
+        <v>6</v>
+      </c>
+      <c r="C487" s="35">
+        <v>311</v>
+      </c>
+      <c r="D487" s="20">
+        <v>0</v>
+      </c>
+      <c r="E487" s="20">
+        <v>0</v>
+      </c>
+      <c r="F487" s="20">
+        <v>0</v>
+      </c>
+      <c r="G487" s="20">
+        <v>0</v>
+      </c>
+      <c r="H487" s="20">
+        <v>0</v>
+      </c>
+      <c r="I487" s="20">
+        <v>0</v>
+      </c>
+      <c r="J487" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10">
+      <c r="A488" s="31">
+        <v>893054</v>
+      </c>
+      <c r="B488" s="3">
+        <v>6</v>
+      </c>
+      <c r="C488" s="35">
+        <v>312</v>
+      </c>
+      <c r="D488" s="20">
+        <v>0</v>
+      </c>
+      <c r="E488" s="20">
+        <v>0</v>
+      </c>
+      <c r="F488" s="20">
+        <v>0</v>
+      </c>
+      <c r="G488" s="20">
+        <v>0</v>
+      </c>
+      <c r="H488" s="20">
+        <v>0</v>
+      </c>
+      <c r="I488" s="20">
+        <v>0</v>
+      </c>
+      <c r="J488" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10">
+      <c r="A489" s="31">
+        <v>893055</v>
+      </c>
+      <c r="B489" s="3">
+        <v>6</v>
+      </c>
+      <c r="C489" s="35">
+        <v>313</v>
+      </c>
+      <c r="D489" s="20">
+        <v>0</v>
+      </c>
+      <c r="E489" s="20">
+        <v>0</v>
+      </c>
+      <c r="F489" s="20">
+        <v>0</v>
+      </c>
+      <c r="G489" s="20">
+        <v>0</v>
+      </c>
+      <c r="H489" s="20">
+        <v>0</v>
+      </c>
+      <c r="I489" s="20">
+        <v>0</v>
+      </c>
+      <c r="J489" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10">
+      <c r="A490" s="31">
+        <v>893056</v>
+      </c>
+      <c r="B490" s="3">
+        <v>6</v>
+      </c>
+      <c r="C490" s="35">
+        <v>314</v>
+      </c>
+      <c r="D490" s="20">
+        <v>0</v>
+      </c>
+      <c r="E490" s="20">
+        <v>0</v>
+      </c>
+      <c r="F490" s="20">
+        <v>0</v>
+      </c>
+      <c r="G490" s="20">
+        <v>0</v>
+      </c>
+      <c r="H490" s="20">
+        <v>0</v>
+      </c>
+      <c r="I490" s="20">
+        <v>0</v>
+      </c>
+      <c r="J490" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10">
+      <c r="A491" s="31">
+        <v>893057</v>
+      </c>
+      <c r="B491" s="3">
+        <v>6</v>
+      </c>
+      <c r="C491" s="35">
+        <v>315</v>
+      </c>
+      <c r="D491" s="20">
+        <v>0</v>
+      </c>
+      <c r="E491" s="20">
+        <v>0</v>
+      </c>
+      <c r="F491" s="20">
+        <v>0</v>
+      </c>
+      <c r="G491" s="20">
+        <v>0</v>
+      </c>
+      <c r="H491" s="20">
+        <v>0</v>
+      </c>
+      <c r="I491" s="20">
+        <v>0</v>
+      </c>
+      <c r="J491" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10">
+      <c r="A492" s="31">
+        <v>893058</v>
+      </c>
+      <c r="B492" s="3">
+        <v>6</v>
+      </c>
+      <c r="C492" s="35">
+        <v>316</v>
+      </c>
+      <c r="D492" s="20">
+        <v>0</v>
+      </c>
+      <c r="E492" s="20">
+        <v>0</v>
+      </c>
+      <c r="F492" s="20">
+        <v>0</v>
+      </c>
+      <c r="G492" s="20">
+        <v>0</v>
+      </c>
+      <c r="H492" s="20">
+        <v>0</v>
+      </c>
+      <c r="I492" s="20">
+        <v>0</v>
+      </c>
+      <c r="J492" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10">
+      <c r="A493" s="31">
+        <v>893059</v>
+      </c>
+      <c r="B493" s="3">
+        <v>6</v>
+      </c>
+      <c r="C493" s="35">
+        <v>317</v>
+      </c>
+      <c r="D493" s="20">
+        <v>0</v>
+      </c>
+      <c r="E493" s="20">
+        <v>0</v>
+      </c>
+      <c r="F493" s="20">
+        <v>0</v>
+      </c>
+      <c r="G493" s="20">
+        <v>0</v>
+      </c>
+      <c r="H493" s="20">
+        <v>0</v>
+      </c>
+      <c r="I493" s="20">
+        <v>0</v>
+      </c>
+      <c r="J493" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10">
+      <c r="A494" s="31">
+        <v>894051</v>
+      </c>
+      <c r="B494" s="3">
+        <v>6</v>
+      </c>
+      <c r="C494" s="35">
+        <v>318</v>
+      </c>
+      <c r="D494" s="20">
+        <v>0</v>
+      </c>
+      <c r="E494" s="20">
+        <v>0</v>
+      </c>
+      <c r="F494" s="20">
+        <v>0</v>
+      </c>
+      <c r="G494" s="20">
+        <v>0</v>
+      </c>
+      <c r="H494" s="20">
+        <v>0</v>
+      </c>
+      <c r="I494" s="20">
+        <v>0</v>
+      </c>
+      <c r="J494" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10">
+      <c r="A495" s="31">
+        <v>894052</v>
+      </c>
+      <c r="B495" s="3">
+        <v>6</v>
+      </c>
+      <c r="C495" s="35">
+        <v>319</v>
+      </c>
+      <c r="D495" s="20">
+        <v>0</v>
+      </c>
+      <c r="E495" s="20">
+        <v>0</v>
+      </c>
+      <c r="F495" s="20">
+        <v>0</v>
+      </c>
+      <c r="G495" s="20">
+        <v>0</v>
+      </c>
+      <c r="H495" s="20">
+        <v>0</v>
+      </c>
+      <c r="I495" s="20">
+        <v>0</v>
+      </c>
+      <c r="J495" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10">
+      <c r="A496" s="31">
+        <v>894053</v>
+      </c>
+      <c r="B496" s="3">
+        <v>6</v>
+      </c>
+      <c r="C496" s="35">
+        <v>320</v>
+      </c>
+      <c r="D496" s="20">
+        <v>0</v>
+      </c>
+      <c r="E496" s="20">
+        <v>0</v>
+      </c>
+      <c r="F496" s="20">
+        <v>0</v>
+      </c>
+      <c r="G496" s="20">
+        <v>0</v>
+      </c>
+      <c r="H496" s="20">
+        <v>0</v>
+      </c>
+      <c r="I496" s="20">
+        <v>0</v>
+      </c>
+      <c r="J496" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10">
+      <c r="A497" s="31">
+        <v>894054</v>
+      </c>
+      <c r="B497" s="3">
+        <v>6</v>
+      </c>
+      <c r="C497" s="35">
+        <v>321</v>
+      </c>
+      <c r="D497" s="20">
+        <v>0</v>
+      </c>
+      <c r="E497" s="20">
+        <v>0</v>
+      </c>
+      <c r="F497" s="20">
+        <v>0</v>
+      </c>
+      <c r="G497" s="20">
+        <v>0</v>
+      </c>
+      <c r="H497" s="20">
+        <v>0</v>
+      </c>
+      <c r="I497" s="20">
+        <v>0</v>
+      </c>
+      <c r="J497" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10">
+      <c r="A498" s="31">
+        <v>894055</v>
+      </c>
+      <c r="B498" s="3">
+        <v>6</v>
+      </c>
+      <c r="C498" s="35">
+        <v>322</v>
+      </c>
+      <c r="D498" s="20">
+        <v>0</v>
+      </c>
+      <c r="E498" s="20">
+        <v>0</v>
+      </c>
+      <c r="F498" s="20">
+        <v>0</v>
+      </c>
+      <c r="G498" s="20">
+        <v>0</v>
+      </c>
+      <c r="H498" s="20">
+        <v>0</v>
+      </c>
+      <c r="I498" s="20">
+        <v>0</v>
+      </c>
+      <c r="J498" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10">
+      <c r="A499" s="31">
+        <v>894056</v>
+      </c>
+      <c r="B499" s="3">
+        <v>6</v>
+      </c>
+      <c r="C499" s="35">
+        <v>323</v>
+      </c>
+      <c r="D499" s="20">
+        <v>0</v>
+      </c>
+      <c r="E499" s="20">
+        <v>0</v>
+      </c>
+      <c r="F499" s="20">
+        <v>0</v>
+      </c>
+      <c r="G499" s="20">
+        <v>0</v>
+      </c>
+      <c r="H499" s="20">
+        <v>0</v>
+      </c>
+      <c r="I499" s="20">
+        <v>0</v>
+      </c>
+      <c r="J499" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10">
+      <c r="A500" s="31">
+        <v>894057</v>
+      </c>
+      <c r="B500" s="3">
+        <v>6</v>
+      </c>
+      <c r="C500" s="35">
+        <v>324</v>
+      </c>
+      <c r="D500" s="20">
+        <v>0</v>
+      </c>
+      <c r="E500" s="20">
+        <v>0</v>
+      </c>
+      <c r="F500" s="20">
+        <v>0</v>
+      </c>
+      <c r="G500" s="20">
+        <v>0</v>
+      </c>
+      <c r="H500" s="20">
+        <v>0</v>
+      </c>
+      <c r="I500" s="20">
+        <v>0</v>
+      </c>
+      <c r="J500" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10">
+      <c r="A501" s="31">
+        <v>894058</v>
+      </c>
+      <c r="B501" s="3">
+        <v>6</v>
+      </c>
+      <c r="C501" s="35">
+        <v>325</v>
+      </c>
+      <c r="D501" s="20">
+        <v>0</v>
+      </c>
+      <c r="E501" s="20">
+        <v>0</v>
+      </c>
+      <c r="F501" s="20">
+        <v>0</v>
+      </c>
+      <c r="G501" s="20">
+        <v>0</v>
+      </c>
+      <c r="H501" s="20">
+        <v>0</v>
+      </c>
+      <c r="I501" s="20">
+        <v>0</v>
+      </c>
+      <c r="J501" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10">
+      <c r="A502" s="31">
+        <v>894059</v>
+      </c>
+      <c r="B502" s="3">
+        <v>6</v>
+      </c>
+      <c r="C502" s="35">
+        <v>326</v>
+      </c>
+      <c r="D502" s="20">
+        <v>0</v>
+      </c>
+      <c r="E502" s="20">
+        <v>0</v>
+      </c>
+      <c r="F502" s="20">
+        <v>0</v>
+      </c>
+      <c r="G502" s="20">
+        <v>0</v>
+      </c>
+      <c r="H502" s="20">
+        <v>0</v>
+      </c>
+      <c r="I502" s="20">
+        <v>0</v>
+      </c>
+      <c r="J502" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10">
+      <c r="A503" s="31">
+        <v>895051</v>
+      </c>
+      <c r="B503" s="3">
+        <v>6</v>
+      </c>
+      <c r="C503" s="35">
+        <v>327</v>
+      </c>
+      <c r="D503" s="20">
+        <v>0</v>
+      </c>
+      <c r="E503" s="20">
+        <v>0</v>
+      </c>
+      <c r="F503" s="20">
+        <v>0</v>
+      </c>
+      <c r="G503" s="20">
+        <v>0</v>
+      </c>
+      <c r="H503" s="20">
+        <v>0</v>
+      </c>
+      <c r="I503" s="20">
+        <v>0</v>
+      </c>
+      <c r="J503" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10">
+      <c r="A504" s="31">
+        <v>895052</v>
+      </c>
+      <c r="B504" s="3">
+        <v>6</v>
+      </c>
+      <c r="C504" s="35">
+        <v>328</v>
+      </c>
+      <c r="D504" s="20">
+        <v>0</v>
+      </c>
+      <c r="E504" s="20">
+        <v>0</v>
+      </c>
+      <c r="F504" s="20">
+        <v>0</v>
+      </c>
+      <c r="G504" s="20">
+        <v>0</v>
+      </c>
+      <c r="H504" s="20">
+        <v>0</v>
+      </c>
+      <c r="I504" s="20">
+        <v>0</v>
+      </c>
+      <c r="J504" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10">
+      <c r="A505" s="31">
+        <v>895053</v>
+      </c>
+      <c r="B505" s="3">
+        <v>6</v>
+      </c>
+      <c r="C505" s="35">
+        <v>329</v>
+      </c>
+      <c r="D505" s="20">
+        <v>0</v>
+      </c>
+      <c r="E505" s="20">
+        <v>0</v>
+      </c>
+      <c r="F505" s="20">
+        <v>0</v>
+      </c>
+      <c r="G505" s="20">
+        <v>0</v>
+      </c>
+      <c r="H505" s="20">
+        <v>0</v>
+      </c>
+      <c r="I505" s="20">
+        <v>0</v>
+      </c>
+      <c r="J505" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10">
+      <c r="A506" s="31">
+        <v>895054</v>
+      </c>
+      <c r="B506" s="3">
+        <v>6</v>
+      </c>
+      <c r="C506" s="35">
+        <v>330</v>
+      </c>
+      <c r="D506" s="20">
+        <v>0</v>
+      </c>
+      <c r="E506" s="20">
+        <v>0</v>
+      </c>
+      <c r="F506" s="20">
+        <v>0</v>
+      </c>
+      <c r="G506" s="20">
+        <v>0</v>
+      </c>
+      <c r="H506" s="20">
+        <v>0</v>
+      </c>
+      <c r="I506" s="20">
+        <v>0</v>
+      </c>
+      <c r="J506" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10">
+      <c r="A507" s="31">
+        <v>895055</v>
+      </c>
+      <c r="B507" s="3">
+        <v>6</v>
+      </c>
+      <c r="C507" s="35">
+        <v>331</v>
+      </c>
+      <c r="D507" s="20">
+        <v>0</v>
+      </c>
+      <c r="E507" s="20">
+        <v>0</v>
+      </c>
+      <c r="F507" s="20">
+        <v>0</v>
+      </c>
+      <c r="G507" s="20">
+        <v>0</v>
+      </c>
+      <c r="H507" s="20">
+        <v>0</v>
+      </c>
+      <c r="I507" s="20">
+        <v>0</v>
+      </c>
+      <c r="J507" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10">
+      <c r="A508" s="31">
+        <v>895056</v>
+      </c>
+      <c r="B508" s="3">
+        <v>6</v>
+      </c>
+      <c r="C508" s="35">
+        <v>332</v>
+      </c>
+      <c r="D508" s="20">
+        <v>0</v>
+      </c>
+      <c r="E508" s="20">
+        <v>0</v>
+      </c>
+      <c r="F508" s="20">
+        <v>0</v>
+      </c>
+      <c r="G508" s="20">
+        <v>0</v>
+      </c>
+      <c r="H508" s="20">
+        <v>0</v>
+      </c>
+      <c r="I508" s="20">
+        <v>0</v>
+      </c>
+      <c r="J508" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10">
+      <c r="A509" s="31">
+        <v>895057</v>
+      </c>
+      <c r="B509" s="3">
+        <v>6</v>
+      </c>
+      <c r="C509" s="35">
+        <v>333</v>
+      </c>
+      <c r="D509" s="20">
+        <v>0</v>
+      </c>
+      <c r="E509" s="20">
+        <v>0</v>
+      </c>
+      <c r="F509" s="20">
+        <v>0</v>
+      </c>
+      <c r="G509" s="20">
+        <v>0</v>
+      </c>
+      <c r="H509" s="20">
+        <v>0</v>
+      </c>
+      <c r="I509" s="20">
+        <v>0</v>
+      </c>
+      <c r="J509" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10">
+      <c r="A510" s="31">
+        <v>895058</v>
+      </c>
+      <c r="B510" s="3">
+        <v>6</v>
+      </c>
+      <c r="C510" s="35">
+        <v>334</v>
+      </c>
+      <c r="D510" s="20">
+        <v>0</v>
+      </c>
+      <c r="E510" s="20">
+        <v>0</v>
+      </c>
+      <c r="F510" s="20">
+        <v>0</v>
+      </c>
+      <c r="G510" s="20">
+        <v>0</v>
+      </c>
+      <c r="H510" s="20">
+        <v>0</v>
+      </c>
+      <c r="I510" s="20">
+        <v>0</v>
+      </c>
+      <c r="J510" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10">
+      <c r="A511" s="31">
+        <v>895059</v>
+      </c>
+      <c r="B511" s="3">
+        <v>6</v>
+      </c>
+      <c r="C511" s="35">
+        <v>335</v>
+      </c>
+      <c r="D511" s="20">
+        <v>0</v>
+      </c>
+      <c r="E511" s="20">
+        <v>0</v>
+      </c>
+      <c r="F511" s="20">
+        <v>0</v>
+      </c>
+      <c r="G511" s="20">
+        <v>0</v>
+      </c>
+      <c r="H511" s="20">
+        <v>0</v>
+      </c>
+      <c r="I511" s="20">
+        <v>0</v>
+      </c>
+      <c r="J511" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10">
+      <c r="A512" s="31">
+        <v>896051</v>
+      </c>
+      <c r="B512" s="3">
+        <v>6</v>
+      </c>
+      <c r="C512" s="35">
+        <v>336</v>
+      </c>
+      <c r="D512" s="20">
+        <v>0</v>
+      </c>
+      <c r="E512" s="20">
+        <v>0</v>
+      </c>
+      <c r="F512" s="20">
+        <v>0</v>
+      </c>
+      <c r="G512" s="20">
+        <v>0</v>
+      </c>
+      <c r="H512" s="20">
+        <v>0</v>
+      </c>
+      <c r="I512" s="20">
+        <v>0</v>
+      </c>
+      <c r="J512" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10">
+      <c r="A513" s="31">
+        <v>896052</v>
+      </c>
+      <c r="B513" s="3">
+        <v>6</v>
+      </c>
+      <c r="C513" s="35">
+        <v>337</v>
+      </c>
+      <c r="D513" s="20">
+        <v>0</v>
+      </c>
+      <c r="E513" s="20">
+        <v>0</v>
+      </c>
+      <c r="F513" s="20">
+        <v>0</v>
+      </c>
+      <c r="G513" s="20">
+        <v>0</v>
+      </c>
+      <c r="H513" s="20">
+        <v>0</v>
+      </c>
+      <c r="I513" s="20">
+        <v>0</v>
+      </c>
+      <c r="J513" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10">
+      <c r="A514" s="31">
+        <v>896053</v>
+      </c>
+      <c r="B514" s="3">
+        <v>6</v>
+      </c>
+      <c r="C514" s="35">
+        <v>338</v>
+      </c>
+      <c r="D514" s="20">
+        <v>0</v>
+      </c>
+      <c r="E514" s="20">
+        <v>0</v>
+      </c>
+      <c r="F514" s="20">
+        <v>0</v>
+      </c>
+      <c r="G514" s="20">
+        <v>0</v>
+      </c>
+      <c r="H514" s="20">
+        <v>0</v>
+      </c>
+      <c r="I514" s="20">
+        <v>0</v>
+      </c>
+      <c r="J514" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10">
+      <c r="A515" s="31">
+        <v>896054</v>
+      </c>
+      <c r="B515" s="3">
+        <v>6</v>
+      </c>
+      <c r="C515" s="35">
+        <v>339</v>
+      </c>
+      <c r="D515" s="20">
+        <v>0</v>
+      </c>
+      <c r="E515" s="20">
+        <v>0</v>
+      </c>
+      <c r="F515" s="20">
+        <v>0</v>
+      </c>
+      <c r="G515" s="20">
+        <v>0</v>
+      </c>
+      <c r="H515" s="20">
+        <v>0</v>
+      </c>
+      <c r="I515" s="20">
+        <v>0</v>
+      </c>
+      <c r="J515" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10">
+      <c r="A516" s="31">
+        <v>896055</v>
+      </c>
+      <c r="B516" s="3">
+        <v>6</v>
+      </c>
+      <c r="C516" s="35">
+        <v>340</v>
+      </c>
+      <c r="D516" s="20">
+        <v>0</v>
+      </c>
+      <c r="E516" s="20">
+        <v>0</v>
+      </c>
+      <c r="F516" s="20">
+        <v>0</v>
+      </c>
+      <c r="G516" s="20">
+        <v>0</v>
+      </c>
+      <c r="H516" s="20">
+        <v>0</v>
+      </c>
+      <c r="I516" s="20">
+        <v>0</v>
+      </c>
+      <c r="J516" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10">
+      <c r="A517" s="31">
+        <v>896056</v>
+      </c>
+      <c r="B517" s="3">
+        <v>6</v>
+      </c>
+      <c r="C517" s="35">
+        <v>341</v>
+      </c>
+      <c r="D517" s="20">
+        <v>0</v>
+      </c>
+      <c r="E517" s="20">
+        <v>0</v>
+      </c>
+      <c r="F517" s="20">
+        <v>0</v>
+      </c>
+      <c r="G517" s="20">
+        <v>0</v>
+      </c>
+      <c r="H517" s="20">
+        <v>0</v>
+      </c>
+      <c r="I517" s="20">
+        <v>0</v>
+      </c>
+      <c r="J517" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10">
+      <c r="A518" s="31">
+        <v>896057</v>
+      </c>
+      <c r="B518" s="3">
+        <v>6</v>
+      </c>
+      <c r="C518" s="35">
+        <v>342</v>
+      </c>
+      <c r="D518" s="20">
+        <v>0</v>
+      </c>
+      <c r="E518" s="20">
+        <v>0</v>
+      </c>
+      <c r="F518" s="20">
+        <v>0</v>
+      </c>
+      <c r="G518" s="20">
+        <v>0</v>
+      </c>
+      <c r="H518" s="20">
+        <v>0</v>
+      </c>
+      <c r="I518" s="20">
+        <v>0</v>
+      </c>
+      <c r="J518" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10">
+      <c r="A519" s="31">
+        <v>896058</v>
+      </c>
+      <c r="B519" s="3">
+        <v>6</v>
+      </c>
+      <c r="C519" s="35">
+        <v>343</v>
+      </c>
+      <c r="D519" s="20">
+        <v>0</v>
+      </c>
+      <c r="E519" s="20">
+        <v>0</v>
+      </c>
+      <c r="F519" s="20">
+        <v>0</v>
+      </c>
+      <c r="G519" s="20">
+        <v>0</v>
+      </c>
+      <c r="H519" s="20">
+        <v>0</v>
+      </c>
+      <c r="I519" s="20">
+        <v>0</v>
+      </c>
+      <c r="J519" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10">
+      <c r="A520" s="31">
+        <v>896059</v>
+      </c>
+      <c r="B520" s="3">
+        <v>6</v>
+      </c>
+      <c r="C520" s="35">
+        <v>344</v>
+      </c>
+      <c r="D520" s="20">
+        <v>0</v>
+      </c>
+      <c r="E520" s="20">
+        <v>0</v>
+      </c>
+      <c r="F520" s="20">
+        <v>0</v>
+      </c>
+      <c r="G520" s="20">
+        <v>0</v>
+      </c>
+      <c r="H520" s="20">
+        <v>0</v>
+      </c>
+      <c r="I520" s="20">
+        <v>0</v>
+      </c>
+      <c r="J520" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10">
+      <c r="A521" s="31">
+        <v>896060</v>
+      </c>
+      <c r="B521" s="3">
+        <v>6</v>
+      </c>
+      <c r="C521" s="35">
+        <v>345</v>
+      </c>
+      <c r="D521" s="20">
+        <v>0</v>
+      </c>
+      <c r="E521" s="20">
+        <v>0</v>
+      </c>
+      <c r="F521" s="20">
+        <v>0</v>
+      </c>
+      <c r="G521" s="20">
+        <v>0</v>
+      </c>
+      <c r="H521" s="20">
+        <v>0</v>
+      </c>
+      <c r="I521" s="20">
+        <v>0</v>
+      </c>
+      <c r="J521" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10">
+      <c r="A522" s="31">
+        <v>896061</v>
+      </c>
+      <c r="B522" s="3">
+        <v>6</v>
+      </c>
+      <c r="C522" s="35">
+        <v>346</v>
+      </c>
+      <c r="D522" s="20">
+        <v>0</v>
+      </c>
+      <c r="E522" s="20">
+        <v>0</v>
+      </c>
+      <c r="F522" s="20">
+        <v>0</v>
+      </c>
+      <c r="G522" s="20">
+        <v>0</v>
+      </c>
+      <c r="H522" s="20">
+        <v>0</v>
+      </c>
+      <c r="I522" s="20">
+        <v>0</v>
+      </c>
+      <c r="J522" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10">
+      <c r="A523" s="31">
+        <v>896062</v>
+      </c>
+      <c r="B523" s="3">
+        <v>6</v>
+      </c>
+      <c r="C523" s="35">
+        <v>347</v>
+      </c>
+      <c r="D523" s="20">
+        <v>0</v>
+      </c>
+      <c r="E523" s="20">
+        <v>0</v>
+      </c>
+      <c r="F523" s="20">
+        <v>0</v>
+      </c>
+      <c r="G523" s="20">
+        <v>0</v>
+      </c>
+      <c r="H523" s="20">
+        <v>0</v>
+      </c>
+      <c r="I523" s="20">
+        <v>0</v>
+      </c>
+      <c r="J523" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10">
+      <c r="A524" s="31">
+        <v>896063</v>
+      </c>
+      <c r="B524" s="3">
+        <v>6</v>
+      </c>
+      <c r="C524" s="35">
+        <v>348</v>
+      </c>
+      <c r="D524" s="20">
+        <v>0</v>
+      </c>
+      <c r="E524" s="20">
+        <v>0</v>
+      </c>
+      <c r="F524" s="20">
+        <v>0</v>
+      </c>
+      <c r="G524" s="20">
+        <v>0</v>
+      </c>
+      <c r="H524" s="20">
+        <v>0</v>
+      </c>
+      <c r="I524" s="20">
+        <v>0</v>
+      </c>
+      <c r="J524" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10">
+      <c r="A525" s="31">
+        <v>896064</v>
+      </c>
+      <c r="B525" s="3">
+        <v>6</v>
+      </c>
+      <c r="C525" s="35">
+        <v>349</v>
+      </c>
+      <c r="D525" s="20">
+        <v>0</v>
+      </c>
+      <c r="E525" s="20">
+        <v>0</v>
+      </c>
+      <c r="F525" s="20">
+        <v>0</v>
+      </c>
+      <c r="G525" s="20">
+        <v>0</v>
+      </c>
+      <c r="H525" s="20">
+        <v>0</v>
+      </c>
+      <c r="I525" s="20">
+        <v>0</v>
+      </c>
+      <c r="J525" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10">
+      <c r="A526" s="31">
+        <v>896065</v>
+      </c>
+      <c r="B526" s="3">
+        <v>6</v>
+      </c>
+      <c r="C526" s="35">
+        <v>350</v>
+      </c>
+      <c r="D526" s="20">
+        <v>0</v>
+      </c>
+      <c r="E526" s="20">
+        <v>0</v>
+      </c>
+      <c r="F526" s="20">
+        <v>0</v>
+      </c>
+      <c r="G526" s="20">
+        <v>0</v>
+      </c>
+      <c r="H526" s="20">
+        <v>0</v>
+      </c>
+      <c r="I526" s="20">
+        <v>0</v>
+      </c>
+      <c r="J526" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10">
+      <c r="A527" s="31">
+        <v>896066</v>
+      </c>
+      <c r="B527" s="3">
+        <v>6</v>
+      </c>
+      <c r="C527" s="35">
+        <v>351</v>
+      </c>
+      <c r="D527" s="20">
+        <v>0</v>
+      </c>
+      <c r="E527" s="20">
+        <v>0</v>
+      </c>
+      <c r="F527" s="20">
+        <v>0</v>
+      </c>
+      <c r="G527" s="20">
+        <v>0</v>
+      </c>
+      <c r="H527" s="20">
+        <v>0</v>
+      </c>
+      <c r="I527" s="20">
+        <v>0</v>
+      </c>
+      <c r="J527" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10">
+      <c r="A528" s="31">
+        <v>897051</v>
+      </c>
+      <c r="B528" s="3">
+        <v>6</v>
+      </c>
+      <c r="C528" s="35">
+        <v>352</v>
+      </c>
+      <c r="D528" s="20">
+        <v>0</v>
+      </c>
+      <c r="E528" s="20">
+        <v>0</v>
+      </c>
+      <c r="F528" s="20">
+        <v>0</v>
+      </c>
+      <c r="G528" s="20">
+        <v>0</v>
+      </c>
+      <c r="H528" s="20">
+        <v>0</v>
+      </c>
+      <c r="I528" s="20">
+        <v>0</v>
+      </c>
+      <c r="J528" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10">
+      <c r="A529" s="31">
+        <v>897052</v>
+      </c>
+      <c r="B529" s="3">
+        <v>6</v>
+      </c>
+      <c r="C529" s="35">
+        <v>353</v>
+      </c>
+      <c r="D529" s="20">
+        <v>0</v>
+      </c>
+      <c r="E529" s="20">
+        <v>0</v>
+      </c>
+      <c r="F529" s="20">
+        <v>0</v>
+      </c>
+      <c r="G529" s="20">
+        <v>0</v>
+      </c>
+      <c r="H529" s="20">
+        <v>0</v>
+      </c>
+      <c r="I529" s="20">
+        <v>0</v>
+      </c>
+      <c r="J529" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10">
+      <c r="A530" s="31">
+        <v>897053</v>
+      </c>
+      <c r="B530" s="3">
+        <v>6</v>
+      </c>
+      <c r="C530" s="35">
+        <v>354</v>
+      </c>
+      <c r="D530" s="20">
+        <v>0</v>
+      </c>
+      <c r="E530" s="20">
+        <v>0</v>
+      </c>
+      <c r="F530" s="20">
+        <v>0</v>
+      </c>
+      <c r="G530" s="20">
+        <v>0</v>
+      </c>
+      <c r="H530" s="20">
+        <v>0</v>
+      </c>
+      <c r="I530" s="20">
+        <v>0</v>
+      </c>
+      <c r="J530" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10">
+      <c r="A531" s="31">
+        <v>897054</v>
+      </c>
+      <c r="B531" s="3">
+        <v>6</v>
+      </c>
+      <c r="C531" s="35">
+        <v>355</v>
+      </c>
+      <c r="D531" s="20">
+        <v>0</v>
+      </c>
+      <c r="E531" s="20">
+        <v>0</v>
+      </c>
+      <c r="F531" s="20">
+        <v>0</v>
+      </c>
+      <c r="G531" s="20">
+        <v>0</v>
+      </c>
+      <c r="H531" s="20">
+        <v>0</v>
+      </c>
+      <c r="I531" s="20">
+        <v>0</v>
+      </c>
+      <c r="J531" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10">
+      <c r="A532" s="31">
+        <v>897055</v>
+      </c>
+      <c r="B532" s="3">
+        <v>6</v>
+      </c>
+      <c r="C532" s="35">
+        <v>356</v>
+      </c>
+      <c r="D532" s="20">
+        <v>0</v>
+      </c>
+      <c r="E532" s="20">
+        <v>0</v>
+      </c>
+      <c r="F532" s="20">
+        <v>0</v>
+      </c>
+      <c r="G532" s="20">
+        <v>0</v>
+      </c>
+      <c r="H532" s="20">
+        <v>0</v>
+      </c>
+      <c r="I532" s="20">
+        <v>0</v>
+      </c>
+      <c r="J532" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10">
+      <c r="A533" s="31">
+        <v>897056</v>
+      </c>
+      <c r="B533" s="3">
+        <v>6</v>
+      </c>
+      <c r="C533" s="35">
+        <v>357</v>
+      </c>
+      <c r="D533" s="20">
+        <v>0</v>
+      </c>
+      <c r="E533" s="20">
+        <v>0</v>
+      </c>
+      <c r="F533" s="20">
+        <v>0</v>
+      </c>
+      <c r="G533" s="20">
+        <v>0</v>
+      </c>
+      <c r="H533" s="20">
+        <v>0</v>
+      </c>
+      <c r="I533" s="20">
+        <v>0</v>
+      </c>
+      <c r="J533" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10">
+      <c r="A534" s="31">
+        <v>897057</v>
+      </c>
+      <c r="B534" s="3">
+        <v>6</v>
+      </c>
+      <c r="C534" s="35">
+        <v>358</v>
+      </c>
+      <c r="D534" s="20">
+        <v>0</v>
+      </c>
+      <c r="E534" s="20">
+        <v>0</v>
+      </c>
+      <c r="F534" s="20">
+        <v>0</v>
+      </c>
+      <c r="G534" s="20">
+        <v>0</v>
+      </c>
+      <c r="H534" s="20">
+        <v>0</v>
+      </c>
+      <c r="I534" s="20">
+        <v>0</v>
+      </c>
+      <c r="J534" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10">
+      <c r="A535" s="31">
+        <v>897058</v>
+      </c>
+      <c r="B535" s="3">
+        <v>6</v>
+      </c>
+      <c r="C535" s="35">
+        <v>359</v>
+      </c>
+      <c r="D535" s="20">
+        <v>0</v>
+      </c>
+      <c r="E535" s="20">
+        <v>0</v>
+      </c>
+      <c r="F535" s="20">
+        <v>0</v>
+      </c>
+      <c r="G535" s="20">
+        <v>0</v>
+      </c>
+      <c r="H535" s="20">
+        <v>0</v>
+      </c>
+      <c r="I535" s="20">
+        <v>0</v>
+      </c>
+      <c r="J535" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10">
+      <c r="A536" s="31">
+        <v>897059</v>
+      </c>
+      <c r="B536" s="3">
+        <v>6</v>
+      </c>
+      <c r="C536" s="35">
+        <v>360</v>
+      </c>
+      <c r="D536" s="20">
+        <v>0</v>
+      </c>
+      <c r="E536" s="20">
+        <v>0</v>
+      </c>
+      <c r="F536" s="20">
+        <v>0</v>
+      </c>
+      <c r="G536" s="20">
+        <v>0</v>
+      </c>
+      <c r="H536" s="20">
+        <v>0</v>
+      </c>
+      <c r="I536" s="20">
+        <v>0</v>
+      </c>
+      <c r="J536" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10">
+      <c r="A537" s="31">
+        <v>897060</v>
+      </c>
+      <c r="B537" s="3">
+        <v>6</v>
+      </c>
+      <c r="C537" s="35">
+        <v>361</v>
+      </c>
+      <c r="D537" s="20">
+        <v>0</v>
+      </c>
+      <c r="E537" s="20">
+        <v>0</v>
+      </c>
+      <c r="F537" s="20">
+        <v>0</v>
+      </c>
+      <c r="G537" s="20">
+        <v>0</v>
+      </c>
+      <c r="H537" s="20">
+        <v>0</v>
+      </c>
+      <c r="I537" s="20">
+        <v>0</v>
+      </c>
+      <c r="J537" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10">
+      <c r="A538" s="31">
+        <v>897061</v>
+      </c>
+      <c r="B538" s="3">
+        <v>6</v>
+      </c>
+      <c r="C538" s="35">
+        <v>362</v>
+      </c>
+      <c r="D538" s="20">
+        <v>0</v>
+      </c>
+      <c r="E538" s="20">
+        <v>0</v>
+      </c>
+      <c r="F538" s="20">
+        <v>0</v>
+      </c>
+      <c r="G538" s="20">
+        <v>0</v>
+      </c>
+      <c r="H538" s="20">
+        <v>0</v>
+      </c>
+      <c r="I538" s="20">
+        <v>0</v>
+      </c>
+      <c r="J538" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10">
+      <c r="A539" s="31">
+        <v>897062</v>
+      </c>
+      <c r="B539" s="3">
+        <v>6</v>
+      </c>
+      <c r="C539" s="35">
+        <v>363</v>
+      </c>
+      <c r="D539" s="20">
+        <v>0</v>
+      </c>
+      <c r="E539" s="20">
+        <v>0</v>
+      </c>
+      <c r="F539" s="20">
+        <v>0</v>
+      </c>
+      <c r="G539" s="20">
+        <v>0</v>
+      </c>
+      <c r="H539" s="20">
+        <v>0</v>
+      </c>
+      <c r="I539" s="20">
+        <v>0</v>
+      </c>
+      <c r="J539" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10">
+      <c r="A540" s="31">
+        <v>897063</v>
+      </c>
+      <c r="B540" s="3">
+        <v>6</v>
+      </c>
+      <c r="C540" s="35">
+        <v>364</v>
+      </c>
+      <c r="D540" s="20">
+        <v>0</v>
+      </c>
+      <c r="E540" s="20">
+        <v>0</v>
+      </c>
+      <c r="F540" s="20">
+        <v>0</v>
+      </c>
+      <c r="G540" s="20">
+        <v>0</v>
+      </c>
+      <c r="H540" s="20">
+        <v>0</v>
+      </c>
+      <c r="I540" s="20">
+        <v>0</v>
+      </c>
+      <c r="J540" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10">
+      <c r="A541" s="31">
+        <v>897064</v>
+      </c>
+      <c r="B541" s="3">
+        <v>6</v>
+      </c>
+      <c r="C541" s="35">
+        <v>365</v>
+      </c>
+      <c r="D541" s="20">
+        <v>0</v>
+      </c>
+      <c r="E541" s="20">
+        <v>0</v>
+      </c>
+      <c r="F541" s="20">
+        <v>0</v>
+      </c>
+      <c r="G541" s="20">
+        <v>0</v>
+      </c>
+      <c r="H541" s="20">
+        <v>0</v>
+      </c>
+      <c r="I541" s="20">
+        <v>0</v>
+      </c>
+      <c r="J541" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10">
+      <c r="A542" s="31">
+        <v>897065</v>
+      </c>
+      <c r="B542" s="3">
+        <v>6</v>
+      </c>
+      <c r="C542" s="35">
+        <v>366</v>
+      </c>
+      <c r="D542" s="20">
+        <v>0</v>
+      </c>
+      <c r="E542" s="20">
+        <v>0</v>
+      </c>
+      <c r="F542" s="20">
+        <v>0</v>
+      </c>
+      <c r="G542" s="20">
+        <v>0</v>
+      </c>
+      <c r="H542" s="20">
+        <v>0</v>
+      </c>
+      <c r="I542" s="20">
+        <v>0</v>
+      </c>
+      <c r="J542" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10">
+      <c r="A543" s="31">
+        <v>897066</v>
+      </c>
+      <c r="B543" s="3">
+        <v>6</v>
+      </c>
+      <c r="C543" s="35">
+        <v>367</v>
+      </c>
+      <c r="D543" s="20">
+        <v>0</v>
+      </c>
+      <c r="E543" s="20">
+        <v>0</v>
+      </c>
+      <c r="F543" s="20">
+        <v>0</v>
+      </c>
+      <c r="G543" s="20">
+        <v>0</v>
+      </c>
+      <c r="H543" s="20">
+        <v>0</v>
+      </c>
+      <c r="I543" s="20">
+        <v>0</v>
+      </c>
+      <c r="J543" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10">
+      <c r="A544" s="31">
+        <v>898051</v>
+      </c>
+      <c r="B544" s="3">
+        <v>6</v>
+      </c>
+      <c r="C544" s="35">
+        <v>368</v>
+      </c>
+      <c r="D544" s="20">
+        <v>0</v>
+      </c>
+      <c r="E544" s="20">
+        <v>0</v>
+      </c>
+      <c r="F544" s="20">
+        <v>0</v>
+      </c>
+      <c r="G544" s="20">
+        <v>0</v>
+      </c>
+      <c r="H544" s="20">
+        <v>0</v>
+      </c>
+      <c r="I544" s="20">
+        <v>0</v>
+      </c>
+      <c r="J544" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10">
+      <c r="A545" s="31">
+        <v>898052</v>
+      </c>
+      <c r="B545" s="3">
+        <v>6</v>
+      </c>
+      <c r="C545" s="35">
+        <v>369</v>
+      </c>
+      <c r="D545" s="20">
+        <v>0</v>
+      </c>
+      <c r="E545" s="20">
+        <v>0</v>
+      </c>
+      <c r="F545" s="20">
+        <v>0</v>
+      </c>
+      <c r="G545" s="20">
+        <v>0</v>
+      </c>
+      <c r="H545" s="20">
+        <v>0</v>
+      </c>
+      <c r="I545" s="20">
+        <v>0</v>
+      </c>
+      <c r="J545" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10">
+      <c r="A546" s="31">
+        <v>898053</v>
+      </c>
+      <c r="B546" s="3">
+        <v>6</v>
+      </c>
+      <c r="C546" s="35">
+        <v>370</v>
+      </c>
+      <c r="D546" s="20">
+        <v>0</v>
+      </c>
+      <c r="E546" s="20">
+        <v>0</v>
+      </c>
+      <c r="F546" s="20">
+        <v>0</v>
+      </c>
+      <c r="G546" s="20">
+        <v>0</v>
+      </c>
+      <c r="H546" s="20">
+        <v>0</v>
+      </c>
+      <c r="I546" s="20">
+        <v>0</v>
+      </c>
+      <c r="J546" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10">
+      <c r="A547" s="31">
+        <v>898054</v>
+      </c>
+      <c r="B547" s="3">
+        <v>6</v>
+      </c>
+      <c r="C547" s="35">
+        <v>371</v>
+      </c>
+      <c r="D547" s="20">
+        <v>0</v>
+      </c>
+      <c r="E547" s="20">
+        <v>0</v>
+      </c>
+      <c r="F547" s="20">
+        <v>0</v>
+      </c>
+      <c r="G547" s="20">
+        <v>0</v>
+      </c>
+      <c r="H547" s="20">
+        <v>0</v>
+      </c>
+      <c r="I547" s="20">
+        <v>0</v>
+      </c>
+      <c r="J547" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10">
+      <c r="A548" s="31">
+        <v>898055</v>
+      </c>
+      <c r="B548" s="3">
+        <v>6</v>
+      </c>
+      <c r="C548" s="35">
+        <v>372</v>
+      </c>
+      <c r="D548" s="20">
+        <v>0</v>
+      </c>
+      <c r="E548" s="20">
+        <v>0</v>
+      </c>
+      <c r="F548" s="20">
+        <v>0</v>
+      </c>
+      <c r="G548" s="20">
+        <v>0</v>
+      </c>
+      <c r="H548" s="20">
+        <v>0</v>
+      </c>
+      <c r="I548" s="20">
+        <v>0</v>
+      </c>
+      <c r="J548" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10">
+      <c r="A549" s="31">
+        <v>898056</v>
+      </c>
+      <c r="B549" s="3">
+        <v>6</v>
+      </c>
+      <c r="C549" s="35">
+        <v>373</v>
+      </c>
+      <c r="D549" s="20">
+        <v>0</v>
+      </c>
+      <c r="E549" s="20">
+        <v>0</v>
+      </c>
+      <c r="F549" s="20">
+        <v>0</v>
+      </c>
+      <c r="G549" s="20">
+        <v>0</v>
+      </c>
+      <c r="H549" s="20">
+        <v>0</v>
+      </c>
+      <c r="I549" s="20">
+        <v>0</v>
+      </c>
+      <c r="J549" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10">
+      <c r="A550" s="31">
+        <v>898057</v>
+      </c>
+      <c r="B550" s="3">
+        <v>6</v>
+      </c>
+      <c r="C550" s="35">
+        <v>374</v>
+      </c>
+      <c r="D550" s="20">
+        <v>0</v>
+      </c>
+      <c r="E550" s="20">
+        <v>0</v>
+      </c>
+      <c r="F550" s="20">
+        <v>0</v>
+      </c>
+      <c r="G550" s="20">
+        <v>0</v>
+      </c>
+      <c r="H550" s="20">
+        <v>0</v>
+      </c>
+      <c r="I550" s="20">
+        <v>0</v>
+      </c>
+      <c r="J550" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10">
+      <c r="A551" s="31">
+        <v>898058</v>
+      </c>
+      <c r="B551" s="3">
+        <v>6</v>
+      </c>
+      <c r="C551" s="35">
+        <v>375</v>
+      </c>
+      <c r="D551" s="20">
+        <v>0</v>
+      </c>
+      <c r="E551" s="20">
+        <v>0</v>
+      </c>
+      <c r="F551" s="20">
+        <v>0</v>
+      </c>
+      <c r="G551" s="20">
+        <v>0</v>
+      </c>
+      <c r="H551" s="20">
+        <v>0</v>
+      </c>
+      <c r="I551" s="20">
+        <v>0</v>
+      </c>
+      <c r="J551" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10">
+      <c r="A552" s="31">
+        <v>898059</v>
+      </c>
+      <c r="B552" s="3">
+        <v>6</v>
+      </c>
+      <c r="C552" s="35">
+        <v>376</v>
+      </c>
+      <c r="D552" s="20">
+        <v>0</v>
+      </c>
+      <c r="E552" s="20">
+        <v>0</v>
+      </c>
+      <c r="F552" s="20">
+        <v>0</v>
+      </c>
+      <c r="G552" s="20">
+        <v>0</v>
+      </c>
+      <c r="H552" s="20">
+        <v>0</v>
+      </c>
+      <c r="I552" s="20">
+        <v>0</v>
+      </c>
+      <c r="J552" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10">
+      <c r="A553" s="31">
+        <v>898060</v>
+      </c>
+      <c r="B553" s="3">
+        <v>6</v>
+      </c>
+      <c r="C553" s="35">
+        <v>377</v>
+      </c>
+      <c r="D553" s="20">
+        <v>0</v>
+      </c>
+      <c r="E553" s="20">
+        <v>0</v>
+      </c>
+      <c r="F553" s="20">
+        <v>0</v>
+      </c>
+      <c r="G553" s="20">
+        <v>0</v>
+      </c>
+      <c r="H553" s="20">
+        <v>0</v>
+      </c>
+      <c r="I553" s="20">
+        <v>0</v>
+      </c>
+      <c r="J553" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10">
+      <c r="A554" s="31">
+        <v>898061</v>
+      </c>
+      <c r="B554" s="3">
+        <v>6</v>
+      </c>
+      <c r="C554" s="35">
+        <v>378</v>
+      </c>
+      <c r="D554" s="20">
+        <v>0</v>
+      </c>
+      <c r="E554" s="20">
+        <v>0</v>
+      </c>
+      <c r="F554" s="20">
+        <v>0</v>
+      </c>
+      <c r="G554" s="20">
+        <v>0</v>
+      </c>
+      <c r="H554" s="20">
+        <v>0</v>
+      </c>
+      <c r="I554" s="20">
+        <v>0</v>
+      </c>
+      <c r="J554" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10">
+      <c r="A555" s="31">
+        <v>898062</v>
+      </c>
+      <c r="B555" s="3">
+        <v>6</v>
+      </c>
+      <c r="C555" s="35">
+        <v>379</v>
+      </c>
+      <c r="D555" s="20">
+        <v>0</v>
+      </c>
+      <c r="E555" s="20">
+        <v>0</v>
+      </c>
+      <c r="F555" s="20">
+        <v>0</v>
+      </c>
+      <c r="G555" s="20">
+        <v>0</v>
+      </c>
+      <c r="H555" s="20">
+        <v>0</v>
+      </c>
+      <c r="I555" s="20">
+        <v>0</v>
+      </c>
+      <c r="J555" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10">
+      <c r="A556" s="31">
+        <v>898063</v>
+      </c>
+      <c r="B556" s="3">
+        <v>6</v>
+      </c>
+      <c r="C556" s="35">
+        <v>380</v>
+      </c>
+      <c r="D556" s="20">
+        <v>0</v>
+      </c>
+      <c r="E556" s="20">
+        <v>0</v>
+      </c>
+      <c r="F556" s="20">
+        <v>0</v>
+      </c>
+      <c r="G556" s="20">
+        <v>0</v>
+      </c>
+      <c r="H556" s="20">
+        <v>0</v>
+      </c>
+      <c r="I556" s="20">
+        <v>0</v>
+      </c>
+      <c r="J556" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10">
+      <c r="A557" s="31">
+        <v>898064</v>
+      </c>
+      <c r="B557" s="3">
+        <v>6</v>
+      </c>
+      <c r="C557" s="35">
+        <v>381</v>
+      </c>
+      <c r="D557" s="20">
+        <v>0</v>
+      </c>
+      <c r="E557" s="20">
+        <v>0</v>
+      </c>
+      <c r="F557" s="20">
+        <v>0</v>
+      </c>
+      <c r="G557" s="20">
+        <v>0</v>
+      </c>
+      <c r="H557" s="20">
+        <v>0</v>
+      </c>
+      <c r="I557" s="20">
+        <v>0</v>
+      </c>
+      <c r="J557" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10">
+      <c r="A558" s="31">
+        <v>898065</v>
+      </c>
+      <c r="B558" s="3">
+        <v>6</v>
+      </c>
+      <c r="C558" s="35">
+        <v>382</v>
+      </c>
+      <c r="D558" s="20">
+        <v>0</v>
+      </c>
+      <c r="E558" s="20">
+        <v>0</v>
+      </c>
+      <c r="F558" s="20">
+        <v>0</v>
+      </c>
+      <c r="G558" s="20">
+        <v>0</v>
+      </c>
+      <c r="H558" s="20">
+        <v>0</v>
+      </c>
+      <c r="I558" s="20">
+        <v>0</v>
+      </c>
+      <c r="J558" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10">
+      <c r="A559" s="31">
+        <v>898066</v>
+      </c>
+      <c r="B559" s="3">
+        <v>6</v>
+      </c>
+      <c r="C559" s="35">
+        <v>383</v>
+      </c>
+      <c r="D559" s="20">
+        <v>0</v>
+      </c>
+      <c r="E559" s="20">
+        <v>0</v>
+      </c>
+      <c r="F559" s="20">
+        <v>0</v>
+      </c>
+      <c r="G559" s="20">
+        <v>0</v>
+      </c>
+      <c r="H559" s="20">
+        <v>0</v>
+      </c>
+      <c r="I559" s="20">
+        <v>0</v>
+      </c>
+      <c r="J559" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10">
+      <c r="A560" s="31">
+        <v>899051</v>
+      </c>
+      <c r="B560" s="3">
+        <v>6</v>
+      </c>
+      <c r="C560" s="35">
+        <v>384</v>
+      </c>
+      <c r="D560" s="20">
+        <v>0</v>
+      </c>
+      <c r="E560" s="20">
+        <v>0</v>
+      </c>
+      <c r="F560" s="20">
+        <v>0</v>
+      </c>
+      <c r="G560" s="20">
+        <v>0</v>
+      </c>
+      <c r="H560" s="20">
+        <v>0</v>
+      </c>
+      <c r="I560" s="20">
+        <v>0</v>
+      </c>
+      <c r="J560" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10">
+      <c r="A561" s="31">
+        <v>899052</v>
+      </c>
+      <c r="B561" s="3">
+        <v>6</v>
+      </c>
+      <c r="C561" s="35">
+        <v>385</v>
+      </c>
+      <c r="D561" s="20">
+        <v>0</v>
+      </c>
+      <c r="E561" s="20">
+        <v>0</v>
+      </c>
+      <c r="F561" s="20">
+        <v>0</v>
+      </c>
+      <c r="G561" s="20">
+        <v>0</v>
+      </c>
+      <c r="H561" s="20">
+        <v>0</v>
+      </c>
+      <c r="I561" s="20">
+        <v>0</v>
+      </c>
+      <c r="J561" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10">
+      <c r="A562" s="31">
+        <v>899053</v>
+      </c>
+      <c r="B562" s="3">
+        <v>6</v>
+      </c>
+      <c r="C562" s="35">
+        <v>386</v>
+      </c>
+      <c r="D562" s="20">
+        <v>0</v>
+      </c>
+      <c r="E562" s="20">
+        <v>0</v>
+      </c>
+      <c r="F562" s="20">
+        <v>0</v>
+      </c>
+      <c r="G562" s="20">
+        <v>0</v>
+      </c>
+      <c r="H562" s="20">
+        <v>0</v>
+      </c>
+      <c r="I562" s="20">
+        <v>0</v>
+      </c>
+      <c r="J562" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10">
+      <c r="A563" s="31">
+        <v>899054</v>
+      </c>
+      <c r="B563" s="3">
+        <v>6</v>
+      </c>
+      <c r="C563" s="35">
+        <v>387</v>
+      </c>
+      <c r="D563" s="20">
+        <v>0</v>
+      </c>
+      <c r="E563" s="20">
+        <v>0</v>
+      </c>
+      <c r="F563" s="20">
+        <v>0</v>
+      </c>
+      <c r="G563" s="20">
+        <v>0</v>
+      </c>
+      <c r="H563" s="20">
+        <v>0</v>
+      </c>
+      <c r="I563" s="20">
+        <v>0</v>
+      </c>
+      <c r="J563" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10">
+      <c r="A564" s="31">
+        <v>899055</v>
+      </c>
+      <c r="B564" s="3">
+        <v>6</v>
+      </c>
+      <c r="C564" s="35">
+        <v>388</v>
+      </c>
+      <c r="D564" s="20">
+        <v>0</v>
+      </c>
+      <c r="E564" s="20">
+        <v>0</v>
+      </c>
+      <c r="F564" s="20">
+        <v>0</v>
+      </c>
+      <c r="G564" s="20">
+        <v>0</v>
+      </c>
+      <c r="H564" s="20">
+        <v>0</v>
+      </c>
+      <c r="I564" s="20">
+        <v>0</v>
+      </c>
+      <c r="J564" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10">
+      <c r="A565" s="31">
+        <v>899056</v>
+      </c>
+      <c r="B565" s="3">
+        <v>6</v>
+      </c>
+      <c r="C565" s="35">
+        <v>389</v>
+      </c>
+      <c r="D565" s="20">
+        <v>0</v>
+      </c>
+      <c r="E565" s="20">
+        <v>0</v>
+      </c>
+      <c r="F565" s="20">
+        <v>0</v>
+      </c>
+      <c r="G565" s="20">
+        <v>0</v>
+      </c>
+      <c r="H565" s="20">
+        <v>0</v>
+      </c>
+      <c r="I565" s="20">
+        <v>0</v>
+      </c>
+      <c r="J565" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10">
+      <c r="A566" s="31">
+        <v>899057</v>
+      </c>
+      <c r="B566" s="3">
+        <v>6</v>
+      </c>
+      <c r="C566" s="35">
+        <v>390</v>
+      </c>
+      <c r="D566" s="20">
+        <v>0</v>
+      </c>
+      <c r="E566" s="20">
+        <v>0</v>
+      </c>
+      <c r="F566" s="20">
+        <v>0</v>
+      </c>
+      <c r="G566" s="20">
+        <v>0</v>
+      </c>
+      <c r="H566" s="20">
+        <v>0</v>
+      </c>
+      <c r="I566" s="20">
+        <v>0</v>
+      </c>
+      <c r="J566" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10">
+      <c r="A567" s="31">
+        <v>899058</v>
+      </c>
+      <c r="B567" s="3">
+        <v>6</v>
+      </c>
+      <c r="C567" s="35">
+        <v>391</v>
+      </c>
+      <c r="D567" s="20">
+        <v>0</v>
+      </c>
+      <c r="E567" s="20">
+        <v>0</v>
+      </c>
+      <c r="F567" s="20">
+        <v>0</v>
+      </c>
+      <c r="G567" s="20">
+        <v>0</v>
+      </c>
+      <c r="H567" s="20">
+        <v>0</v>
+      </c>
+      <c r="I567" s="20">
+        <v>0</v>
+      </c>
+      <c r="J567" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10">
+      <c r="A568" s="31">
+        <v>899059</v>
+      </c>
+      <c r="B568" s="3">
+        <v>6</v>
+      </c>
+      <c r="C568" s="35">
+        <v>392</v>
+      </c>
+      <c r="D568" s="20">
+        <v>0</v>
+      </c>
+      <c r="E568" s="20">
+        <v>0</v>
+      </c>
+      <c r="F568" s="20">
+        <v>0</v>
+      </c>
+      <c r="G568" s="20">
+        <v>0</v>
+      </c>
+      <c r="H568" s="20">
+        <v>0</v>
+      </c>
+      <c r="I568" s="20">
+        <v>0</v>
+      </c>
+      <c r="J568" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10">
+      <c r="A569" s="31">
+        <v>899060</v>
+      </c>
+      <c r="B569" s="3">
+        <v>6</v>
+      </c>
+      <c r="C569" s="35">
+        <v>393</v>
+      </c>
+      <c r="D569" s="20">
+        <v>0</v>
+      </c>
+      <c r="E569" s="20">
+        <v>0</v>
+      </c>
+      <c r="F569" s="20">
+        <v>0</v>
+      </c>
+      <c r="G569" s="20">
+        <v>0</v>
+      </c>
+      <c r="H569" s="20">
+        <v>0</v>
+      </c>
+      <c r="I569" s="20">
+        <v>0</v>
+      </c>
+      <c r="J569" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10">
+      <c r="A570" s="31">
+        <v>899061</v>
+      </c>
+      <c r="B570" s="3">
+        <v>6</v>
+      </c>
+      <c r="C570" s="35">
+        <v>394</v>
+      </c>
+      <c r="D570" s="20">
+        <v>0</v>
+      </c>
+      <c r="E570" s="20">
+        <v>0</v>
+      </c>
+      <c r="F570" s="20">
+        <v>0</v>
+      </c>
+      <c r="G570" s="20">
+        <v>0</v>
+      </c>
+      <c r="H570" s="20">
+        <v>0</v>
+      </c>
+      <c r="I570" s="20">
+        <v>0</v>
+      </c>
+      <c r="J570" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10">
+      <c r="A571" s="31">
+        <v>899062</v>
+      </c>
+      <c r="B571" s="3">
+        <v>6</v>
+      </c>
+      <c r="C571" s="35">
+        <v>395</v>
+      </c>
+      <c r="D571" s="20">
+        <v>0</v>
+      </c>
+      <c r="E571" s="20">
+        <v>0</v>
+      </c>
+      <c r="F571" s="20">
+        <v>0</v>
+      </c>
+      <c r="G571" s="20">
+        <v>0</v>
+      </c>
+      <c r="H571" s="20">
+        <v>0</v>
+      </c>
+      <c r="I571" s="20">
+        <v>0</v>
+      </c>
+      <c r="J571" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10">
+      <c r="A572" s="31">
+        <v>899063</v>
+      </c>
+      <c r="B572" s="3">
+        <v>6</v>
+      </c>
+      <c r="C572" s="35">
+        <v>396</v>
+      </c>
+      <c r="D572" s="20">
+        <v>0</v>
+      </c>
+      <c r="E572" s="20">
+        <v>0</v>
+      </c>
+      <c r="F572" s="20">
+        <v>0</v>
+      </c>
+      <c r="G572" s="20">
+        <v>0</v>
+      </c>
+      <c r="H572" s="20">
+        <v>0</v>
+      </c>
+      <c r="I572" s="20">
+        <v>0</v>
+      </c>
+      <c r="J572" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10">
+      <c r="A573" s="31">
+        <v>899064</v>
+      </c>
+      <c r="B573" s="3">
+        <v>6</v>
+      </c>
+      <c r="C573" s="35">
+        <v>397</v>
+      </c>
+      <c r="D573" s="20">
+        <v>0</v>
+      </c>
+      <c r="E573" s="20">
+        <v>0</v>
+      </c>
+      <c r="F573" s="20">
+        <v>0</v>
+      </c>
+      <c r="G573" s="20">
+        <v>0</v>
+      </c>
+      <c r="H573" s="20">
+        <v>0</v>
+      </c>
+      <c r="I573" s="20">
+        <v>0</v>
+      </c>
+      <c r="J573" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10">
+      <c r="A574" s="31">
+        <v>899065</v>
+      </c>
+      <c r="B574" s="3">
+        <v>6</v>
+      </c>
+      <c r="C574" s="35">
+        <v>398</v>
+      </c>
+      <c r="D574" s="20">
+        <v>0</v>
+      </c>
+      <c r="E574" s="20">
+        <v>0</v>
+      </c>
+      <c r="F574" s="20">
+        <v>0</v>
+      </c>
+      <c r="G574" s="20">
+        <v>0</v>
+      </c>
+      <c r="H574" s="20">
+        <v>0</v>
+      </c>
+      <c r="I574" s="20">
+        <v>0</v>
+      </c>
+      <c r="J574" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10">
+      <c r="A575" s="31">
+        <v>899066</v>
+      </c>
+      <c r="B575" s="3">
+        <v>6</v>
+      </c>
+      <c r="C575" s="35">
+        <v>399</v>
+      </c>
+      <c r="D575" s="20">
+        <v>0</v>
+      </c>
+      <c r="E575" s="20">
+        <v>0</v>
+      </c>
+      <c r="F575" s="20">
+        <v>0</v>
+      </c>
+      <c r="G575" s="20">
+        <v>0</v>
+      </c>
+      <c r="H575" s="20">
+        <v>0</v>
+      </c>
+      <c r="I575" s="20">
+        <v>0</v>
+      </c>
+      <c r="J575" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10">
+      <c r="A576" s="31">
+        <v>882051</v>
+      </c>
+      <c r="B576" s="3">
+        <v>6</v>
+      </c>
+      <c r="C576" s="35">
+        <v>400</v>
+      </c>
+      <c r="D576" s="20">
+        <v>0</v>
+      </c>
+      <c r="E576" s="20">
+        <v>0</v>
+      </c>
+      <c r="F576" s="20">
+        <v>0</v>
+      </c>
+      <c r="G576" s="20">
+        <v>0</v>
+      </c>
+      <c r="H576" s="20">
+        <v>0</v>
+      </c>
+      <c r="I576" s="20">
+        <v>0</v>
+      </c>
+      <c r="J576" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10">
+      <c r="A577" s="31">
+        <v>882052</v>
+      </c>
+      <c r="B577" s="3">
+        <v>6</v>
+      </c>
+      <c r="C577" s="35">
+        <v>401</v>
+      </c>
+      <c r="D577" s="20">
+        <v>0</v>
+      </c>
+      <c r="E577" s="20">
+        <v>0</v>
+      </c>
+      <c r="F577" s="20">
+        <v>0</v>
+      </c>
+      <c r="G577" s="20">
+        <v>0</v>
+      </c>
+      <c r="H577" s="20">
+        <v>0</v>
+      </c>
+      <c r="I577" s="20">
+        <v>0</v>
+      </c>
+      <c r="J577" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10">
+      <c r="A578" s="31">
+        <v>882053</v>
+      </c>
+      <c r="B578" s="3">
+        <v>6</v>
+      </c>
+      <c r="C578" s="35">
+        <v>402</v>
+      </c>
+      <c r="D578" s="20">
+        <v>0</v>
+      </c>
+      <c r="E578" s="20">
+        <v>0</v>
+      </c>
+      <c r="F578" s="20">
+        <v>0</v>
+      </c>
+      <c r="G578" s="20">
+        <v>0</v>
+      </c>
+      <c r="H578" s="20">
+        <v>0</v>
+      </c>
+      <c r="I578" s="20">
+        <v>0</v>
+      </c>
+      <c r="J578" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10">
+      <c r="A579" s="31">
+        <v>882054</v>
+      </c>
+      <c r="B579" s="3">
+        <v>6</v>
+      </c>
+      <c r="C579" s="35">
+        <v>403</v>
+      </c>
+      <c r="D579" s="20">
+        <v>0</v>
+      </c>
+      <c r="E579" s="20">
+        <v>0</v>
+      </c>
+      <c r="F579" s="20">
+        <v>0</v>
+      </c>
+      <c r="G579" s="20">
+        <v>0</v>
+      </c>
+      <c r="H579" s="20">
+        <v>0</v>
+      </c>
+      <c r="I579" s="20">
+        <v>0</v>
+      </c>
+      <c r="J579" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10">
+      <c r="A580" s="31">
+        <v>882055</v>
+      </c>
+      <c r="B580" s="3">
+        <v>6</v>
+      </c>
+      <c r="C580" s="35">
+        <v>404</v>
+      </c>
+      <c r="D580" s="20">
+        <v>0</v>
+      </c>
+      <c r="E580" s="20">
+        <v>0</v>
+      </c>
+      <c r="F580" s="20">
+        <v>0</v>
+      </c>
+      <c r="G580" s="20">
+        <v>0</v>
+      </c>
+      <c r="H580" s="20">
+        <v>0</v>
+      </c>
+      <c r="I580" s="20">
+        <v>0</v>
+      </c>
+      <c r="J580" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10">
+      <c r="A581" s="31">
+        <v>882056</v>
+      </c>
+      <c r="B581" s="3">
+        <v>6</v>
+      </c>
+      <c r="C581" s="35">
+        <v>405</v>
+      </c>
+      <c r="D581" s="20">
+        <v>0</v>
+      </c>
+      <c r="E581" s="20">
+        <v>0</v>
+      </c>
+      <c r="F581" s="20">
+        <v>0</v>
+      </c>
+      <c r="G581" s="20">
+        <v>0</v>
+      </c>
+      <c r="H581" s="20">
+        <v>0</v>
+      </c>
+      <c r="I581" s="20">
+        <v>0</v>
+      </c>
+      <c r="J581" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10">
+      <c r="A582" s="31">
+        <v>882057</v>
+      </c>
+      <c r="B582" s="3">
+        <v>6</v>
+      </c>
+      <c r="C582" s="35">
+        <v>406</v>
+      </c>
+      <c r="D582" s="20">
+        <v>0</v>
+      </c>
+      <c r="E582" s="20">
+        <v>0</v>
+      </c>
+      <c r="F582" s="20">
+        <v>0</v>
+      </c>
+      <c r="G582" s="20">
+        <v>0</v>
+      </c>
+      <c r="H582" s="20">
+        <v>0</v>
+      </c>
+      <c r="I582" s="20">
+        <v>0</v>
+      </c>
+      <c r="J582" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10">
+      <c r="A583" s="31">
+        <v>882058</v>
+      </c>
+      <c r="B583" s="3">
+        <v>6</v>
+      </c>
+      <c r="C583" s="35">
+        <v>407</v>
+      </c>
+      <c r="D583" s="20">
+        <v>0</v>
+      </c>
+      <c r="E583" s="20">
+        <v>0</v>
+      </c>
+      <c r="F583" s="20">
+        <v>0</v>
+      </c>
+      <c r="G583" s="20">
+        <v>0</v>
+      </c>
+      <c r="H583" s="20">
+        <v>0</v>
+      </c>
+      <c r="I583" s="20">
+        <v>0</v>
+      </c>
+      <c r="J583" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10">
+      <c r="A584" s="31">
+        <v>882059</v>
+      </c>
+      <c r="B584" s="3">
+        <v>6</v>
+      </c>
+      <c r="C584" s="35">
+        <v>408</v>
+      </c>
+      <c r="D584" s="20">
+        <v>0</v>
+      </c>
+      <c r="E584" s="20">
+        <v>0</v>
+      </c>
+      <c r="F584" s="20">
+        <v>0</v>
+      </c>
+      <c r="G584" s="20">
+        <v>0</v>
+      </c>
+      <c r="H584" s="20">
+        <v>0</v>
+      </c>
+      <c r="I584" s="20">
+        <v>0</v>
+      </c>
+      <c r="J584" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10">
+      <c r="A585" s="31">
+        <v>883051</v>
+      </c>
+      <c r="B585" s="3">
+        <v>6</v>
+      </c>
+      <c r="C585" s="35">
+        <v>409</v>
+      </c>
+      <c r="D585" s="20">
+        <v>0</v>
+      </c>
+      <c r="E585" s="20">
+        <v>0</v>
+      </c>
+      <c r="F585" s="20">
+        <v>0</v>
+      </c>
+      <c r="G585" s="20">
+        <v>0</v>
+      </c>
+      <c r="H585" s="20">
+        <v>0</v>
+      </c>
+      <c r="I585" s="20">
+        <v>0</v>
+      </c>
+      <c r="J585" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10">
+      <c r="A586" s="31">
+        <v>883052</v>
+      </c>
+      <c r="B586" s="3">
+        <v>6</v>
+      </c>
+      <c r="C586" s="35">
+        <v>410</v>
+      </c>
+      <c r="D586" s="20">
+        <v>0</v>
+      </c>
+      <c r="E586" s="20">
+        <v>0</v>
+      </c>
+      <c r="F586" s="20">
+        <v>0</v>
+      </c>
+      <c r="G586" s="20">
+        <v>0</v>
+      </c>
+      <c r="H586" s="20">
+        <v>0</v>
+      </c>
+      <c r="I586" s="20">
+        <v>0</v>
+      </c>
+      <c r="J586" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10">
+      <c r="A587" s="31">
+        <v>883053</v>
+      </c>
+      <c r="B587" s="3">
+        <v>6</v>
+      </c>
+      <c r="C587" s="35">
+        <v>411</v>
+      </c>
+      <c r="D587" s="20">
+        <v>0</v>
+      </c>
+      <c r="E587" s="20">
+        <v>0</v>
+      </c>
+      <c r="F587" s="20">
+        <v>0</v>
+      </c>
+      <c r="G587" s="20">
+        <v>0</v>
+      </c>
+      <c r="H587" s="20">
+        <v>0</v>
+      </c>
+      <c r="I587" s="20">
+        <v>0</v>
+      </c>
+      <c r="J587" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10">
+      <c r="A588" s="31">
+        <v>883054</v>
+      </c>
+      <c r="B588" s="3">
+        <v>6</v>
+      </c>
+      <c r="C588" s="35">
+        <v>412</v>
+      </c>
+      <c r="D588" s="20">
+        <v>0</v>
+      </c>
+      <c r="E588" s="20">
+        <v>0</v>
+      </c>
+      <c r="F588" s="20">
+        <v>0</v>
+      </c>
+      <c r="G588" s="20">
+        <v>0</v>
+      </c>
+      <c r="H588" s="20">
+        <v>0</v>
+      </c>
+      <c r="I588" s="20">
+        <v>0</v>
+      </c>
+      <c r="J588" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10">
+      <c r="A589" s="31">
+        <v>883055</v>
+      </c>
+      <c r="B589" s="3">
+        <v>6</v>
+      </c>
+      <c r="C589" s="35">
+        <v>413</v>
+      </c>
+      <c r="D589" s="20">
+        <v>0</v>
+      </c>
+      <c r="E589" s="20">
+        <v>0</v>
+      </c>
+      <c r="F589" s="20">
+        <v>0</v>
+      </c>
+      <c r="G589" s="20">
+        <v>0</v>
+      </c>
+      <c r="H589" s="20">
+        <v>0</v>
+      </c>
+      <c r="I589" s="20">
+        <v>0</v>
+      </c>
+      <c r="J589" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10">
+      <c r="A590" s="31">
+        <v>883056</v>
+      </c>
+      <c r="B590" s="3">
+        <v>6</v>
+      </c>
+      <c r="C590" s="35">
+        <v>414</v>
+      </c>
+      <c r="D590" s="20">
+        <v>0</v>
+      </c>
+      <c r="E590" s="20">
+        <v>0</v>
+      </c>
+      <c r="F590" s="20">
+        <v>0</v>
+      </c>
+      <c r="G590" s="20">
+        <v>0</v>
+      </c>
+      <c r="H590" s="20">
+        <v>0</v>
+      </c>
+      <c r="I590" s="20">
+        <v>0</v>
+      </c>
+      <c r="J590" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10">
+      <c r="A591" s="31">
+        <v>883057</v>
+      </c>
+      <c r="B591" s="3">
+        <v>6</v>
+      </c>
+      <c r="C591" s="35">
+        <v>415</v>
+      </c>
+      <c r="D591" s="20">
+        <v>0</v>
+      </c>
+      <c r="E591" s="20">
+        <v>0</v>
+      </c>
+      <c r="F591" s="20">
+        <v>0</v>
+      </c>
+      <c r="G591" s="20">
+        <v>0</v>
+      </c>
+      <c r="H591" s="20">
+        <v>0</v>
+      </c>
+      <c r="I591" s="20">
+        <v>0</v>
+      </c>
+      <c r="J591" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10">
+      <c r="A592" s="31">
+        <v>883058</v>
+      </c>
+      <c r="B592" s="3">
+        <v>6</v>
+      </c>
+      <c r="C592" s="35">
+        <v>416</v>
+      </c>
+      <c r="D592" s="20">
+        <v>0</v>
+      </c>
+      <c r="E592" s="20">
+        <v>0</v>
+      </c>
+      <c r="F592" s="20">
+        <v>0</v>
+      </c>
+      <c r="G592" s="20">
+        <v>0</v>
+      </c>
+      <c r="H592" s="20">
+        <v>0</v>
+      </c>
+      <c r="I592" s="20">
+        <v>0</v>
+      </c>
+      <c r="J592" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10">
+      <c r="A593" s="31">
+        <v>883059</v>
+      </c>
+      <c r="B593" s="3">
+        <v>6</v>
+      </c>
+      <c r="C593" s="35">
+        <v>417</v>
+      </c>
+      <c r="D593" s="20">
+        <v>0</v>
+      </c>
+      <c r="E593" s="20">
+        <v>0</v>
+      </c>
+      <c r="F593" s="20">
+        <v>0</v>
+      </c>
+      <c r="G593" s="20">
+        <v>0</v>
+      </c>
+      <c r="H593" s="20">
+        <v>0</v>
+      </c>
+      <c r="I593" s="20">
+        <v>0</v>
+      </c>
+      <c r="J593" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10">
+      <c r="A594" s="31">
+        <v>884051</v>
+      </c>
+      <c r="B594" s="3">
+        <v>6</v>
+      </c>
+      <c r="C594" s="35">
+        <v>418</v>
+      </c>
+      <c r="D594" s="20">
+        <v>0</v>
+      </c>
+      <c r="E594" s="20">
+        <v>0</v>
+      </c>
+      <c r="F594" s="20">
+        <v>0</v>
+      </c>
+      <c r="G594" s="20">
+        <v>0</v>
+      </c>
+      <c r="H594" s="20">
+        <v>0</v>
+      </c>
+      <c r="I594" s="20">
+        <v>0</v>
+      </c>
+      <c r="J594" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10">
+      <c r="A595" s="31">
+        <v>884052</v>
+      </c>
+      <c r="B595" s="3">
+        <v>6</v>
+      </c>
+      <c r="C595" s="35">
+        <v>419</v>
+      </c>
+      <c r="D595" s="20">
+        <v>0</v>
+      </c>
+      <c r="E595" s="20">
+        <v>0</v>
+      </c>
+      <c r="F595" s="20">
+        <v>0</v>
+      </c>
+      <c r="G595" s="20">
+        <v>0</v>
+      </c>
+      <c r="H595" s="20">
+        <v>0</v>
+      </c>
+      <c r="I595" s="20">
+        <v>0</v>
+      </c>
+      <c r="J595" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10">
+      <c r="A596" s="31">
+        <v>884053</v>
+      </c>
+      <c r="B596" s="3">
+        <v>6</v>
+      </c>
+      <c r="C596" s="35">
+        <v>420</v>
+      </c>
+      <c r="D596" s="20">
+        <v>0</v>
+      </c>
+      <c r="E596" s="20">
+        <v>0</v>
+      </c>
+      <c r="F596" s="20">
+        <v>0</v>
+      </c>
+      <c r="G596" s="20">
+        <v>0</v>
+      </c>
+      <c r="H596" s="20">
+        <v>0</v>
+      </c>
+      <c r="I596" s="20">
+        <v>0</v>
+      </c>
+      <c r="J596" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10">
+      <c r="A597" s="31">
+        <v>884054</v>
+      </c>
+      <c r="B597" s="3">
+        <v>6</v>
+      </c>
+      <c r="C597" s="35">
+        <v>421</v>
+      </c>
+      <c r="D597" s="20">
+        <v>0</v>
+      </c>
+      <c r="E597" s="20">
+        <v>0</v>
+      </c>
+      <c r="F597" s="20">
+        <v>0</v>
+      </c>
+      <c r="G597" s="20">
+        <v>0</v>
+      </c>
+      <c r="H597" s="20">
+        <v>0</v>
+      </c>
+      <c r="I597" s="20">
+        <v>0</v>
+      </c>
+      <c r="J597" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10">
+      <c r="A598" s="31">
+        <v>884055</v>
+      </c>
+      <c r="B598" s="3">
+        <v>6</v>
+      </c>
+      <c r="C598" s="35">
+        <v>422</v>
+      </c>
+      <c r="D598" s="20">
+        <v>0</v>
+      </c>
+      <c r="E598" s="20">
+        <v>0</v>
+      </c>
+      <c r="F598" s="20">
+        <v>0</v>
+      </c>
+      <c r="G598" s="20">
+        <v>0</v>
+      </c>
+      <c r="H598" s="20">
+        <v>0</v>
+      </c>
+      <c r="I598" s="20">
+        <v>0</v>
+      </c>
+      <c r="J598" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10">
+      <c r="A599" s="31">
+        <v>884056</v>
+      </c>
+      <c r="B599" s="3">
+        <v>6</v>
+      </c>
+      <c r="C599" s="35">
+        <v>423</v>
+      </c>
+      <c r="D599" s="20">
+        <v>0</v>
+      </c>
+      <c r="E599" s="20">
+        <v>0</v>
+      </c>
+      <c r="F599" s="20">
+        <v>0</v>
+      </c>
+      <c r="G599" s="20">
+        <v>0</v>
+      </c>
+      <c r="H599" s="20">
+        <v>0</v>
+      </c>
+      <c r="I599" s="20">
+        <v>0</v>
+      </c>
+      <c r="J599" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10">
+      <c r="A600" s="31">
+        <v>884057</v>
+      </c>
+      <c r="B600" s="3">
+        <v>6</v>
+      </c>
+      <c r="C600" s="35">
+        <v>424</v>
+      </c>
+      <c r="D600" s="20">
+        <v>0</v>
+      </c>
+      <c r="E600" s="20">
+        <v>0</v>
+      </c>
+      <c r="F600" s="20">
+        <v>0</v>
+      </c>
+      <c r="G600" s="20">
+        <v>0</v>
+      </c>
+      <c r="H600" s="20">
+        <v>0</v>
+      </c>
+      <c r="I600" s="20">
+        <v>0</v>
+      </c>
+      <c r="J600" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10">
+      <c r="A601" s="31">
+        <v>884058</v>
+      </c>
+      <c r="B601" s="3">
+        <v>6</v>
+      </c>
+      <c r="C601" s="35">
+        <v>425</v>
+      </c>
+      <c r="D601" s="20">
+        <v>0</v>
+      </c>
+      <c r="E601" s="20">
+        <v>0</v>
+      </c>
+      <c r="F601" s="20">
+        <v>0</v>
+      </c>
+      <c r="G601" s="20">
+        <v>0</v>
+      </c>
+      <c r="H601" s="20">
+        <v>0</v>
+      </c>
+      <c r="I601" s="20">
+        <v>0</v>
+      </c>
+      <c r="J601" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10">
+      <c r="A602" s="31">
+        <v>884059</v>
+      </c>
+      <c r="B602" s="3">
+        <v>6</v>
+      </c>
+      <c r="C602" s="35">
+        <v>426</v>
+      </c>
+      <c r="D602" s="20">
+        <v>0</v>
+      </c>
+      <c r="E602" s="20">
+        <v>0</v>
+      </c>
+      <c r="F602" s="20">
+        <v>0</v>
+      </c>
+      <c r="G602" s="20">
+        <v>0</v>
+      </c>
+      <c r="H602" s="20">
+        <v>0</v>
+      </c>
+      <c r="I602" s="20">
+        <v>0</v>
+      </c>
+      <c r="J602" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10">
+      <c r="A603" s="31">
+        <v>885051</v>
+      </c>
+      <c r="B603" s="3">
+        <v>6</v>
+      </c>
+      <c r="C603" s="35">
+        <v>427</v>
+      </c>
+      <c r="D603" s="20">
+        <v>0</v>
+      </c>
+      <c r="E603" s="20">
+        <v>0</v>
+      </c>
+      <c r="F603" s="20">
+        <v>0</v>
+      </c>
+      <c r="G603" s="20">
+        <v>0</v>
+      </c>
+      <c r="H603" s="20">
+        <v>0</v>
+      </c>
+      <c r="I603" s="20">
+        <v>0</v>
+      </c>
+      <c r="J603" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10">
+      <c r="A604" s="31">
+        <v>885052</v>
+      </c>
+      <c r="B604" s="3">
+        <v>6</v>
+      </c>
+      <c r="C604" s="35">
+        <v>428</v>
+      </c>
+      <c r="D604" s="20">
+        <v>0</v>
+      </c>
+      <c r="E604" s="20">
+        <v>0</v>
+      </c>
+      <c r="F604" s="20">
+        <v>0</v>
+      </c>
+      <c r="G604" s="20">
+        <v>0</v>
+      </c>
+      <c r="H604" s="20">
+        <v>0</v>
+      </c>
+      <c r="I604" s="20">
+        <v>0</v>
+      </c>
+      <c r="J604" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10">
+      <c r="A605" s="31">
+        <v>885053</v>
+      </c>
+      <c r="B605" s="3">
+        <v>6</v>
+      </c>
+      <c r="C605" s="35">
+        <v>429</v>
+      </c>
+      <c r="D605" s="20">
+        <v>0</v>
+      </c>
+      <c r="E605" s="20">
+        <v>0</v>
+      </c>
+      <c r="F605" s="20">
+        <v>0</v>
+      </c>
+      <c r="G605" s="20">
+        <v>0</v>
+      </c>
+      <c r="H605" s="20">
+        <v>0</v>
+      </c>
+      <c r="I605" s="20">
+        <v>0</v>
+      </c>
+      <c r="J605" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10">
+      <c r="A606" s="31">
+        <v>885054</v>
+      </c>
+      <c r="B606" s="3">
+        <v>6</v>
+      </c>
+      <c r="C606" s="35">
+        <v>430</v>
+      </c>
+      <c r="D606" s="20">
+        <v>0</v>
+      </c>
+      <c r="E606" s="20">
+        <v>0</v>
+      </c>
+      <c r="F606" s="20">
+        <v>0</v>
+      </c>
+      <c r="G606" s="20">
+        <v>0</v>
+      </c>
+      <c r="H606" s="20">
+        <v>0</v>
+      </c>
+      <c r="I606" s="20">
+        <v>0</v>
+      </c>
+      <c r="J606" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10">
+      <c r="A607" s="31">
+        <v>885055</v>
+      </c>
+      <c r="B607" s="3">
+        <v>6</v>
+      </c>
+      <c r="C607" s="35">
+        <v>431</v>
+      </c>
+      <c r="D607" s="20">
+        <v>0</v>
+      </c>
+      <c r="E607" s="20">
+        <v>0</v>
+      </c>
+      <c r="F607" s="20">
+        <v>0</v>
+      </c>
+      <c r="G607" s="20">
+        <v>0</v>
+      </c>
+      <c r="H607" s="20">
+        <v>0</v>
+      </c>
+      <c r="I607" s="20">
+        <v>0</v>
+      </c>
+      <c r="J607" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10">
+      <c r="A608" s="31">
+        <v>885056</v>
+      </c>
+      <c r="B608" s="3">
+        <v>6</v>
+      </c>
+      <c r="C608" s="35">
+        <v>432</v>
+      </c>
+      <c r="D608" s="20">
+        <v>0</v>
+      </c>
+      <c r="E608" s="20">
+        <v>0</v>
+      </c>
+      <c r="F608" s="20">
+        <v>0</v>
+      </c>
+      <c r="G608" s="20">
+        <v>0</v>
+      </c>
+      <c r="H608" s="20">
+        <v>0</v>
+      </c>
+      <c r="I608" s="20">
+        <v>0</v>
+      </c>
+      <c r="J608" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10">
+      <c r="A609" s="31">
+        <v>885057</v>
+      </c>
+      <c r="B609" s="3">
+        <v>6</v>
+      </c>
+      <c r="C609" s="35">
+        <v>433</v>
+      </c>
+      <c r="D609" s="20">
+        <v>0</v>
+      </c>
+      <c r="E609" s="20">
+        <v>0</v>
+      </c>
+      <c r="F609" s="20">
+        <v>0</v>
+      </c>
+      <c r="G609" s="20">
+        <v>0</v>
+      </c>
+      <c r="H609" s="20">
+        <v>0</v>
+      </c>
+      <c r="I609" s="20">
+        <v>0</v>
+      </c>
+      <c r="J609" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10">
+      <c r="A610" s="31">
+        <v>885058</v>
+      </c>
+      <c r="B610" s="3">
+        <v>6</v>
+      </c>
+      <c r="C610" s="35">
+        <v>434</v>
+      </c>
+      <c r="D610" s="20">
+        <v>0</v>
+      </c>
+      <c r="E610" s="20">
+        <v>0</v>
+      </c>
+      <c r="F610" s="20">
+        <v>0</v>
+      </c>
+      <c r="G610" s="20">
+        <v>0</v>
+      </c>
+      <c r="H610" s="20">
+        <v>0</v>
+      </c>
+      <c r="I610" s="20">
+        <v>0</v>
+      </c>
+      <c r="J610" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10">
+      <c r="A611" s="31">
+        <v>885059</v>
+      </c>
+      <c r="B611" s="3">
+        <v>6</v>
+      </c>
+      <c r="C611" s="35">
+        <v>435</v>
+      </c>
+      <c r="D611" s="20">
+        <v>0</v>
+      </c>
+      <c r="E611" s="20">
+        <v>0</v>
+      </c>
+      <c r="F611" s="20">
+        <v>0</v>
+      </c>
+      <c r="G611" s="20">
+        <v>0</v>
+      </c>
+      <c r="H611" s="20">
+        <v>0</v>
+      </c>
+      <c r="I611" s="20">
+        <v>0</v>
+      </c>
+      <c r="J611" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="31"/>
+      <c r="C612" s="36"/>
+    </row>
+    <row r="613" spans="3:3">
+      <c r="C613" s="36"/>
+    </row>
+    <row r="614" spans="3:3">
+      <c r="C614" s="36"/>
+    </row>
+    <row r="615" spans="3:3">
+      <c r="C615" s="36"/>
+    </row>
+    <row r="616" spans="3:3">
+      <c r="C616" s="36"/>
+    </row>
+    <row r="617" spans="3:3">
+      <c r="C617" s="36"/>
+    </row>
+    <row r="618" spans="3:3">
+      <c r="C618" s="36"/>
+    </row>
+    <row r="619" spans="3:3">
+      <c r="C619" s="36"/>
+    </row>
+    <row r="620" spans="3:3">
+      <c r="C620" s="36"/>
+    </row>
+    <row r="621" spans="3:3">
+      <c r="C621" s="36"/>
+    </row>
+    <row r="622" spans="3:3">
+      <c r="C622" s="36"/>
+    </row>
+    <row r="623" spans="3:3">
+      <c r="C623" s="36"/>
+    </row>
+    <row r="624" spans="3:3">
+      <c r="C624" s="36"/>
+    </row>
+    <row r="625" spans="3:3">
+      <c r="C625" s="36"/>
+    </row>
+    <row r="626" spans="3:3">
+      <c r="C626" s="36"/>
+    </row>
+    <row r="627" spans="3:3">
+      <c r="C627" s="36"/>
+    </row>
+    <row r="628" spans="3:3">
+      <c r="C628" s="36"/>
+    </row>
+    <row r="629" spans="3:3">
+      <c r="C629" s="36"/>
+    </row>
+    <row r="630" spans="3:3">
+      <c r="C630" s="36"/>
+    </row>
+    <row r="631" spans="3:3">
+      <c r="C631" s="36"/>
+    </row>
+    <row r="632" spans="3:3">
+      <c r="C632" s="36"/>
+    </row>
+    <row r="633" spans="3:3">
+      <c r="C633" s="36"/>
+    </row>
+    <row r="634" spans="3:3">
+      <c r="C634" s="36"/>
+    </row>
+    <row r="635" spans="3:3">
+      <c r="C635" s="36"/>
+    </row>
+    <row r="636" spans="3:3">
+      <c r="C636" s="36"/>
+    </row>
+    <row r="637" spans="3:3">
+      <c r="C637" s="36"/>
+    </row>
+    <row r="638" spans="3:3">
+      <c r="C638" s="36"/>
+    </row>
+    <row r="639" spans="3:3">
+      <c r="C639" s="36"/>
     </row>
   </sheetData>
   <sortState ref="A2:J79">
@@ -16275,7 +21006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -16283,7 +21014,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -16292,7 +21023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -16300,7 +21031,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/npc服务映射表.xlsx
+++ b/Table/Table_xls/npc服务映射表.xlsx
@@ -151,57 +151,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -222,6 +171,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -230,8 +222,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -260,32 +268,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,37 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,61 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +500,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,24 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -593,6 +575,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,6 +620,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -652,162 +661,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,12 +1305,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L639"/>
+  <dimension ref="A1:L641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
+      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -6061,111 +6061,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
-      <c r="A150">
+    <row r="150" s="4" customFormat="1" spans="1:10">
+      <c r="A150" s="22">
+        <v>101109</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1</v>
+      </c>
+      <c r="C150" s="23">
+        <v>1170000</v>
+      </c>
+      <c r="D150" s="24">
+        <v>0</v>
+      </c>
+      <c r="E150" s="24">
+        <v>0</v>
+      </c>
+      <c r="F150" s="24">
+        <v>0</v>
+      </c>
+      <c r="G150" s="24">
+        <v>0</v>
+      </c>
+      <c r="H150" s="24">
+        <v>0</v>
+      </c>
+      <c r="I150" s="24">
+        <v>0</v>
+      </c>
+      <c r="J150" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" s="4" customFormat="1" spans="1:10">
+      <c r="A151" s="22">
+        <v>101110</v>
+      </c>
+      <c r="B151" s="4">
+        <v>9</v>
+      </c>
+      <c r="C151" s="23">
+        <v>1170000</v>
+      </c>
+      <c r="D151" s="24">
+        <v>0</v>
+      </c>
+      <c r="E151" s="24">
+        <v>0</v>
+      </c>
+      <c r="F151" s="24">
+        <v>0</v>
+      </c>
+      <c r="G151" s="24">
+        <v>0</v>
+      </c>
+      <c r="H151" s="24">
+        <v>0</v>
+      </c>
+      <c r="I151" s="24">
+        <v>0</v>
+      </c>
+      <c r="J151" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152">
         <v>30005</v>
       </c>
-      <c r="B150">
+      <c r="B152">
         <v>11</v>
       </c>
-      <c r="C150">
+      <c r="C152">
         <v>75</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153">
         <v>910209</v>
-      </c>
-      <c r="B151" s="1">
-        <v>4</v>
-      </c>
-      <c r="C151" s="19">
-        <v>45</v>
-      </c>
-      <c r="D151" s="1">
-        <v>0</v>
-      </c>
-      <c r="E151" s="1">
-        <v>0</v>
-      </c>
-      <c r="F151" s="1">
-        <v>0</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0</v>
-      </c>
-      <c r="H151" s="1">
-        <v>0</v>
-      </c>
-      <c r="I151" s="1">
-        <v>0</v>
-      </c>
-      <c r="J151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="25">
-        <v>910210</v>
-      </c>
-      <c r="B152" s="1">
-        <v>4</v>
-      </c>
-      <c r="C152" s="19">
-        <v>46</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
-      <c r="E152" s="1">
-        <v>0</v>
-      </c>
-      <c r="F152" s="1">
-        <v>0</v>
-      </c>
-      <c r="G152" s="1">
-        <v>0</v>
-      </c>
-      <c r="H152" s="1">
-        <v>0</v>
-      </c>
-      <c r="I152" s="1">
-        <v>0</v>
-      </c>
-      <c r="J152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="25">
-        <v>910211</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
       </c>
       <c r="C153" s="19">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -6191,13 +6191,13 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="25">
-        <v>910212</v>
+        <v>910210</v>
       </c>
       <c r="B154" s="1">
         <v>4</v>
       </c>
       <c r="C154" s="19">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -6223,13 +6223,13 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="25">
-        <v>910213</v>
+        <v>910211</v>
       </c>
       <c r="B155" s="1">
         <v>4</v>
       </c>
       <c r="C155" s="19">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -6255,77 +6255,77 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="25">
-        <v>910214</v>
+        <v>910212</v>
       </c>
       <c r="B156" s="1">
         <v>4</v>
       </c>
       <c r="C156" s="19">
+        <v>48</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="25">
+        <v>910213</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" s="19">
+        <v>49</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="25">
+        <v>910214</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4</v>
+      </c>
+      <c r="C158" s="19">
         <v>50</v>
-      </c>
-      <c r="D156" s="1">
-        <v>0</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0</v>
-      </c>
-      <c r="F156" s="1">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
-        <v>0</v>
-      </c>
-      <c r="H156" s="1">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="26">
-        <v>921303</v>
-      </c>
-      <c r="B157">
-        <v>6</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157" s="1">
-        <v>0</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-      <c r="F157" s="1">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1">
-        <v>0</v>
-      </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-      <c r="I157" s="1">
-        <v>0</v>
-      </c>
-      <c r="J157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="26">
-        <v>921304</v>
-      </c>
-      <c r="B158">
-        <v>6</v>
-      </c>
-      <c r="C158">
-        <v>4</v>
       </c>
       <c r="D158" s="1">
         <v>0</v>
@@ -6351,13 +6351,13 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="26">
-        <v>921305</v>
+        <v>921303</v>
       </c>
       <c r="B159">
         <v>6</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1">
         <v>0</v>
@@ -6383,13 +6383,13 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="26">
-        <v>921306</v>
+        <v>921304</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" s="1">
         <v>0</v>
@@ -6415,13 +6415,13 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="26">
-        <v>921307</v>
+        <v>921305</v>
       </c>
       <c r="B161">
         <v>6</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -6447,13 +6447,13 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="26">
-        <v>921308</v>
+        <v>921306</v>
       </c>
       <c r="B162">
         <v>6</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -6479,13 +6479,13 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="26">
-        <v>921309</v>
+        <v>921307</v>
       </c>
       <c r="B163">
         <v>6</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D163" s="1">
         <v>0</v>
@@ -6511,13 +6511,13 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="26">
-        <v>921310</v>
+        <v>921308</v>
       </c>
       <c r="B164">
         <v>6</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -6543,13 +6543,13 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="26">
-        <v>921311</v>
+        <v>921309</v>
       </c>
       <c r="B165">
         <v>6</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165" s="1">
         <v>0</v>
@@ -6575,13 +6575,13 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="26">
-        <v>921312</v>
+        <v>921310</v>
       </c>
       <c r="B166">
         <v>6</v>
       </c>
       <c r="C166">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D166" s="1">
         <v>0</v>
@@ -6607,13 +6607,13 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="26">
-        <v>921313</v>
+        <v>921311</v>
       </c>
       <c r="B167">
         <v>6</v>
       </c>
       <c r="C167">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D167" s="1">
         <v>0</v>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="26">
-        <v>921314</v>
+        <v>921312</v>
       </c>
       <c r="B168">
         <v>6</v>
       </c>
       <c r="C168">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -6671,13 +6671,13 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="26">
-        <v>921315</v>
+        <v>921313</v>
       </c>
       <c r="B169">
         <v>6</v>
       </c>
       <c r="C169">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -6701,15 +6701,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" ht="26" customHeight="1" spans="1:10">
+    <row r="170" spans="1:10">
       <c r="A170" s="26">
-        <v>911350</v>
+        <v>921314</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D170" s="1">
         <v>0</v>
@@ -6735,13 +6735,13 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="26">
-        <v>911351</v>
+        <v>921315</v>
       </c>
       <c r="B171">
         <v>6</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D171" s="1">
         <v>0</v>
@@ -6765,15 +6765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" ht="26" customHeight="1" spans="1:10">
       <c r="A172" s="26">
-        <v>911352</v>
+        <v>911350</v>
       </c>
       <c r="B172">
         <v>6</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1">
         <v>0</v>
@@ -6799,13 +6799,13 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="26">
-        <v>911353</v>
+        <v>911351</v>
       </c>
       <c r="B173">
         <v>6</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -6831,13 +6831,13 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="26">
-        <v>911354</v>
+        <v>911352</v>
       </c>
       <c r="B174">
         <v>6</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -6863,13 +6863,13 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="26">
-        <v>911355</v>
+        <v>911353</v>
       </c>
       <c r="B175">
         <v>6</v>
       </c>
       <c r="C175">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -6895,13 +6895,13 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="26">
-        <v>911356</v>
+        <v>911354</v>
       </c>
       <c r="B176">
         <v>6</v>
       </c>
       <c r="C176">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D176" s="1">
         <v>0</v>
@@ -6927,13 +6927,13 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="26">
-        <v>911357</v>
+        <v>911355</v>
       </c>
       <c r="B177">
         <v>6</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -6959,13 +6959,13 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="26">
-        <v>911358</v>
+        <v>911356</v>
       </c>
       <c r="B178">
         <v>6</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -6991,13 +6991,13 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="26">
-        <v>911359</v>
+        <v>911357</v>
       </c>
       <c r="B179">
         <v>6</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -7023,13 +7023,13 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="26">
-        <v>911360</v>
+        <v>911358</v>
       </c>
       <c r="B180">
         <v>6</v>
       </c>
       <c r="C180">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D180" s="1">
         <v>0</v>
@@ -7055,13 +7055,13 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="26">
-        <v>911361</v>
+        <v>911359</v>
       </c>
       <c r="B181">
         <v>6</v>
       </c>
       <c r="C181">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D181" s="1">
         <v>0</v>
@@ -7085,15 +7085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="23" customHeight="1" spans="1:10">
+    <row r="182" spans="1:10">
       <c r="A182" s="26">
-        <v>911362</v>
+        <v>911360</v>
       </c>
       <c r="B182">
         <v>6</v>
       </c>
       <c r="C182">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D182" s="1">
         <v>0</v>
@@ -7119,13 +7119,13 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="26">
-        <v>911363</v>
+        <v>911361</v>
       </c>
       <c r="B183">
         <v>6</v>
       </c>
       <c r="C183">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D183" s="1">
         <v>0</v>
@@ -7149,15 +7149,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" ht="23" customHeight="1" spans="1:10">
       <c r="A184" s="26">
-        <v>911364</v>
+        <v>911362</v>
       </c>
       <c r="B184">
         <v>6</v>
       </c>
       <c r="C184">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -7183,13 +7183,13 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="26">
-        <v>911365</v>
+        <v>911363</v>
       </c>
       <c r="B185">
         <v>6</v>
       </c>
       <c r="C185">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D185" s="1">
         <v>0</v>
@@ -7215,13 +7215,13 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="26">
-        <v>911366</v>
+        <v>911364</v>
       </c>
       <c r="B186">
         <v>6</v>
       </c>
       <c r="C186">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -7247,13 +7247,13 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="26">
-        <v>911367</v>
+        <v>911365</v>
       </c>
       <c r="B187">
         <v>6</v>
       </c>
       <c r="C187">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D187" s="1">
         <v>0</v>
@@ -7279,13 +7279,13 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="26">
-        <v>911368</v>
+        <v>911366</v>
       </c>
       <c r="B188">
         <v>6</v>
       </c>
       <c r="C188">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D188" s="1">
         <v>0</v>
@@ -7311,13 +7311,13 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="26">
-        <v>911369</v>
+        <v>911367</v>
       </c>
       <c r="B189">
         <v>6</v>
       </c>
       <c r="C189">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -7343,13 +7343,13 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="26">
-        <v>911370</v>
+        <v>911368</v>
       </c>
       <c r="B190">
         <v>6</v>
       </c>
       <c r="C190">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D190" s="1">
         <v>0</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="26">
-        <v>911371</v>
+        <v>911369</v>
       </c>
       <c r="B191">
         <v>6</v>
       </c>
       <c r="C191">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D191" s="1">
         <v>0</v>
@@ -7407,13 +7407,13 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="26">
-        <v>911372</v>
+        <v>911370</v>
       </c>
       <c r="B192">
         <v>6</v>
       </c>
       <c r="C192">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -7439,13 +7439,13 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="26">
-        <v>911373</v>
+        <v>911371</v>
       </c>
       <c r="B193">
         <v>6</v>
       </c>
       <c r="C193">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
@@ -7471,13 +7471,13 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="26">
-        <v>911374</v>
+        <v>911372</v>
       </c>
       <c r="B194">
         <v>6</v>
       </c>
       <c r="C194">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
@@ -7503,13 +7503,13 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="26">
-        <v>911375</v>
+        <v>911373</v>
       </c>
       <c r="B195">
         <v>6</v>
       </c>
       <c r="C195">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D195" s="1">
         <v>0</v>
@@ -7535,13 +7535,13 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="26">
-        <v>911376</v>
+        <v>911374</v>
       </c>
       <c r="B196">
         <v>6</v>
       </c>
       <c r="C196">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D196" s="1">
         <v>0</v>
@@ -7567,13 +7567,13 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="26">
-        <v>911377</v>
+        <v>911375</v>
       </c>
       <c r="B197">
         <v>6</v>
       </c>
       <c r="C197">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -7599,13 +7599,13 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="26">
-        <v>911378</v>
+        <v>911376</v>
       </c>
       <c r="B198">
         <v>6</v>
       </c>
       <c r="C198">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D198" s="1">
         <v>0</v>
@@ -7631,13 +7631,13 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="26">
-        <v>911379</v>
+        <v>911377</v>
       </c>
       <c r="B199">
         <v>6</v>
       </c>
       <c r="C199">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D199" s="1">
         <v>0</v>
@@ -7663,13 +7663,13 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="26">
-        <v>911380</v>
+        <v>911378</v>
       </c>
       <c r="B200">
         <v>6</v>
       </c>
       <c r="C200">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -7695,13 +7695,13 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="26">
-        <v>911381</v>
+        <v>911379</v>
       </c>
       <c r="B201">
         <v>6</v>
       </c>
       <c r="C201">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -7727,13 +7727,13 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="26">
-        <v>911382</v>
+        <v>911380</v>
       </c>
       <c r="B202">
         <v>6</v>
       </c>
       <c r="C202">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D202" s="1">
         <v>0</v>
@@ -7759,13 +7759,13 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="26">
-        <v>911383</v>
+        <v>911381</v>
       </c>
       <c r="B203">
         <v>6</v>
       </c>
       <c r="C203">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D203" s="1">
         <v>0</v>
@@ -7791,13 +7791,13 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="26">
-        <v>911384</v>
+        <v>911382</v>
       </c>
       <c r="B204">
         <v>6</v>
       </c>
       <c r="C204">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D204" s="1">
         <v>0</v>
@@ -7823,13 +7823,13 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="26">
-        <v>911385</v>
+        <v>911383</v>
       </c>
       <c r="B205">
         <v>6</v>
       </c>
       <c r="C205">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D205" s="1">
         <v>0</v>
@@ -7855,13 +7855,13 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="26">
-        <v>911386</v>
+        <v>911384</v>
       </c>
       <c r="B206">
         <v>6</v>
       </c>
       <c r="C206">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -7887,13 +7887,13 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="26">
-        <v>911387</v>
+        <v>911385</v>
       </c>
       <c r="B207">
         <v>6</v>
       </c>
       <c r="C207">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -7919,13 +7919,13 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="26">
-        <v>911388</v>
+        <v>911386</v>
       </c>
       <c r="B208">
         <v>6</v>
       </c>
       <c r="C208">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D208" s="1">
         <v>0</v>
@@ -7951,13 +7951,13 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="26">
-        <v>911389</v>
+        <v>911387</v>
       </c>
       <c r="B209">
         <v>6</v>
       </c>
       <c r="C209">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D209" s="1">
         <v>0</v>
@@ -7983,13 +7983,13 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="26">
-        <v>911390</v>
+        <v>911388</v>
       </c>
       <c r="B210">
         <v>6</v>
       </c>
       <c r="C210">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D210" s="1">
         <v>0</v>
@@ -8015,13 +8015,13 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="26">
-        <v>911391</v>
+        <v>911389</v>
       </c>
       <c r="B211">
         <v>6</v>
       </c>
       <c r="C211">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -8047,13 +8047,13 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="26">
-        <v>911392</v>
+        <v>911390</v>
       </c>
       <c r="B212">
         <v>6</v>
       </c>
       <c r="C212">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D212" s="1">
         <v>0</v>
@@ -8079,13 +8079,13 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="26">
-        <v>911393</v>
+        <v>911391</v>
       </c>
       <c r="B213">
         <v>6</v>
       </c>
       <c r="C213">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D213" s="1">
         <v>0</v>
@@ -8111,13 +8111,13 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="26">
-        <v>911394</v>
+        <v>911392</v>
       </c>
       <c r="B214">
         <v>6</v>
       </c>
       <c r="C214">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -8143,13 +8143,13 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="26">
-        <v>911395</v>
+        <v>911393</v>
       </c>
       <c r="B215">
         <v>6</v>
       </c>
       <c r="C215">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
@@ -8175,13 +8175,13 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="26">
-        <v>911396</v>
+        <v>911394</v>
       </c>
       <c r="B216">
         <v>6</v>
       </c>
       <c r="C216">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
@@ -8207,13 +8207,13 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="26">
-        <v>911397</v>
+        <v>911395</v>
       </c>
       <c r="B217">
         <v>6</v>
       </c>
       <c r="C217">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D217" s="1">
         <v>0</v>
@@ -8239,13 +8239,13 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="26">
-        <v>911398</v>
+        <v>911396</v>
       </c>
       <c r="B218">
         <v>6</v>
       </c>
       <c r="C218">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D218" s="1">
         <v>0</v>
@@ -8271,13 +8271,13 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="26">
-        <v>911399</v>
+        <v>911397</v>
       </c>
       <c r="B219">
         <v>6</v>
       </c>
       <c r="C219">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D219" s="1">
         <v>0</v>
@@ -8303,13 +8303,13 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="26">
-        <v>911400</v>
+        <v>911398</v>
       </c>
       <c r="B220">
         <v>6</v>
       </c>
       <c r="C220">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -8335,13 +8335,13 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="26">
-        <v>911401</v>
+        <v>911399</v>
       </c>
       <c r="B221">
         <v>6</v>
       </c>
       <c r="C221">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D221" s="1">
         <v>0</v>
@@ -8367,13 +8367,13 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="26">
-        <v>911402</v>
+        <v>911400</v>
       </c>
       <c r="B222">
         <v>6</v>
       </c>
       <c r="C222">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D222" s="1">
         <v>0</v>
@@ -8399,13 +8399,13 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="26">
-        <v>911403</v>
+        <v>911401</v>
       </c>
       <c r="B223">
         <v>6</v>
       </c>
       <c r="C223">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D223" s="1">
         <v>0</v>
@@ -8431,13 +8431,13 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" s="26">
-        <v>911404</v>
+        <v>911402</v>
       </c>
       <c r="B224">
         <v>6</v>
       </c>
       <c r="C224">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D224" s="1">
         <v>0</v>
@@ -8463,13 +8463,13 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="26">
-        <v>911405</v>
+        <v>911403</v>
       </c>
       <c r="B225">
         <v>6</v>
       </c>
       <c r="C225">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D225" s="1">
         <v>0</v>
@@ -8495,13 +8495,13 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="26">
-        <v>911406</v>
+        <v>911404</v>
       </c>
       <c r="B226">
         <v>6</v>
       </c>
       <c r="C226">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D226" s="1">
         <v>0</v>
@@ -8527,13 +8527,13 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="26">
-        <v>911407</v>
+        <v>911405</v>
       </c>
       <c r="B227">
         <v>6</v>
       </c>
       <c r="C227">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D227" s="1">
         <v>0</v>
@@ -8559,13 +8559,13 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="26">
-        <v>911408</v>
+        <v>911406</v>
       </c>
       <c r="B228">
         <v>6</v>
       </c>
       <c r="C228">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D228" s="1">
         <v>0</v>
@@ -8591,13 +8591,13 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="26">
-        <v>911409</v>
+        <v>911407</v>
       </c>
       <c r="B229">
         <v>6</v>
       </c>
       <c r="C229">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D229" s="1">
         <v>0</v>
@@ -8623,13 +8623,13 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" s="26">
-        <v>911410</v>
+        <v>911408</v>
       </c>
       <c r="B230">
         <v>6</v>
       </c>
       <c r="C230">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -8655,13 +8655,13 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="26">
-        <v>911411</v>
+        <v>911409</v>
       </c>
       <c r="B231">
         <v>6</v>
       </c>
       <c r="C231">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -8687,13 +8687,13 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="26">
-        <v>911412</v>
+        <v>911410</v>
       </c>
       <c r="B232">
         <v>6</v>
       </c>
       <c r="C232">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D232" s="1">
         <v>0</v>
@@ -8719,13 +8719,13 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="26">
-        <v>911413</v>
+        <v>911411</v>
       </c>
       <c r="B233">
         <v>6</v>
       </c>
       <c r="C233">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D233" s="1">
         <v>0</v>
@@ -8751,13 +8751,13 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="26">
-        <v>911414</v>
+        <v>911412</v>
       </c>
       <c r="B234">
         <v>6</v>
       </c>
       <c r="C234">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D234" s="1">
         <v>0</v>
@@ -8783,13 +8783,13 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="26">
-        <v>911415</v>
+        <v>911413</v>
       </c>
       <c r="B235">
         <v>6</v>
       </c>
       <c r="C235">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D235" s="1">
         <v>0</v>
@@ -8815,13 +8815,13 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="26">
-        <v>911416</v>
+        <v>911414</v>
       </c>
       <c r="B236">
         <v>6</v>
       </c>
       <c r="C236">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D236" s="1">
         <v>0</v>
@@ -8847,13 +8847,13 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="26">
-        <v>911417</v>
+        <v>911415</v>
       </c>
       <c r="B237">
         <v>6</v>
       </c>
       <c r="C237">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -8879,13 +8879,13 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="26">
-        <v>911418</v>
+        <v>911416</v>
       </c>
       <c r="B238">
         <v>6</v>
       </c>
       <c r="C238">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -8911,13 +8911,13 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="26">
-        <v>911419</v>
+        <v>911417</v>
       </c>
       <c r="B239">
         <v>6</v>
       </c>
       <c r="C239">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D239" s="1">
         <v>0</v>
@@ -8943,13 +8943,13 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="26">
-        <v>911420</v>
+        <v>911418</v>
       </c>
       <c r="B240">
         <v>6</v>
       </c>
       <c r="C240">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D240" s="1">
         <v>0</v>
@@ -8975,13 +8975,13 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="26">
-        <v>911421</v>
+        <v>911419</v>
       </c>
       <c r="B241">
         <v>6</v>
       </c>
       <c r="C241">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D241" s="1">
         <v>0</v>
@@ -9007,13 +9007,13 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="26">
-        <v>911422</v>
+        <v>911420</v>
       </c>
       <c r="B242">
         <v>6</v>
       </c>
       <c r="C242">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D242" s="1">
         <v>0</v>
@@ -9039,13 +9039,13 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="26">
-        <v>911423</v>
+        <v>911421</v>
       </c>
       <c r="B243">
         <v>6</v>
       </c>
       <c r="C243">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D243" s="1">
         <v>0</v>
@@ -9071,13 +9071,13 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="26">
-        <v>911424</v>
+        <v>911422</v>
       </c>
       <c r="B244">
         <v>6</v>
       </c>
       <c r="C244">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D244" s="1">
         <v>0</v>
@@ -9103,13 +9103,13 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="26">
-        <v>911425</v>
+        <v>911423</v>
       </c>
       <c r="B245">
         <v>6</v>
       </c>
       <c r="C245">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -9135,13 +9135,13 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="26">
-        <v>911426</v>
+        <v>911424</v>
       </c>
       <c r="B246">
         <v>6</v>
       </c>
       <c r="C246">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D246" s="1">
         <v>0</v>
@@ -9167,13 +9167,13 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="26">
-        <v>911427</v>
+        <v>911425</v>
       </c>
       <c r="B247">
         <v>6</v>
       </c>
       <c r="C247">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D247" s="1">
         <v>0</v>
@@ -9199,13 +9199,13 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="26">
-        <v>911428</v>
+        <v>911426</v>
       </c>
       <c r="B248">
         <v>6</v>
       </c>
       <c r="C248">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D248" s="1">
         <v>0</v>
@@ -9231,13 +9231,13 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="26">
-        <v>911429</v>
+        <v>911427</v>
       </c>
       <c r="B249">
         <v>6</v>
       </c>
       <c r="C249">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -9263,13 +9263,13 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="26">
-        <v>911433</v>
+        <v>911428</v>
       </c>
       <c r="B250">
         <v>6</v>
       </c>
       <c r="C250">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D250" s="1">
         <v>0</v>
@@ -9295,13 +9295,13 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="26">
-        <v>911434</v>
+        <v>911429</v>
       </c>
       <c r="B251">
         <v>6</v>
       </c>
       <c r="C251">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D251" s="1">
         <v>0</v>
@@ -9327,13 +9327,13 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="26">
-        <v>911435</v>
+        <v>911433</v>
       </c>
       <c r="B252">
         <v>6</v>
       </c>
       <c r="C252">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D252" s="1">
         <v>0</v>
@@ -9359,13 +9359,13 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="26">
-        <v>911436</v>
+        <v>911434</v>
       </c>
       <c r="B253">
         <v>6</v>
       </c>
       <c r="C253">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D253" s="1">
         <v>0</v>
@@ -9391,13 +9391,13 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="26">
-        <v>911437</v>
+        <v>911435</v>
       </c>
       <c r="B254">
         <v>6</v>
       </c>
       <c r="C254">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D254" s="1">
         <v>0</v>
@@ -9423,13 +9423,13 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="26">
-        <v>911438</v>
+        <v>911436</v>
       </c>
       <c r="B255">
         <v>6</v>
       </c>
       <c r="C255">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D255" s="1">
         <v>0</v>
@@ -9455,13 +9455,13 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="26">
-        <v>911439</v>
+        <v>911437</v>
       </c>
       <c r="B256">
         <v>6</v>
       </c>
       <c r="C256">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D256" s="1">
         <v>0</v>
@@ -9487,13 +9487,13 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="26">
-        <v>911440</v>
+        <v>911438</v>
       </c>
       <c r="B257">
         <v>6</v>
       </c>
       <c r="C257">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D257" s="1">
         <v>0</v>
@@ -9519,13 +9519,13 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="26">
-        <v>911441</v>
+        <v>911439</v>
       </c>
       <c r="B258">
         <v>6</v>
       </c>
       <c r="C258">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D258" s="1">
         <v>0</v>
@@ -9551,13 +9551,13 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="26">
-        <v>911442</v>
+        <v>911440</v>
       </c>
       <c r="B259">
         <v>6</v>
       </c>
       <c r="C259">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D259" s="1">
         <v>0</v>
@@ -9583,13 +9583,13 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="26">
-        <v>911443</v>
+        <v>911441</v>
       </c>
       <c r="B260">
         <v>6</v>
       </c>
       <c r="C260">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D260" s="1">
         <v>0</v>
@@ -9615,13 +9615,13 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="26">
-        <v>911444</v>
+        <v>911442</v>
       </c>
       <c r="B261">
         <v>6</v>
       </c>
       <c r="C261">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D261" s="1">
         <v>0</v>
@@ -9647,141 +9647,141 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="26">
+        <v>911443</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>93</v>
+      </c>
+      <c r="D262" s="1">
+        <v>0</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0</v>
+      </c>
+      <c r="G262" s="1">
+        <v>0</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0</v>
+      </c>
+      <c r="I262" s="1">
+        <v>0</v>
+      </c>
+      <c r="J262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263" s="26">
+        <v>911444</v>
+      </c>
+      <c r="B263">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>94</v>
+      </c>
+      <c r="D263" s="1">
+        <v>0</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0</v>
+      </c>
+      <c r="G263" s="1">
+        <v>0</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
+      </c>
+      <c r="I263" s="1">
+        <v>0</v>
+      </c>
+      <c r="J263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" s="26">
         <v>911445</v>
       </c>
-      <c r="B262">
-        <v>6</v>
-      </c>
-      <c r="C262">
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264">
         <v>95</v>
       </c>
-      <c r="D262" s="1">
-        <v>0</v>
-      </c>
-      <c r="E262" s="1">
-        <v>0</v>
-      </c>
-      <c r="F262" s="1">
-        <v>0</v>
-      </c>
-      <c r="G262" s="1">
-        <v>0</v>
-      </c>
-      <c r="H262" s="1">
-        <v>0</v>
-      </c>
-      <c r="I262" s="1">
-        <v>0</v>
-      </c>
-      <c r="J262" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="27">
+      <c r="D264" s="1">
+        <v>0</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
+      </c>
+      <c r="G264" s="1">
+        <v>0</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0</v>
+      </c>
+      <c r="I264" s="1">
+        <v>0</v>
+      </c>
+      <c r="J264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" s="27">
         <v>600000</v>
       </c>
-      <c r="B263">
+      <c r="B265">
         <v>14</v>
       </c>
-      <c r="C263">
+      <c r="C265">
         <v>6666</v>
       </c>
-      <c r="D263" s="1">
-        <v>0</v>
-      </c>
-      <c r="E263" s="1">
-        <v>0</v>
-      </c>
-      <c r="F263" s="1">
-        <v>0</v>
-      </c>
-      <c r="G263" s="1">
-        <v>0</v>
-      </c>
-      <c r="H263" s="1">
-        <v>0</v>
-      </c>
-      <c r="I263" s="1">
-        <v>0</v>
-      </c>
-      <c r="J263" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="27">
+      <c r="D265" s="1">
+        <v>0</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0</v>
+      </c>
+      <c r="G265" s="1">
+        <v>0</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0</v>
+      </c>
+      <c r="J265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266" s="27">
         <v>600001</v>
       </c>
-      <c r="B264">
+      <c r="B266">
         <v>14</v>
       </c>
-      <c r="C264">
+      <c r="C266">
         <v>8888</v>
-      </c>
-      <c r="D264" s="1">
-        <v>0</v>
-      </c>
-      <c r="E264" s="1">
-        <v>0</v>
-      </c>
-      <c r="F264" s="1">
-        <v>0</v>
-      </c>
-      <c r="G264" s="1">
-        <v>0</v>
-      </c>
-      <c r="H264" s="1">
-        <v>0</v>
-      </c>
-      <c r="I264" s="1">
-        <v>0</v>
-      </c>
-      <c r="J264" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
-      <c r="A265">
-        <v>800001</v>
-      </c>
-      <c r="B265">
-        <v>6</v>
-      </c>
-      <c r="C265">
-        <v>96</v>
-      </c>
-      <c r="D265" s="1">
-        <v>0</v>
-      </c>
-      <c r="E265" s="1">
-        <v>0</v>
-      </c>
-      <c r="F265" s="1">
-        <v>0</v>
-      </c>
-      <c r="G265" s="1">
-        <v>0</v>
-      </c>
-      <c r="H265" s="1">
-        <v>0</v>
-      </c>
-      <c r="I265" s="1">
-        <v>0</v>
-      </c>
-      <c r="J265" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
-      <c r="A266">
-        <v>800004</v>
-      </c>
-      <c r="B266">
-        <v>6</v>
-      </c>
-      <c r="C266">
-        <v>97</v>
       </c>
       <c r="D266" s="1">
         <v>0</v>
@@ -9807,13 +9807,13 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267">
-        <v>800005</v>
+        <v>800001</v>
       </c>
       <c r="B267">
         <v>6</v>
       </c>
       <c r="C267">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -9839,109 +9839,109 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268">
+        <v>800004</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>97</v>
+      </c>
+      <c r="D268" s="1">
+        <v>0</v>
+      </c>
+      <c r="E268" s="1">
+        <v>0</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0</v>
+      </c>
+      <c r="G268" s="1">
+        <v>0</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0</v>
+      </c>
+      <c r="J268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269">
+        <v>800005</v>
+      </c>
+      <c r="B269">
+        <v>6</v>
+      </c>
+      <c r="C269">
+        <v>98</v>
+      </c>
+      <c r="D269" s="1">
+        <v>0</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0</v>
+      </c>
+      <c r="G269" s="1">
+        <v>0</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1">
+        <v>0</v>
+      </c>
+      <c r="J269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270">
         <v>600002</v>
       </c>
-      <c r="B268">
+      <c r="B270">
         <v>14</v>
       </c>
-      <c r="C268">
+      <c r="C270">
         <v>2300</v>
       </c>
-      <c r="D268" s="1">
-        <v>0</v>
-      </c>
-      <c r="E268" s="1">
-        <v>0</v>
-      </c>
-      <c r="F268" s="1">
-        <v>0</v>
-      </c>
-      <c r="G268" s="1">
-        <v>0</v>
-      </c>
-      <c r="H268" s="1">
-        <v>0</v>
-      </c>
-      <c r="I268" s="1">
-        <v>0</v>
-      </c>
-      <c r="J268" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" s="5" customFormat="1" spans="1:10">
-      <c r="A269" s="28">
-        <v>811103</v>
-      </c>
-      <c r="B269" s="5">
-        <v>6</v>
-      </c>
-      <c r="C269" s="5">
-        <v>99</v>
-      </c>
-      <c r="D269" s="29">
-        <v>0</v>
-      </c>
-      <c r="E269" s="29">
-        <v>0</v>
-      </c>
-      <c r="F269" s="29">
-        <v>0</v>
-      </c>
-      <c r="G269" s="29">
-        <v>0</v>
-      </c>
-      <c r="H269" s="29">
-        <v>0</v>
-      </c>
-      <c r="I269" s="29">
-        <v>0</v>
-      </c>
-      <c r="J269" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" s="5" customFormat="1" spans="1:10">
-      <c r="A270" s="28">
-        <v>811104</v>
-      </c>
-      <c r="B270" s="5">
-        <v>6</v>
-      </c>
-      <c r="C270" s="5">
-        <v>100</v>
-      </c>
-      <c r="D270" s="29">
-        <v>0</v>
-      </c>
-      <c r="E270" s="29">
-        <v>0</v>
-      </c>
-      <c r="F270" s="29">
-        <v>0</v>
-      </c>
-      <c r="G270" s="29">
-        <v>0</v>
-      </c>
-      <c r="H270" s="29">
-        <v>0</v>
-      </c>
-      <c r="I270" s="29">
-        <v>0</v>
-      </c>
-      <c r="J270" s="29">
+      <c r="D270" s="1">
+        <v>0</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0</v>
+      </c>
+      <c r="G270" s="1">
+        <v>0</v>
+      </c>
+      <c r="H270" s="1">
+        <v>0</v>
+      </c>
+      <c r="I270" s="1">
+        <v>0</v>
+      </c>
+      <c r="J270" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="271" s="5" customFormat="1" spans="1:10">
       <c r="A271" s="28">
-        <v>811105</v>
+        <v>811103</v>
       </c>
       <c r="B271" s="5">
         <v>6</v>
       </c>
       <c r="C271" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D271" s="29">
         <v>0</v>
@@ -9967,13 +9967,13 @@
     </row>
     <row r="272" s="5" customFormat="1" spans="1:10">
       <c r="A272" s="28">
-        <v>811106</v>
+        <v>811104</v>
       </c>
       <c r="B272" s="5">
         <v>6</v>
       </c>
       <c r="C272" s="5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D272" s="29">
         <v>0</v>
@@ -9999,13 +9999,13 @@
     </row>
     <row r="273" s="5" customFormat="1" spans="1:10">
       <c r="A273" s="28">
-        <v>811107</v>
+        <v>811105</v>
       </c>
       <c r="B273" s="5">
         <v>6</v>
       </c>
       <c r="C273" s="5">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D273" s="29">
         <v>0</v>
@@ -10031,13 +10031,13 @@
     </row>
     <row r="274" s="5" customFormat="1" spans="1:10">
       <c r="A274" s="28">
-        <v>811108</v>
+        <v>811106</v>
       </c>
       <c r="B274" s="5">
         <v>6</v>
       </c>
       <c r="C274" s="5">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D274" s="29">
         <v>0</v>
@@ -10063,13 +10063,13 @@
     </row>
     <row r="275" s="5" customFormat="1" spans="1:10">
       <c r="A275" s="28">
-        <v>811109</v>
+        <v>811107</v>
       </c>
       <c r="B275" s="5">
         <v>6</v>
       </c>
       <c r="C275" s="5">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D275" s="29">
         <v>0</v>
@@ -10095,13 +10095,13 @@
     </row>
     <row r="276" s="5" customFormat="1" spans="1:10">
       <c r="A276" s="28">
-        <v>811110</v>
+        <v>811108</v>
       </c>
       <c r="B276" s="5">
         <v>6</v>
       </c>
       <c r="C276" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D276" s="29">
         <v>0</v>
@@ -10127,13 +10127,13 @@
     </row>
     <row r="277" s="5" customFormat="1" spans="1:10">
       <c r="A277" s="28">
-        <v>811111</v>
+        <v>811109</v>
       </c>
       <c r="B277" s="5">
         <v>6</v>
       </c>
       <c r="C277" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D277" s="29">
         <v>0</v>
@@ -10159,13 +10159,13 @@
     </row>
     <row r="278" s="5" customFormat="1" spans="1:10">
       <c r="A278" s="28">
-        <v>811112</v>
+        <v>811110</v>
       </c>
       <c r="B278" s="5">
         <v>6</v>
       </c>
       <c r="C278" s="5">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D278" s="29">
         <v>0</v>
@@ -10191,13 +10191,13 @@
     </row>
     <row r="279" s="5" customFormat="1" spans="1:10">
       <c r="A279" s="28">
-        <v>811113</v>
+        <v>811111</v>
       </c>
       <c r="B279" s="5">
         <v>6</v>
       </c>
       <c r="C279" s="5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D279" s="29">
         <v>0</v>
@@ -10223,77 +10223,77 @@
     </row>
     <row r="280" s="5" customFormat="1" spans="1:10">
       <c r="A280" s="28">
+        <v>811112</v>
+      </c>
+      <c r="B280" s="5">
+        <v>6</v>
+      </c>
+      <c r="C280" s="5">
+        <v>108</v>
+      </c>
+      <c r="D280" s="29">
+        <v>0</v>
+      </c>
+      <c r="E280" s="29">
+        <v>0</v>
+      </c>
+      <c r="F280" s="29">
+        <v>0</v>
+      </c>
+      <c r="G280" s="29">
+        <v>0</v>
+      </c>
+      <c r="H280" s="29">
+        <v>0</v>
+      </c>
+      <c r="I280" s="29">
+        <v>0</v>
+      </c>
+      <c r="J280" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" s="5" customFormat="1" spans="1:10">
+      <c r="A281" s="28">
+        <v>811113</v>
+      </c>
+      <c r="B281" s="5">
+        <v>6</v>
+      </c>
+      <c r="C281" s="5">
+        <v>109</v>
+      </c>
+      <c r="D281" s="29">
+        <v>0</v>
+      </c>
+      <c r="E281" s="29">
+        <v>0</v>
+      </c>
+      <c r="F281" s="29">
+        <v>0</v>
+      </c>
+      <c r="G281" s="29">
+        <v>0</v>
+      </c>
+      <c r="H281" s="29">
+        <v>0</v>
+      </c>
+      <c r="I281" s="29">
+        <v>0</v>
+      </c>
+      <c r="J281" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" s="5" customFormat="1" spans="1:10">
+      <c r="A282" s="28">
         <v>811114</v>
       </c>
-      <c r="B280" s="5">
-        <v>6</v>
-      </c>
-      <c r="C280" s="5">
+      <c r="B282" s="5">
+        <v>6</v>
+      </c>
+      <c r="C282" s="5">
         <v>110</v>
-      </c>
-      <c r="D280" s="29">
-        <v>0</v>
-      </c>
-      <c r="E280" s="29">
-        <v>0</v>
-      </c>
-      <c r="F280" s="29">
-        <v>0</v>
-      </c>
-      <c r="G280" s="29">
-        <v>0</v>
-      </c>
-      <c r="H280" s="29">
-        <v>0</v>
-      </c>
-      <c r="I280" s="29">
-        <v>0</v>
-      </c>
-      <c r="J280" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="A281" s="28">
-        <v>820006</v>
-      </c>
-      <c r="B281" s="5">
-        <v>6</v>
-      </c>
-      <c r="C281" s="5">
-        <v>111</v>
-      </c>
-      <c r="D281" s="29">
-        <v>0</v>
-      </c>
-      <c r="E281" s="29">
-        <v>0</v>
-      </c>
-      <c r="F281" s="29">
-        <v>0</v>
-      </c>
-      <c r="G281" s="29">
-        <v>0</v>
-      </c>
-      <c r="H281" s="29">
-        <v>0</v>
-      </c>
-      <c r="I281" s="29">
-        <v>0</v>
-      </c>
-      <c r="J281" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="A282" s="28">
-        <v>820007</v>
-      </c>
-      <c r="B282" s="5">
-        <v>6</v>
-      </c>
-      <c r="C282" s="5">
-        <v>112</v>
       </c>
       <c r="D282" s="29">
         <v>0</v>
@@ -10319,13 +10319,13 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="28">
-        <v>820008</v>
+        <v>820006</v>
       </c>
       <c r="B283" s="5">
         <v>6</v>
       </c>
       <c r="C283" s="5">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D283" s="29">
         <v>0</v>
@@ -10351,13 +10351,13 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="28">
-        <v>820009</v>
+        <v>820007</v>
       </c>
       <c r="B284" s="5">
         <v>6</v>
       </c>
       <c r="C284" s="5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D284" s="29">
         <v>0</v>
@@ -10383,13 +10383,13 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="28">
-        <v>820010</v>
+        <v>820008</v>
       </c>
       <c r="B285" s="5">
         <v>6</v>
       </c>
       <c r="C285" s="5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D285" s="29">
         <v>0</v>
@@ -10415,13 +10415,13 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="28">
-        <v>820011</v>
+        <v>820009</v>
       </c>
       <c r="B286" s="5">
         <v>6</v>
       </c>
       <c r="C286" s="5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D286" s="29">
         <v>0</v>
@@ -10447,13 +10447,13 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="28">
-        <v>820012</v>
+        <v>820010</v>
       </c>
       <c r="B287" s="5">
         <v>6</v>
       </c>
       <c r="C287" s="5">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D287" s="29">
         <v>0</v>
@@ -10479,13 +10479,13 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="28">
-        <v>820013</v>
+        <v>820011</v>
       </c>
       <c r="B288" s="5">
         <v>6</v>
       </c>
       <c r="C288" s="5">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D288" s="29">
         <v>0</v>
@@ -10511,13 +10511,13 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="28">
-        <v>820014</v>
+        <v>820012</v>
       </c>
       <c r="B289" s="5">
         <v>6</v>
       </c>
       <c r="C289" s="5">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D289" s="29">
         <v>0</v>
@@ -10543,13 +10543,13 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="28">
-        <v>820015</v>
+        <v>820013</v>
       </c>
       <c r="B290" s="5">
         <v>6</v>
       </c>
       <c r="C290" s="5">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D290" s="29">
         <v>0</v>
@@ -10575,13 +10575,13 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="28">
-        <v>820016</v>
+        <v>820014</v>
       </c>
       <c r="B291" s="5">
         <v>6</v>
       </c>
       <c r="C291" s="5">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D291" s="29">
         <v>0</v>
@@ -10607,13 +10607,13 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="28">
-        <v>820017</v>
+        <v>820015</v>
       </c>
       <c r="B292" s="5">
         <v>6</v>
       </c>
       <c r="C292" s="5">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D292" s="29">
         <v>0</v>
@@ -10639,13 +10639,13 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" s="28">
-        <v>820018</v>
+        <v>820016</v>
       </c>
       <c r="B293" s="5">
         <v>6</v>
       </c>
       <c r="C293" s="5">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D293" s="29">
         <v>0</v>
@@ -10671,13 +10671,13 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="28">
-        <v>820019</v>
+        <v>820017</v>
       </c>
       <c r="B294" s="5">
         <v>6</v>
       </c>
       <c r="C294" s="5">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D294" s="29">
         <v>0</v>
@@ -10703,13 +10703,13 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" s="28">
-        <v>820020</v>
+        <v>820018</v>
       </c>
       <c r="B295" s="5">
         <v>6</v>
       </c>
       <c r="C295" s="5">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D295" s="29">
         <v>0</v>
@@ -10735,13 +10735,13 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="28">
-        <v>820021</v>
+        <v>820019</v>
       </c>
       <c r="B296" s="5">
         <v>6</v>
       </c>
       <c r="C296" s="5">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D296" s="29">
         <v>0</v>
@@ -10767,13 +10767,13 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" s="28">
-        <v>820022</v>
+        <v>820020</v>
       </c>
       <c r="B297" s="5">
         <v>6</v>
       </c>
       <c r="C297" s="5">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D297" s="29">
         <v>0</v>
@@ -10799,13 +10799,13 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="28">
-        <v>820023</v>
+        <v>820021</v>
       </c>
       <c r="B298" s="5">
         <v>6</v>
       </c>
       <c r="C298" s="5">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D298" s="29">
         <v>0</v>
@@ -10831,77 +10831,77 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="28">
+        <v>820022</v>
+      </c>
+      <c r="B299" s="5">
+        <v>6</v>
+      </c>
+      <c r="C299" s="5">
+        <v>127</v>
+      </c>
+      <c r="D299" s="29">
+        <v>0</v>
+      </c>
+      <c r="E299" s="29">
+        <v>0</v>
+      </c>
+      <c r="F299" s="29">
+        <v>0</v>
+      </c>
+      <c r="G299" s="29">
+        <v>0</v>
+      </c>
+      <c r="H299" s="29">
+        <v>0</v>
+      </c>
+      <c r="I299" s="29">
+        <v>0</v>
+      </c>
+      <c r="J299" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="A300" s="28">
+        <v>820023</v>
+      </c>
+      <c r="B300" s="5">
+        <v>6</v>
+      </c>
+      <c r="C300" s="5">
+        <v>128</v>
+      </c>
+      <c r="D300" s="29">
+        <v>0</v>
+      </c>
+      <c r="E300" s="29">
+        <v>0</v>
+      </c>
+      <c r="F300" s="29">
+        <v>0</v>
+      </c>
+      <c r="G300" s="29">
+        <v>0</v>
+      </c>
+      <c r="H300" s="29">
+        <v>0</v>
+      </c>
+      <c r="I300" s="29">
+        <v>0</v>
+      </c>
+      <c r="J300" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="A301" s="28">
         <v>820024</v>
       </c>
-      <c r="B299" s="5">
-        <v>6</v>
-      </c>
-      <c r="C299" s="5">
+      <c r="B301" s="5">
+        <v>6</v>
+      </c>
+      <c r="C301" s="5">
         <v>129</v>
-      </c>
-      <c r="D299" s="29">
-        <v>0</v>
-      </c>
-      <c r="E299" s="29">
-        <v>0</v>
-      </c>
-      <c r="F299" s="29">
-        <v>0</v>
-      </c>
-      <c r="G299" s="29">
-        <v>0</v>
-      </c>
-      <c r="H299" s="29">
-        <v>0</v>
-      </c>
-      <c r="I299" s="29">
-        <v>0</v>
-      </c>
-      <c r="J299" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
-      <c r="A300" s="30">
-        <v>830008</v>
-      </c>
-      <c r="B300" s="5">
-        <v>6</v>
-      </c>
-      <c r="C300" s="5">
-        <v>130</v>
-      </c>
-      <c r="D300" s="29">
-        <v>0</v>
-      </c>
-      <c r="E300" s="29">
-        <v>0</v>
-      </c>
-      <c r="F300" s="29">
-        <v>0</v>
-      </c>
-      <c r="G300" s="29">
-        <v>0</v>
-      </c>
-      <c r="H300" s="29">
-        <v>0</v>
-      </c>
-      <c r="I300" s="29">
-        <v>0</v>
-      </c>
-      <c r="J300" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
-      <c r="A301" s="30">
-        <v>830009</v>
-      </c>
-      <c r="B301" s="5">
-        <v>6</v>
-      </c>
-      <c r="C301" s="5">
-        <v>131</v>
       </c>
       <c r="D301" s="29">
         <v>0</v>
@@ -10927,13 +10927,13 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="30">
-        <v>830010</v>
+        <v>830008</v>
       </c>
       <c r="B302" s="5">
         <v>6</v>
       </c>
       <c r="C302" s="5">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D302" s="29">
         <v>0</v>
@@ -10959,13 +10959,13 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="30">
-        <v>830011</v>
+        <v>830009</v>
       </c>
       <c r="B303" s="5">
         <v>6</v>
       </c>
       <c r="C303" s="5">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D303" s="29">
         <v>0</v>
@@ -10991,13 +10991,13 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="30">
-        <v>830012</v>
+        <v>830010</v>
       </c>
       <c r="B304" s="5">
         <v>6</v>
       </c>
       <c r="C304" s="5">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D304" s="29">
         <v>0</v>
@@ -11023,13 +11023,13 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="30">
-        <v>830013</v>
+        <v>830011</v>
       </c>
       <c r="B305" s="5">
         <v>6</v>
       </c>
       <c r="C305" s="5">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D305" s="29">
         <v>0</v>
@@ -11055,13 +11055,13 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="30">
-        <v>830014</v>
+        <v>830012</v>
       </c>
       <c r="B306" s="5">
         <v>6</v>
       </c>
       <c r="C306" s="5">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D306" s="29">
         <v>0</v>
@@ -11087,13 +11087,13 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="30">
-        <v>830015</v>
+        <v>830013</v>
       </c>
       <c r="B307" s="5">
         <v>6</v>
       </c>
       <c r="C307" s="5">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D307" s="29">
         <v>0</v>
@@ -11119,13 +11119,13 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="30">
-        <v>830016</v>
+        <v>830014</v>
       </c>
       <c r="B308" s="5">
         <v>6</v>
       </c>
       <c r="C308" s="5">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D308" s="29">
         <v>0</v>
@@ -11151,13 +11151,13 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="30">
-        <v>830017</v>
+        <v>830015</v>
       </c>
       <c r="B309" s="5">
         <v>6</v>
       </c>
       <c r="C309" s="5">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D309" s="29">
         <v>0</v>
@@ -11183,13 +11183,13 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="30">
-        <v>830018</v>
+        <v>830016</v>
       </c>
       <c r="B310" s="5">
         <v>6</v>
       </c>
       <c r="C310" s="5">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D310" s="29">
         <v>0</v>
@@ -11215,13 +11215,13 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="30">
-        <v>830019</v>
+        <v>830017</v>
       </c>
       <c r="B311" s="5">
         <v>6</v>
       </c>
       <c r="C311" s="5">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D311" s="29">
         <v>0</v>
@@ -11247,13 +11247,13 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="30">
-        <v>830020</v>
+        <v>830018</v>
       </c>
       <c r="B312" s="5">
         <v>6</v>
       </c>
       <c r="C312" s="5">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D312" s="29">
         <v>0</v>
@@ -11279,13 +11279,13 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="30">
-        <v>830021</v>
+        <v>830019</v>
       </c>
       <c r="B313" s="5">
         <v>6</v>
       </c>
       <c r="C313" s="5">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D313" s="29">
         <v>0</v>
@@ -11311,13 +11311,13 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="30">
-        <v>830022</v>
+        <v>830020</v>
       </c>
       <c r="B314" s="5">
         <v>6</v>
       </c>
       <c r="C314" s="5">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D314" s="29">
         <v>0</v>
@@ -11343,13 +11343,13 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="30">
-        <v>830023</v>
+        <v>830021</v>
       </c>
       <c r="B315" s="5">
         <v>6</v>
       </c>
       <c r="C315" s="5">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D315" s="29">
         <v>0</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="30">
-        <v>830024</v>
+        <v>830022</v>
       </c>
       <c r="B316" s="5">
         <v>6</v>
       </c>
       <c r="C316" s="5">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D316" s="29">
         <v>0</v>
@@ -11407,13 +11407,13 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="30">
-        <v>830025</v>
+        <v>830023</v>
       </c>
       <c r="B317" s="5">
         <v>6</v>
       </c>
       <c r="C317" s="5">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D317" s="29">
         <v>0</v>
@@ -11439,13 +11439,13 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="30">
-        <v>830026</v>
+        <v>830024</v>
       </c>
       <c r="B318" s="5">
         <v>6</v>
       </c>
       <c r="C318" s="5">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D318" s="29">
         <v>0</v>
@@ -11471,13 +11471,13 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="30">
-        <v>830027</v>
+        <v>830025</v>
       </c>
       <c r="B319" s="5">
         <v>6</v>
       </c>
       <c r="C319" s="5">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D319" s="29">
         <v>0</v>
@@ -11503,13 +11503,13 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="30">
-        <v>830028</v>
+        <v>830026</v>
       </c>
       <c r="B320" s="5">
         <v>6</v>
       </c>
       <c r="C320" s="5">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D320" s="29">
         <v>0</v>
@@ -11535,13 +11535,13 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="30">
-        <v>830029</v>
+        <v>830027</v>
       </c>
       <c r="B321" s="5">
         <v>6</v>
       </c>
       <c r="C321" s="5">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D321" s="29">
         <v>0</v>
@@ -11567,13 +11567,13 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="30">
-        <v>830030</v>
+        <v>830028</v>
       </c>
       <c r="B322" s="5">
         <v>6</v>
       </c>
       <c r="C322" s="5">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D322" s="29">
         <v>0</v>
@@ -11599,103 +11599,103 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="30">
+        <v>830029</v>
+      </c>
+      <c r="B323" s="5">
+        <v>6</v>
+      </c>
+      <c r="C323" s="5">
+        <v>151</v>
+      </c>
+      <c r="D323" s="29">
+        <v>0</v>
+      </c>
+      <c r="E323" s="29">
+        <v>0</v>
+      </c>
+      <c r="F323" s="29">
+        <v>0</v>
+      </c>
+      <c r="G323" s="29">
+        <v>0</v>
+      </c>
+      <c r="H323" s="29">
+        <v>0</v>
+      </c>
+      <c r="I323" s="29">
+        <v>0</v>
+      </c>
+      <c r="J323" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="A324" s="30">
+        <v>830030</v>
+      </c>
+      <c r="B324" s="5">
+        <v>6</v>
+      </c>
+      <c r="C324" s="5">
+        <v>152</v>
+      </c>
+      <c r="D324" s="29">
+        <v>0</v>
+      </c>
+      <c r="E324" s="29">
+        <v>0</v>
+      </c>
+      <c r="F324" s="29">
+        <v>0</v>
+      </c>
+      <c r="G324" s="29">
+        <v>0</v>
+      </c>
+      <c r="H324" s="29">
+        <v>0</v>
+      </c>
+      <c r="I324" s="29">
+        <v>0</v>
+      </c>
+      <c r="J324" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="A325" s="30">
         <v>830031</v>
       </c>
-      <c r="B323" s="5">
-        <v>6</v>
-      </c>
-      <c r="C323" s="5">
+      <c r="B325" s="5">
+        <v>6</v>
+      </c>
+      <c r="C325" s="5">
         <v>153</v>
       </c>
-      <c r="D323" s="29">
-        <v>0</v>
-      </c>
-      <c r="E323" s="29">
-        <v>0</v>
-      </c>
-      <c r="F323" s="29">
-        <v>0</v>
-      </c>
-      <c r="G323" s="29">
-        <v>0</v>
-      </c>
-      <c r="H323" s="29">
-        <v>0</v>
-      </c>
-      <c r="I323" s="29">
-        <v>0</v>
-      </c>
-      <c r="J323" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" s="1" customFormat="1" spans="1:10">
-      <c r="A324" s="11">
-        <v>999221</v>
-      </c>
-      <c r="B324" s="1">
-        <v>2</v>
-      </c>
-      <c r="C324" s="1">
-        <v>1070000</v>
-      </c>
-      <c r="D324" s="1">
-        <v>0</v>
-      </c>
-      <c r="E324" s="1">
-        <v>0</v>
-      </c>
-      <c r="F324" s="1">
-        <v>0</v>
-      </c>
-      <c r="G324" s="1">
-        <v>0</v>
-      </c>
-      <c r="H324" s="1">
-        <v>0</v>
-      </c>
-      <c r="I324" s="1">
-        <v>0</v>
-      </c>
-      <c r="J324" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" s="1" customFormat="1" spans="1:10">
-      <c r="A325" s="11">
-        <v>999222</v>
-      </c>
-      <c r="B325" s="1">
-        <v>2</v>
-      </c>
-      <c r="C325" s="1">
-        <v>1070000</v>
-      </c>
-      <c r="D325" s="1">
-        <v>0</v>
-      </c>
-      <c r="E325" s="1">
-        <v>0</v>
-      </c>
-      <c r="F325" s="1">
-        <v>0</v>
-      </c>
-      <c r="G325" s="1">
-        <v>0</v>
-      </c>
-      <c r="H325" s="1">
-        <v>0</v>
-      </c>
-      <c r="I325" s="1">
-        <v>0</v>
-      </c>
-      <c r="J325" s="1">
+      <c r="D325" s="29">
+        <v>0</v>
+      </c>
+      <c r="E325" s="29">
+        <v>0</v>
+      </c>
+      <c r="F325" s="29">
+        <v>0</v>
+      </c>
+      <c r="G325" s="29">
+        <v>0</v>
+      </c>
+      <c r="H325" s="29">
+        <v>0</v>
+      </c>
+      <c r="I325" s="29">
+        <v>0</v>
+      </c>
+      <c r="J325" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="326" s="1" customFormat="1" spans="1:10">
       <c r="A326" s="11">
-        <v>999223</v>
+        <v>999221</v>
       </c>
       <c r="B326" s="1">
         <v>2</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="327" s="1" customFormat="1" spans="1:10">
       <c r="A327" s="11">
-        <v>999250</v>
+        <v>999222</v>
       </c>
       <c r="B327" s="1">
         <v>2</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="328" s="1" customFormat="1" spans="1:10">
       <c r="A328" s="11">
-        <v>999251</v>
+        <v>999223</v>
       </c>
       <c r="B328" s="1">
         <v>2</v>
@@ -11791,7 +11791,7 @@
     </row>
     <row r="329" s="1" customFormat="1" spans="1:10">
       <c r="A329" s="11">
-        <v>999252</v>
+        <v>999250</v>
       </c>
       <c r="B329" s="1">
         <v>2</v>
@@ -11821,15 +11821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
-      <c r="A330">
-        <v>840008</v>
-      </c>
-      <c r="B330">
-        <v>6</v>
-      </c>
-      <c r="C330">
-        <v>154</v>
+    <row r="330" s="1" customFormat="1" spans="1:10">
+      <c r="A330" s="11">
+        <v>999251</v>
+      </c>
+      <c r="B330" s="1">
+        <v>2</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1070000</v>
       </c>
       <c r="D330" s="1">
         <v>0</v>
@@ -11853,15 +11853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
-      <c r="A331">
-        <v>840009</v>
-      </c>
-      <c r="B331">
-        <v>6</v>
-      </c>
-      <c r="C331">
-        <v>155</v>
+    <row r="331" s="1" customFormat="1" spans="1:10">
+      <c r="A331" s="11">
+        <v>999252</v>
+      </c>
+      <c r="B331" s="1">
+        <v>2</v>
+      </c>
+      <c r="C331" s="1">
+        <v>1070000</v>
       </c>
       <c r="D331" s="1">
         <v>0</v>
@@ -11887,13 +11887,13 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332">
-        <v>840010</v>
+        <v>840008</v>
       </c>
       <c r="B332">
         <v>6</v>
       </c>
       <c r="C332">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D332" s="1">
         <v>0</v>
@@ -11919,13 +11919,13 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333">
-        <v>840011</v>
+        <v>840009</v>
       </c>
       <c r="B333">
         <v>6</v>
       </c>
       <c r="C333">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D333" s="1">
         <v>0</v>
@@ -11951,13 +11951,13 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334">
-        <v>840012</v>
+        <v>840010</v>
       </c>
       <c r="B334">
         <v>6</v>
       </c>
       <c r="C334">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D334" s="1">
         <v>0</v>
@@ -11983,13 +11983,13 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335">
-        <v>840013</v>
+        <v>840011</v>
       </c>
       <c r="B335">
         <v>6</v>
       </c>
       <c r="C335">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D335" s="1">
         <v>0</v>
@@ -12015,13 +12015,13 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336">
-        <v>840014</v>
+        <v>840012</v>
       </c>
       <c r="B336">
         <v>6</v>
       </c>
       <c r="C336">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D336" s="1">
         <v>0</v>
@@ -12047,13 +12047,13 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337">
-        <v>840015</v>
+        <v>840013</v>
       </c>
       <c r="B337">
         <v>6</v>
       </c>
       <c r="C337">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D337" s="1">
         <v>0</v>
@@ -12079,13 +12079,13 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338">
-        <v>840016</v>
+        <v>840014</v>
       </c>
       <c r="B338">
         <v>6</v>
       </c>
       <c r="C338">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D338" s="1">
         <v>0</v>
@@ -12111,13 +12111,13 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339">
-        <v>840017</v>
+        <v>840015</v>
       </c>
       <c r="B339">
         <v>6</v>
       </c>
       <c r="C339">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D339" s="1">
         <v>0</v>
@@ -12143,13 +12143,13 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340">
-        <v>840018</v>
+        <v>840016</v>
       </c>
       <c r="B340">
         <v>6</v>
       </c>
       <c r="C340">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D340" s="1">
         <v>0</v>
@@ -12175,13 +12175,13 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341">
-        <v>840019</v>
+        <v>840017</v>
       </c>
       <c r="B341">
         <v>6</v>
       </c>
       <c r="C341">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D341" s="1">
         <v>0</v>
@@ -12207,13 +12207,13 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342">
-        <v>840020</v>
+        <v>840018</v>
       </c>
       <c r="B342">
         <v>6</v>
       </c>
       <c r="C342">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D342" s="1">
         <v>0</v>
@@ -12239,13 +12239,13 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343">
-        <v>840021</v>
+        <v>840019</v>
       </c>
       <c r="B343">
         <v>6</v>
       </c>
       <c r="C343">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D343" s="1">
         <v>0</v>
@@ -12271,13 +12271,13 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344">
-        <v>840022</v>
+        <v>840020</v>
       </c>
       <c r="B344">
         <v>6</v>
       </c>
       <c r="C344">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D344" s="1">
         <v>0</v>
@@ -12303,13 +12303,13 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345">
-        <v>840023</v>
+        <v>840021</v>
       </c>
       <c r="B345">
         <v>6</v>
       </c>
       <c r="C345">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D345" s="1">
         <v>0</v>
@@ -12335,13 +12335,13 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346">
-        <v>840024</v>
+        <v>840022</v>
       </c>
       <c r="B346">
         <v>6</v>
       </c>
       <c r="C346">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D346" s="1">
         <v>0</v>
@@ -12367,13 +12367,13 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347">
-        <v>840025</v>
+        <v>840023</v>
       </c>
       <c r="B347">
         <v>6</v>
       </c>
       <c r="C347">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D347" s="1">
         <v>0</v>
@@ -12399,13 +12399,13 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348">
-        <v>840026</v>
+        <v>840024</v>
       </c>
       <c r="B348">
         <v>6</v>
       </c>
       <c r="C348">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D348" s="1">
         <v>0</v>
@@ -12431,13 +12431,13 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349">
-        <v>840027</v>
+        <v>840025</v>
       </c>
       <c r="B349">
         <v>6</v>
       </c>
       <c r="C349">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D349" s="1">
         <v>0</v>
@@ -12463,13 +12463,13 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350">
-        <v>840028</v>
+        <v>840026</v>
       </c>
       <c r="B350">
         <v>6</v>
       </c>
       <c r="C350">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D350" s="1">
         <v>0</v>
@@ -12495,13 +12495,13 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351">
-        <v>840029</v>
+        <v>840027</v>
       </c>
       <c r="B351">
         <v>6</v>
       </c>
       <c r="C351">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D351" s="1">
         <v>0</v>
@@ -12527,13 +12527,13 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352">
-        <v>840030</v>
+        <v>840028</v>
       </c>
       <c r="B352">
         <v>6</v>
       </c>
       <c r="C352">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D352" s="1">
         <v>0</v>
@@ -12559,77 +12559,77 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353">
+        <v>840029</v>
+      </c>
+      <c r="B353">
+        <v>6</v>
+      </c>
+      <c r="C353">
+        <v>175</v>
+      </c>
+      <c r="D353" s="1">
+        <v>0</v>
+      </c>
+      <c r="E353" s="1">
+        <v>0</v>
+      </c>
+      <c r="F353" s="1">
+        <v>0</v>
+      </c>
+      <c r="G353" s="1">
+        <v>0</v>
+      </c>
+      <c r="H353" s="1">
+        <v>0</v>
+      </c>
+      <c r="I353" s="1">
+        <v>0</v>
+      </c>
+      <c r="J353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10">
+      <c r="A354">
+        <v>840030</v>
+      </c>
+      <c r="B354">
+        <v>6</v>
+      </c>
+      <c r="C354">
+        <v>176</v>
+      </c>
+      <c r="D354" s="1">
+        <v>0</v>
+      </c>
+      <c r="E354" s="1">
+        <v>0</v>
+      </c>
+      <c r="F354" s="1">
+        <v>0</v>
+      </c>
+      <c r="G354" s="1">
+        <v>0</v>
+      </c>
+      <c r="H354" s="1">
+        <v>0</v>
+      </c>
+      <c r="I354" s="1">
+        <v>0</v>
+      </c>
+      <c r="J354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10">
+      <c r="A355">
         <v>840031</v>
       </c>
-      <c r="B353">
-        <v>6</v>
-      </c>
-      <c r="C353">
+      <c r="B355">
+        <v>6</v>
+      </c>
+      <c r="C355">
         <v>177</v>
-      </c>
-      <c r="D353" s="1">
-        <v>0</v>
-      </c>
-      <c r="E353" s="1">
-        <v>0</v>
-      </c>
-      <c r="F353" s="1">
-        <v>0</v>
-      </c>
-      <c r="G353" s="1">
-        <v>0</v>
-      </c>
-      <c r="H353" s="1">
-        <v>0</v>
-      </c>
-      <c r="I353" s="1">
-        <v>0</v>
-      </c>
-      <c r="J353" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10">
-      <c r="A354" s="31">
-        <v>850004</v>
-      </c>
-      <c r="B354">
-        <v>6</v>
-      </c>
-      <c r="C354">
-        <v>178</v>
-      </c>
-      <c r="D354" s="1">
-        <v>0</v>
-      </c>
-      <c r="E354" s="1">
-        <v>0</v>
-      </c>
-      <c r="F354" s="1">
-        <v>0</v>
-      </c>
-      <c r="G354" s="1">
-        <v>0</v>
-      </c>
-      <c r="H354" s="1">
-        <v>0</v>
-      </c>
-      <c r="I354" s="1">
-        <v>0</v>
-      </c>
-      <c r="J354" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10">
-      <c r="A355" s="31">
-        <v>850005</v>
-      </c>
-      <c r="B355">
-        <v>6</v>
-      </c>
-      <c r="C355">
-        <v>179</v>
       </c>
       <c r="D355" s="1">
         <v>0</v>
@@ -12655,13 +12655,13 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" s="31">
-        <v>850006</v>
+        <v>850004</v>
       </c>
       <c r="B356">
         <v>6</v>
       </c>
       <c r="C356">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D356" s="1">
         <v>0</v>
@@ -12687,13 +12687,13 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" s="31">
-        <v>850007</v>
+        <v>850005</v>
       </c>
       <c r="B357">
         <v>6</v>
       </c>
       <c r="C357">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D357" s="1">
         <v>0</v>
@@ -12719,13 +12719,13 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" s="31">
-        <v>850008</v>
+        <v>850006</v>
       </c>
       <c r="B358">
         <v>6</v>
       </c>
       <c r="C358">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D358" s="1">
         <v>0</v>
@@ -12751,13 +12751,13 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359" s="31">
-        <v>850009</v>
+        <v>850007</v>
       </c>
       <c r="B359">
         <v>6</v>
       </c>
       <c r="C359">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D359" s="1">
         <v>0</v>
@@ -12783,13 +12783,13 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" s="31">
-        <v>850010</v>
+        <v>850008</v>
       </c>
       <c r="B360">
         <v>6</v>
       </c>
       <c r="C360">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D360" s="1">
         <v>0</v>
@@ -12815,77 +12815,77 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" s="31">
+        <v>850009</v>
+      </c>
+      <c r="B361">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>183</v>
+      </c>
+      <c r="D361" s="1">
+        <v>0</v>
+      </c>
+      <c r="E361" s="1">
+        <v>0</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0</v>
+      </c>
+      <c r="G361" s="1">
+        <v>0</v>
+      </c>
+      <c r="H361" s="1">
+        <v>0</v>
+      </c>
+      <c r="I361" s="1">
+        <v>0</v>
+      </c>
+      <c r="J361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="A362" s="31">
+        <v>850010</v>
+      </c>
+      <c r="B362">
+        <v>6</v>
+      </c>
+      <c r="C362">
+        <v>184</v>
+      </c>
+      <c r="D362" s="1">
+        <v>0</v>
+      </c>
+      <c r="E362" s="1">
+        <v>0</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+      <c r="G362" s="1">
+        <v>0</v>
+      </c>
+      <c r="H362" s="1">
+        <v>0</v>
+      </c>
+      <c r="I362" s="1">
+        <v>0</v>
+      </c>
+      <c r="J362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
+      <c r="A363" s="31">
         <v>850011</v>
       </c>
-      <c r="B361">
-        <v>6</v>
-      </c>
-      <c r="C361">
+      <c r="B363">
+        <v>6</v>
+      </c>
+      <c r="C363">
         <v>185</v>
-      </c>
-      <c r="D361" s="1">
-        <v>0</v>
-      </c>
-      <c r="E361" s="1">
-        <v>0</v>
-      </c>
-      <c r="F361" s="1">
-        <v>0</v>
-      </c>
-      <c r="G361" s="1">
-        <v>0</v>
-      </c>
-      <c r="H361" s="1">
-        <v>0</v>
-      </c>
-      <c r="I361" s="1">
-        <v>0</v>
-      </c>
-      <c r="J361" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10">
-      <c r="A362" s="32">
-        <v>850013</v>
-      </c>
-      <c r="B362">
-        <v>6</v>
-      </c>
-      <c r="C362" s="33">
-        <v>186</v>
-      </c>
-      <c r="D362" s="1">
-        <v>0</v>
-      </c>
-      <c r="E362" s="1">
-        <v>0</v>
-      </c>
-      <c r="F362" s="1">
-        <v>0</v>
-      </c>
-      <c r="G362" s="1">
-        <v>0</v>
-      </c>
-      <c r="H362" s="1">
-        <v>0</v>
-      </c>
-      <c r="I362" s="1">
-        <v>0</v>
-      </c>
-      <c r="J362" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10">
-      <c r="A363" s="32">
-        <v>850015</v>
-      </c>
-      <c r="B363">
-        <v>6</v>
-      </c>
-      <c r="C363" s="33">
-        <v>187</v>
       </c>
       <c r="D363" s="1">
         <v>0</v>
@@ -12911,13 +12911,13 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" s="32">
-        <v>850016</v>
+        <v>850013</v>
       </c>
       <c r="B364">
         <v>6</v>
       </c>
       <c r="C364" s="33">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D364" s="1">
         <v>0</v>
@@ -12943,13 +12943,13 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" s="32">
-        <v>850017</v>
+        <v>850015</v>
       </c>
       <c r="B365">
         <v>6</v>
       </c>
       <c r="C365" s="33">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D365" s="1">
         <v>0</v>
@@ -12975,77 +12975,77 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" s="32">
+        <v>850016</v>
+      </c>
+      <c r="B366">
+        <v>6</v>
+      </c>
+      <c r="C366" s="33">
+        <v>188</v>
+      </c>
+      <c r="D366" s="1">
+        <v>0</v>
+      </c>
+      <c r="E366" s="1">
+        <v>0</v>
+      </c>
+      <c r="F366" s="1">
+        <v>0</v>
+      </c>
+      <c r="G366" s="1">
+        <v>0</v>
+      </c>
+      <c r="H366" s="1">
+        <v>0</v>
+      </c>
+      <c r="I366" s="1">
+        <v>0</v>
+      </c>
+      <c r="J366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="A367" s="32">
+        <v>850017</v>
+      </c>
+      <c r="B367">
+        <v>6</v>
+      </c>
+      <c r="C367" s="33">
+        <v>189</v>
+      </c>
+      <c r="D367" s="1">
+        <v>0</v>
+      </c>
+      <c r="E367" s="1">
+        <v>0</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+      <c r="G367" s="1">
+        <v>0</v>
+      </c>
+      <c r="H367" s="1">
+        <v>0</v>
+      </c>
+      <c r="I367" s="1">
+        <v>0</v>
+      </c>
+      <c r="J367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
+      <c r="A368" s="32">
         <v>850018</v>
       </c>
-      <c r="B366">
-        <v>6</v>
-      </c>
-      <c r="C366" s="33">
+      <c r="B368">
+        <v>6</v>
+      </c>
+      <c r="C368" s="33">
         <v>190</v>
-      </c>
-      <c r="D366" s="1">
-        <v>0</v>
-      </c>
-      <c r="E366" s="1">
-        <v>0</v>
-      </c>
-      <c r="F366" s="1">
-        <v>0</v>
-      </c>
-      <c r="G366" s="1">
-        <v>0</v>
-      </c>
-      <c r="H366" s="1">
-        <v>0</v>
-      </c>
-      <c r="I366" s="1">
-        <v>0</v>
-      </c>
-      <c r="J366" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10">
-      <c r="A367" s="31">
-        <v>850025</v>
-      </c>
-      <c r="B367">
-        <v>6</v>
-      </c>
-      <c r="C367" s="33">
-        <v>191</v>
-      </c>
-      <c r="D367" s="1">
-        <v>0</v>
-      </c>
-      <c r="E367" s="1">
-        <v>0</v>
-      </c>
-      <c r="F367" s="1">
-        <v>0</v>
-      </c>
-      <c r="G367" s="1">
-        <v>0</v>
-      </c>
-      <c r="H367" s="1">
-        <v>0</v>
-      </c>
-      <c r="I367" s="1">
-        <v>0</v>
-      </c>
-      <c r="J367" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10">
-      <c r="A368" s="31">
-        <v>850026</v>
-      </c>
-      <c r="B368">
-        <v>6</v>
-      </c>
-      <c r="C368" s="33">
-        <v>192</v>
       </c>
       <c r="D368" s="1">
         <v>0</v>
@@ -13071,13 +13071,13 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" s="31">
-        <v>850027</v>
+        <v>850025</v>
       </c>
       <c r="B369">
         <v>6</v>
       </c>
       <c r="C369" s="33">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D369" s="1">
         <v>0</v>
@@ -13103,13 +13103,13 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370" s="31">
-        <v>850028</v>
+        <v>850026</v>
       </c>
       <c r="B370">
         <v>6</v>
       </c>
       <c r="C370" s="33">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D370" s="1">
         <v>0</v>
@@ -13135,13 +13135,13 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" s="31">
-        <v>850029</v>
+        <v>850027</v>
       </c>
       <c r="B371">
         <v>6</v>
       </c>
       <c r="C371" s="33">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D371" s="1">
         <v>0</v>
@@ -13167,13 +13167,13 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372" s="31">
-        <v>850030</v>
+        <v>850028</v>
       </c>
       <c r="B372">
         <v>6</v>
       </c>
       <c r="C372" s="33">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D372" s="1">
         <v>0</v>
@@ -13199,13 +13199,13 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373" s="31">
-        <v>850031</v>
+        <v>850029</v>
       </c>
       <c r="B373">
         <v>6</v>
       </c>
       <c r="C373" s="33">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D373" s="1">
         <v>0</v>
@@ -13231,13 +13231,13 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" s="31">
-        <v>850032</v>
+        <v>850030</v>
       </c>
       <c r="B374">
         <v>6</v>
       </c>
       <c r="C374" s="33">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D374" s="1">
         <v>0</v>
@@ -13263,13 +13263,13 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" s="31">
-        <v>850033</v>
+        <v>850031</v>
       </c>
       <c r="B375">
         <v>6</v>
       </c>
       <c r="C375" s="33">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D375" s="1">
         <v>0</v>
@@ -13295,13 +13295,13 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" s="31">
-        <v>850034</v>
+        <v>850032</v>
       </c>
       <c r="B376">
         <v>6</v>
       </c>
       <c r="C376" s="33">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D376" s="1">
         <v>0</v>
@@ -13327,13 +13327,13 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="31">
-        <v>850035</v>
+        <v>850033</v>
       </c>
       <c r="B377">
         <v>6</v>
       </c>
       <c r="C377" s="33">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D377" s="1">
         <v>0</v>
@@ -13359,13 +13359,13 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" s="31">
-        <v>850036</v>
+        <v>850034</v>
       </c>
       <c r="B378">
         <v>6</v>
       </c>
       <c r="C378" s="33">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D378" s="1">
         <v>0</v>
@@ -13391,13 +13391,13 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379" s="31">
-        <v>850037</v>
+        <v>850035</v>
       </c>
       <c r="B379">
         <v>6</v>
       </c>
       <c r="C379" s="33">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D379" s="1">
         <v>0</v>
@@ -13423,13 +13423,13 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380" s="31">
-        <v>850038</v>
+        <v>850036</v>
       </c>
       <c r="B380">
         <v>6</v>
       </c>
       <c r="C380" s="33">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D380" s="1">
         <v>0</v>
@@ -13455,13 +13455,13 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" s="31">
-        <v>850039</v>
+        <v>850037</v>
       </c>
       <c r="B381">
         <v>6</v>
       </c>
       <c r="C381" s="33">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D381" s="1">
         <v>0</v>
@@ -13487,13 +13487,13 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382" s="31">
-        <v>850040</v>
+        <v>850038</v>
       </c>
       <c r="B382">
         <v>6</v>
       </c>
       <c r="C382" s="33">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D382" s="1">
         <v>0</v>
@@ -13519,13 +13519,13 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383" s="31">
-        <v>850041</v>
+        <v>850039</v>
       </c>
       <c r="B383">
         <v>6</v>
       </c>
       <c r="C383" s="33">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D383" s="1">
         <v>0</v>
@@ -13551,13 +13551,13 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384" s="31">
-        <v>850042</v>
+        <v>850040</v>
       </c>
       <c r="B384">
         <v>6</v>
       </c>
       <c r="C384" s="33">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D384" s="1">
         <v>0</v>
@@ -13583,13 +13583,13 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385" s="31">
-        <v>850043</v>
+        <v>850041</v>
       </c>
       <c r="B385">
         <v>6</v>
       </c>
       <c r="C385" s="33">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D385" s="1">
         <v>0</v>
@@ -13615,109 +13615,109 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386" s="31">
+        <v>850042</v>
+      </c>
+      <c r="B386">
+        <v>6</v>
+      </c>
+      <c r="C386" s="33">
+        <v>208</v>
+      </c>
+      <c r="D386" s="1">
+        <v>0</v>
+      </c>
+      <c r="E386" s="1">
+        <v>0</v>
+      </c>
+      <c r="F386" s="1">
+        <v>0</v>
+      </c>
+      <c r="G386" s="1">
+        <v>0</v>
+      </c>
+      <c r="H386" s="1">
+        <v>0</v>
+      </c>
+      <c r="I386" s="1">
+        <v>0</v>
+      </c>
+      <c r="J386" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
+      <c r="A387" s="31">
+        <v>850043</v>
+      </c>
+      <c r="B387">
+        <v>6</v>
+      </c>
+      <c r="C387" s="33">
+        <v>209</v>
+      </c>
+      <c r="D387" s="1">
+        <v>0</v>
+      </c>
+      <c r="E387" s="1">
+        <v>0</v>
+      </c>
+      <c r="F387" s="1">
+        <v>0</v>
+      </c>
+      <c r="G387" s="1">
+        <v>0</v>
+      </c>
+      <c r="H387" s="1">
+        <v>0</v>
+      </c>
+      <c r="I387" s="1">
+        <v>0</v>
+      </c>
+      <c r="J387" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388" s="31">
         <v>850044</v>
       </c>
-      <c r="B386">
-        <v>6</v>
-      </c>
-      <c r="C386" s="33">
+      <c r="B388">
+        <v>6</v>
+      </c>
+      <c r="C388" s="33">
         <v>210</v>
       </c>
-      <c r="D386" s="1">
-        <v>0</v>
-      </c>
-      <c r="E386" s="1">
-        <v>0</v>
-      </c>
-      <c r="F386" s="1">
-        <v>0</v>
-      </c>
-      <c r="G386" s="1">
-        <v>0</v>
-      </c>
-      <c r="H386" s="1">
-        <v>0</v>
-      </c>
-      <c r="I386" s="1">
-        <v>0</v>
-      </c>
-      <c r="J386" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" s="3" customFormat="1" spans="1:10">
-      <c r="A387" s="31">
-        <v>850051</v>
-      </c>
-      <c r="B387" s="3">
-        <v>6</v>
-      </c>
-      <c r="C387" s="34">
-        <v>211</v>
-      </c>
-      <c r="D387" s="20">
-        <v>0</v>
-      </c>
-      <c r="E387" s="20">
-        <v>0</v>
-      </c>
-      <c r="F387" s="20">
-        <v>0</v>
-      </c>
-      <c r="G387" s="20">
-        <v>0</v>
-      </c>
-      <c r="H387" s="20">
-        <v>0</v>
-      </c>
-      <c r="I387" s="20">
-        <v>0</v>
-      </c>
-      <c r="J387" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" s="3" customFormat="1" spans="1:10">
-      <c r="A388" s="31">
-        <v>850052</v>
-      </c>
-      <c r="B388" s="3">
-        <v>6</v>
-      </c>
-      <c r="C388" s="34">
-        <v>212</v>
-      </c>
-      <c r="D388" s="20">
-        <v>0</v>
-      </c>
-      <c r="E388" s="20">
-        <v>0</v>
-      </c>
-      <c r="F388" s="20">
-        <v>0</v>
-      </c>
-      <c r="G388" s="20">
-        <v>0</v>
-      </c>
-      <c r="H388" s="20">
-        <v>0</v>
-      </c>
-      <c r="I388" s="20">
-        <v>0</v>
-      </c>
-      <c r="J388" s="20">
+      <c r="D388" s="1">
+        <v>0</v>
+      </c>
+      <c r="E388" s="1">
+        <v>0</v>
+      </c>
+      <c r="F388" s="1">
+        <v>0</v>
+      </c>
+      <c r="G388" s="1">
+        <v>0</v>
+      </c>
+      <c r="H388" s="1">
+        <v>0</v>
+      </c>
+      <c r="I388" s="1">
+        <v>0</v>
+      </c>
+      <c r="J388" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="389" s="3" customFormat="1" spans="1:10">
       <c r="A389" s="31">
-        <v>850053</v>
+        <v>850051</v>
       </c>
       <c r="B389" s="3">
         <v>6</v>
       </c>
       <c r="C389" s="34">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D389" s="20">
         <v>0</v>
@@ -13743,13 +13743,13 @@
     </row>
     <row r="390" s="3" customFormat="1" spans="1:10">
       <c r="A390" s="31">
-        <v>850054</v>
+        <v>850052</v>
       </c>
       <c r="B390" s="3">
         <v>6</v>
       </c>
       <c r="C390" s="34">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D390" s="20">
         <v>0</v>
@@ -13775,13 +13775,13 @@
     </row>
     <row r="391" s="3" customFormat="1" spans="1:10">
       <c r="A391" s="31">
-        <v>850055</v>
+        <v>850053</v>
       </c>
       <c r="B391" s="3">
         <v>6</v>
       </c>
       <c r="C391" s="34">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D391" s="20">
         <v>0</v>
@@ -13807,13 +13807,13 @@
     </row>
     <row r="392" s="3" customFormat="1" spans="1:10">
       <c r="A392" s="31">
-        <v>850056</v>
+        <v>850054</v>
       </c>
       <c r="B392" s="3">
         <v>6</v>
       </c>
       <c r="C392" s="34">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D392" s="20">
         <v>0</v>
@@ -13839,13 +13839,13 @@
     </row>
     <row r="393" s="3" customFormat="1" spans="1:10">
       <c r="A393" s="31">
-        <v>850057</v>
+        <v>850055</v>
       </c>
       <c r="B393" s="3">
         <v>6</v>
       </c>
       <c r="C393" s="34">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D393" s="20">
         <v>0</v>
@@ -13871,13 +13871,13 @@
     </row>
     <row r="394" s="3" customFormat="1" spans="1:10">
       <c r="A394" s="31">
-        <v>850058</v>
+        <v>850056</v>
       </c>
       <c r="B394" s="3">
         <v>6</v>
       </c>
       <c r="C394" s="34">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D394" s="20">
         <v>0</v>
@@ -13903,13 +13903,13 @@
     </row>
     <row r="395" s="3" customFormat="1" spans="1:10">
       <c r="A395" s="31">
-        <v>850059</v>
+        <v>850057</v>
       </c>
       <c r="B395" s="3">
         <v>6</v>
       </c>
       <c r="C395" s="34">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D395" s="20">
         <v>0</v>
@@ -13935,13 +13935,13 @@
     </row>
     <row r="396" s="3" customFormat="1" spans="1:10">
       <c r="A396" s="31">
-        <v>850060</v>
+        <v>850058</v>
       </c>
       <c r="B396" s="3">
         <v>6</v>
       </c>
       <c r="C396" s="34">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D396" s="20">
         <v>0</v>
@@ -13967,13 +13967,13 @@
     </row>
     <row r="397" s="3" customFormat="1" spans="1:10">
       <c r="A397" s="31">
-        <v>850061</v>
+        <v>850059</v>
       </c>
       <c r="B397" s="3">
         <v>6</v>
       </c>
       <c r="C397" s="34">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D397" s="20">
         <v>0</v>
@@ -13999,13 +13999,13 @@
     </row>
     <row r="398" s="3" customFormat="1" spans="1:10">
       <c r="A398" s="31">
-        <v>850062</v>
+        <v>850060</v>
       </c>
       <c r="B398" s="3">
         <v>6</v>
       </c>
       <c r="C398" s="34">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D398" s="20">
         <v>0</v>
@@ -14031,13 +14031,13 @@
     </row>
     <row r="399" s="3" customFormat="1" spans="1:10">
       <c r="A399" s="31">
-        <v>850063</v>
+        <v>850061</v>
       </c>
       <c r="B399" s="3">
         <v>6</v>
       </c>
       <c r="C399" s="34">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D399" s="20">
         <v>0</v>
@@ -14063,13 +14063,13 @@
     </row>
     <row r="400" s="3" customFormat="1" spans="1:10">
       <c r="A400" s="31">
-        <v>850064</v>
+        <v>850062</v>
       </c>
       <c r="B400" s="3">
         <v>6</v>
       </c>
       <c r="C400" s="34">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D400" s="20">
         <v>0</v>
@@ -14095,13 +14095,13 @@
     </row>
     <row r="401" s="3" customFormat="1" spans="1:10">
       <c r="A401" s="31">
-        <v>850065</v>
+        <v>850063</v>
       </c>
       <c r="B401" s="3">
         <v>6</v>
       </c>
       <c r="C401" s="34">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D401" s="20">
         <v>0</v>
@@ -14127,13 +14127,13 @@
     </row>
     <row r="402" s="3" customFormat="1" spans="1:10">
       <c r="A402" s="31">
-        <v>850066</v>
+        <v>850064</v>
       </c>
       <c r="B402" s="3">
         <v>6</v>
       </c>
       <c r="C402" s="34">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D402" s="20">
         <v>0</v>
@@ -14159,13 +14159,13 @@
     </row>
     <row r="403" s="3" customFormat="1" spans="1:10">
       <c r="A403" s="31">
-        <v>860051</v>
+        <v>850065</v>
       </c>
       <c r="B403" s="3">
         <v>6</v>
       </c>
       <c r="C403" s="34">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D403" s="20">
         <v>0</v>
@@ -14191,13 +14191,13 @@
     </row>
     <row r="404" s="3" customFormat="1" spans="1:10">
       <c r="A404" s="31">
-        <v>860052</v>
+        <v>850066</v>
       </c>
       <c r="B404" s="3">
         <v>6</v>
       </c>
       <c r="C404" s="34">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D404" s="20">
         <v>0</v>
@@ -14223,13 +14223,13 @@
     </row>
     <row r="405" s="3" customFormat="1" spans="1:10">
       <c r="A405" s="31">
-        <v>860053</v>
+        <v>860051</v>
       </c>
       <c r="B405" s="3">
         <v>6</v>
       </c>
       <c r="C405" s="34">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D405" s="20">
         <v>0</v>
@@ -14255,13 +14255,13 @@
     </row>
     <row r="406" s="3" customFormat="1" spans="1:10">
       <c r="A406" s="31">
-        <v>860054</v>
+        <v>860052</v>
       </c>
       <c r="B406" s="3">
         <v>6</v>
       </c>
       <c r="C406" s="34">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D406" s="20">
         <v>0</v>
@@ -14287,13 +14287,13 @@
     </row>
     <row r="407" s="3" customFormat="1" spans="1:10">
       <c r="A407" s="31">
-        <v>860055</v>
+        <v>860053</v>
       </c>
       <c r="B407" s="3">
         <v>6</v>
       </c>
       <c r="C407" s="34">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D407" s="20">
         <v>0</v>
@@ -14319,13 +14319,13 @@
     </row>
     <row r="408" s="3" customFormat="1" spans="1:10">
       <c r="A408" s="31">
-        <v>860056</v>
+        <v>860054</v>
       </c>
       <c r="B408" s="3">
         <v>6</v>
       </c>
       <c r="C408" s="34">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D408" s="20">
         <v>0</v>
@@ -14351,13 +14351,13 @@
     </row>
     <row r="409" s="3" customFormat="1" spans="1:10">
       <c r="A409" s="31">
-        <v>860057</v>
+        <v>860055</v>
       </c>
       <c r="B409" s="3">
         <v>6</v>
       </c>
       <c r="C409" s="34">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D409" s="20">
         <v>0</v>
@@ -14383,13 +14383,13 @@
     </row>
     <row r="410" s="3" customFormat="1" spans="1:10">
       <c r="A410" s="31">
-        <v>860058</v>
+        <v>860056</v>
       </c>
       <c r="B410" s="3">
         <v>6</v>
       </c>
       <c r="C410" s="34">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D410" s="20">
         <v>0</v>
@@ -14415,13 +14415,13 @@
     </row>
     <row r="411" s="3" customFormat="1" spans="1:10">
       <c r="A411" s="31">
-        <v>860059</v>
+        <v>860057</v>
       </c>
       <c r="B411" s="3">
         <v>6</v>
       </c>
       <c r="C411" s="34">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D411" s="20">
         <v>0</v>
@@ -14447,13 +14447,13 @@
     </row>
     <row r="412" s="3" customFormat="1" spans="1:10">
       <c r="A412" s="31">
-        <v>860060</v>
+        <v>860058</v>
       </c>
       <c r="B412" s="3">
         <v>6</v>
       </c>
       <c r="C412" s="34">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D412" s="20">
         <v>0</v>
@@ -14479,13 +14479,13 @@
     </row>
     <row r="413" s="3" customFormat="1" spans="1:10">
       <c r="A413" s="31">
-        <v>860061</v>
+        <v>860059</v>
       </c>
       <c r="B413" s="3">
         <v>6</v>
       </c>
       <c r="C413" s="34">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D413" s="20">
         <v>0</v>
@@ -14511,13 +14511,13 @@
     </row>
     <row r="414" s="3" customFormat="1" spans="1:10">
       <c r="A414" s="31">
-        <v>860062</v>
+        <v>860060</v>
       </c>
       <c r="B414" s="3">
         <v>6</v>
       </c>
       <c r="C414" s="34">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D414" s="20">
         <v>0</v>
@@ -14543,13 +14543,13 @@
     </row>
     <row r="415" s="3" customFormat="1" spans="1:10">
       <c r="A415" s="31">
-        <v>860063</v>
+        <v>860061</v>
       </c>
       <c r="B415" s="3">
         <v>6</v>
       </c>
       <c r="C415" s="34">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D415" s="20">
         <v>0</v>
@@ -14575,13 +14575,13 @@
     </row>
     <row r="416" s="3" customFormat="1" spans="1:10">
       <c r="A416" s="31">
-        <v>860064</v>
+        <v>860062</v>
       </c>
       <c r="B416" s="3">
         <v>6</v>
       </c>
       <c r="C416" s="34">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D416" s="20">
         <v>0</v>
@@ -14607,13 +14607,13 @@
     </row>
     <row r="417" s="3" customFormat="1" spans="1:10">
       <c r="A417" s="31">
-        <v>860065</v>
+        <v>860063</v>
       </c>
       <c r="B417" s="3">
         <v>6</v>
       </c>
       <c r="C417" s="34">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D417" s="20">
         <v>0</v>
@@ -14639,13 +14639,13 @@
     </row>
     <row r="418" s="3" customFormat="1" spans="1:10">
       <c r="A418" s="31">
-        <v>860066</v>
+        <v>860064</v>
       </c>
       <c r="B418" s="3">
         <v>6</v>
       </c>
       <c r="C418" s="34">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D418" s="20">
         <v>0</v>
@@ -14671,13 +14671,13 @@
     </row>
     <row r="419" s="3" customFormat="1" spans="1:10">
       <c r="A419" s="31">
-        <v>870051</v>
+        <v>860065</v>
       </c>
       <c r="B419" s="3">
         <v>6</v>
       </c>
       <c r="C419" s="34">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D419" s="20">
         <v>0</v>
@@ -14703,13 +14703,13 @@
     </row>
     <row r="420" s="3" customFormat="1" spans="1:10">
       <c r="A420" s="31">
-        <v>870052</v>
+        <v>860066</v>
       </c>
       <c r="B420" s="3">
         <v>6</v>
       </c>
       <c r="C420" s="34">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D420" s="20">
         <v>0</v>
@@ -14735,13 +14735,13 @@
     </row>
     <row r="421" s="3" customFormat="1" spans="1:10">
       <c r="A421" s="31">
-        <v>870053</v>
+        <v>870051</v>
       </c>
       <c r="B421" s="3">
         <v>6</v>
       </c>
       <c r="C421" s="34">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D421" s="20">
         <v>0</v>
@@ -14767,13 +14767,13 @@
     </row>
     <row r="422" s="3" customFormat="1" spans="1:10">
       <c r="A422" s="31">
-        <v>870054</v>
+        <v>870052</v>
       </c>
       <c r="B422" s="3">
         <v>6</v>
       </c>
       <c r="C422" s="34">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D422" s="20">
         <v>0</v>
@@ -14799,13 +14799,13 @@
     </row>
     <row r="423" s="3" customFormat="1" spans="1:10">
       <c r="A423" s="31">
-        <v>870055</v>
+        <v>870053</v>
       </c>
       <c r="B423" s="3">
         <v>6</v>
       </c>
       <c r="C423" s="34">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D423" s="20">
         <v>0</v>
@@ -14831,13 +14831,13 @@
     </row>
     <row r="424" s="3" customFormat="1" spans="1:10">
       <c r="A424" s="31">
-        <v>870056</v>
+        <v>870054</v>
       </c>
       <c r="B424" s="3">
         <v>6</v>
       </c>
       <c r="C424" s="34">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D424" s="20">
         <v>0</v>
@@ -14863,13 +14863,13 @@
     </row>
     <row r="425" s="3" customFormat="1" spans="1:10">
       <c r="A425" s="31">
-        <v>870057</v>
+        <v>870055</v>
       </c>
       <c r="B425" s="3">
         <v>6</v>
       </c>
       <c r="C425" s="34">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D425" s="20">
         <v>0</v>
@@ -14895,13 +14895,13 @@
     </row>
     <row r="426" s="3" customFormat="1" spans="1:10">
       <c r="A426" s="31">
-        <v>870058</v>
+        <v>870056</v>
       </c>
       <c r="B426" s="3">
         <v>6</v>
       </c>
       <c r="C426" s="34">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D426" s="20">
         <v>0</v>
@@ -14927,13 +14927,13 @@
     </row>
     <row r="427" s="3" customFormat="1" spans="1:10">
       <c r="A427" s="31">
-        <v>870059</v>
+        <v>870057</v>
       </c>
       <c r="B427" s="3">
         <v>6</v>
       </c>
       <c r="C427" s="34">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D427" s="20">
         <v>0</v>
@@ -14959,13 +14959,13 @@
     </row>
     <row r="428" s="3" customFormat="1" spans="1:10">
       <c r="A428" s="31">
-        <v>870060</v>
+        <v>870058</v>
       </c>
       <c r="B428" s="3">
         <v>6</v>
       </c>
       <c r="C428" s="34">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D428" s="20">
         <v>0</v>
@@ -14991,13 +14991,13 @@
     </row>
     <row r="429" s="3" customFormat="1" spans="1:10">
       <c r="A429" s="31">
-        <v>870061</v>
+        <v>870059</v>
       </c>
       <c r="B429" s="3">
         <v>6</v>
       </c>
       <c r="C429" s="34">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D429" s="20">
         <v>0</v>
@@ -15023,13 +15023,13 @@
     </row>
     <row r="430" s="3" customFormat="1" spans="1:10">
       <c r="A430" s="31">
-        <v>870062</v>
+        <v>870060</v>
       </c>
       <c r="B430" s="3">
         <v>6</v>
       </c>
       <c r="C430" s="34">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D430" s="20">
         <v>0</v>
@@ -15055,13 +15055,13 @@
     </row>
     <row r="431" s="3" customFormat="1" spans="1:10">
       <c r="A431" s="31">
-        <v>870063</v>
+        <v>870061</v>
       </c>
       <c r="B431" s="3">
         <v>6</v>
       </c>
       <c r="C431" s="34">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D431" s="20">
         <v>0</v>
@@ -15087,13 +15087,13 @@
     </row>
     <row r="432" s="3" customFormat="1" spans="1:10">
       <c r="A432" s="31">
-        <v>870064</v>
+        <v>870062</v>
       </c>
       <c r="B432" s="3">
         <v>6</v>
       </c>
       <c r="C432" s="34">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D432" s="20">
         <v>0</v>
@@ -15119,13 +15119,13 @@
     </row>
     <row r="433" s="3" customFormat="1" spans="1:10">
       <c r="A433" s="31">
-        <v>870065</v>
+        <v>870063</v>
       </c>
       <c r="B433" s="3">
         <v>6</v>
       </c>
       <c r="C433" s="34">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D433" s="20">
         <v>0</v>
@@ -15151,80 +15151,78 @@
     </row>
     <row r="434" s="3" customFormat="1" spans="1:10">
       <c r="A434" s="31">
+        <v>870064</v>
+      </c>
+      <c r="B434" s="3">
+        <v>6</v>
+      </c>
+      <c r="C434" s="34">
+        <v>256</v>
+      </c>
+      <c r="D434" s="20">
+        <v>0</v>
+      </c>
+      <c r="E434" s="20">
+        <v>0</v>
+      </c>
+      <c r="F434" s="20">
+        <v>0</v>
+      </c>
+      <c r="G434" s="20">
+        <v>0</v>
+      </c>
+      <c r="H434" s="20">
+        <v>0</v>
+      </c>
+      <c r="I434" s="20">
+        <v>0</v>
+      </c>
+      <c r="J434" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" s="3" customFormat="1" spans="1:10">
+      <c r="A435" s="31">
+        <v>870065</v>
+      </c>
+      <c r="B435" s="3">
+        <v>6</v>
+      </c>
+      <c r="C435" s="34">
+        <v>257</v>
+      </c>
+      <c r="D435" s="20">
+        <v>0</v>
+      </c>
+      <c r="E435" s="20">
+        <v>0</v>
+      </c>
+      <c r="F435" s="20">
+        <v>0</v>
+      </c>
+      <c r="G435" s="20">
+        <v>0</v>
+      </c>
+      <c r="H435" s="20">
+        <v>0</v>
+      </c>
+      <c r="I435" s="20">
+        <v>0</v>
+      </c>
+      <c r="J435" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" s="3" customFormat="1" spans="1:10">
+      <c r="A436" s="31">
         <v>870066</v>
       </c>
-      <c r="B434" s="3">
-        <v>6</v>
-      </c>
-      <c r="C434" s="34">
+      <c r="B436" s="3">
+        <v>6</v>
+      </c>
+      <c r="C436" s="34">
         <v>258</v>
       </c>
-      <c r="D434" s="20">
-        <v>0</v>
-      </c>
-      <c r="E434" s="20">
-        <v>0</v>
-      </c>
-      <c r="F434" s="20">
-        <v>0</v>
-      </c>
-      <c r="G434" s="20">
-        <v>0</v>
-      </c>
-      <c r="H434" s="20">
-        <v>0</v>
-      </c>
-      <c r="I434" s="20">
-        <v>0</v>
-      </c>
-      <c r="J434" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:12">
-      <c r="A435" s="31">
-        <v>880051</v>
-      </c>
-      <c r="B435" s="3">
-        <v>6</v>
-      </c>
-      <c r="C435" s="35">
-        <v>259</v>
-      </c>
-      <c r="D435" s="20">
-        <v>0</v>
-      </c>
-      <c r="E435" s="20">
-        <v>0</v>
-      </c>
-      <c r="F435" s="20">
-        <v>0</v>
-      </c>
-      <c r="G435" s="20">
-        <v>0</v>
-      </c>
-      <c r="H435" s="20">
-        <v>0</v>
-      </c>
-      <c r="I435" s="20">
-        <v>0</v>
-      </c>
-      <c r="J435" s="20">
-        <v>0</v>
-      </c>
-      <c r="K435" s="3"/>
-      <c r="L435" s="3"/>
-    </row>
-    <row r="436" spans="1:12">
-      <c r="A436" s="31">
-        <v>880052</v>
-      </c>
-      <c r="B436" s="3">
-        <v>6</v>
-      </c>
-      <c r="C436" s="35">
-        <v>260</v>
-      </c>
       <c r="D436" s="20">
         <v>0</v>
       </c>
@@ -15246,18 +15244,16 @@
       <c r="J436" s="20">
         <v>0</v>
       </c>
-      <c r="K436" s="3"/>
-      <c r="L436" s="3"/>
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="31">
-        <v>880053</v>
+        <v>880051</v>
       </c>
       <c r="B437" s="3">
         <v>6</v>
       </c>
       <c r="C437" s="35">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D437" s="20">
         <v>0</v>
@@ -15285,13 +15281,13 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="31">
-        <v>880054</v>
+        <v>880052</v>
       </c>
       <c r="B438" s="3">
         <v>6</v>
       </c>
       <c r="C438" s="35">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D438" s="20">
         <v>0</v>
@@ -15319,13 +15315,13 @@
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="31">
-        <v>880055</v>
+        <v>880053</v>
       </c>
       <c r="B439" s="3">
         <v>6</v>
       </c>
       <c r="C439" s="35">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D439" s="20">
         <v>0</v>
@@ -15353,13 +15349,13 @@
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="31">
-        <v>880056</v>
+        <v>880054</v>
       </c>
       <c r="B440" s="3">
         <v>6</v>
       </c>
       <c r="C440" s="35">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D440" s="20">
         <v>0</v>
@@ -15387,13 +15383,13 @@
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="31">
-        <v>880057</v>
+        <v>880055</v>
       </c>
       <c r="B441" s="3">
         <v>6</v>
       </c>
       <c r="C441" s="35">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D441" s="20">
         <v>0</v>
@@ -15421,13 +15417,13 @@
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="31">
-        <v>880058</v>
+        <v>880056</v>
       </c>
       <c r="B442" s="3">
         <v>6</v>
       </c>
       <c r="C442" s="35">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D442" s="20">
         <v>0</v>
@@ -15455,13 +15451,13 @@
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="31">
-        <v>880059</v>
+        <v>880057</v>
       </c>
       <c r="B443" s="3">
         <v>6</v>
       </c>
       <c r="C443" s="35">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D443" s="20">
         <v>0</v>
@@ -15489,13 +15485,13 @@
     </row>
     <row r="444" spans="1:12">
       <c r="A444" s="31">
-        <v>880060</v>
+        <v>880058</v>
       </c>
       <c r="B444" s="3">
         <v>6</v>
       </c>
       <c r="C444" s="35">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D444" s="20">
         <v>0</v>
@@ -15523,13 +15519,13 @@
     </row>
     <row r="445" spans="1:12">
       <c r="A445" s="31">
-        <v>880061</v>
+        <v>880059</v>
       </c>
       <c r="B445" s="3">
         <v>6</v>
       </c>
       <c r="C445" s="35">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D445" s="20">
         <v>0</v>
@@ -15557,13 +15553,13 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="31">
-        <v>880062</v>
+        <v>880060</v>
       </c>
       <c r="B446" s="3">
         <v>6</v>
       </c>
       <c r="C446" s="35">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D446" s="20">
         <v>0</v>
@@ -15591,13 +15587,13 @@
     </row>
     <row r="447" spans="1:12">
       <c r="A447" s="31">
-        <v>880063</v>
+        <v>880061</v>
       </c>
       <c r="B447" s="3">
         <v>6</v>
       </c>
       <c r="C447" s="35">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D447" s="20">
         <v>0</v>
@@ -15625,13 +15621,13 @@
     </row>
     <row r="448" spans="1:12">
       <c r="A448" s="31">
-        <v>880064</v>
+        <v>880062</v>
       </c>
       <c r="B448" s="3">
         <v>6</v>
       </c>
       <c r="C448" s="35">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D448" s="20">
         <v>0</v>
@@ -15659,13 +15655,13 @@
     </row>
     <row r="449" spans="1:12">
       <c r="A449" s="31">
-        <v>880065</v>
+        <v>880063</v>
       </c>
       <c r="B449" s="3">
         <v>6</v>
       </c>
       <c r="C449" s="35">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D449" s="20">
         <v>0</v>
@@ -15693,13 +15689,13 @@
     </row>
     <row r="450" spans="1:12">
       <c r="A450" s="31">
-        <v>880066</v>
+        <v>880064</v>
       </c>
       <c r="B450" s="3">
         <v>6</v>
       </c>
       <c r="C450" s="35">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D450" s="20">
         <v>0</v>
@@ -15727,13 +15723,13 @@
     </row>
     <row r="451" spans="1:12">
       <c r="A451" s="31">
-        <v>890051</v>
+        <v>880065</v>
       </c>
       <c r="B451" s="3">
         <v>6</v>
       </c>
       <c r="C451" s="35">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D451" s="20">
         <v>0</v>
@@ -15761,13 +15757,13 @@
     </row>
     <row r="452" spans="1:12">
       <c r="A452" s="31">
-        <v>890052</v>
+        <v>880066</v>
       </c>
       <c r="B452" s="3">
         <v>6</v>
       </c>
       <c r="C452" s="35">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D452" s="20">
         <v>0</v>
@@ -15795,13 +15791,13 @@
     </row>
     <row r="453" spans="1:12">
       <c r="A453" s="31">
-        <v>890053</v>
+        <v>890051</v>
       </c>
       <c r="B453" s="3">
         <v>6</v>
       </c>
       <c r="C453" s="35">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D453" s="20">
         <v>0</v>
@@ -15829,13 +15825,13 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" s="31">
-        <v>890054</v>
+        <v>890052</v>
       </c>
       <c r="B454" s="3">
         <v>6</v>
       </c>
       <c r="C454" s="35">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D454" s="20">
         <v>0</v>
@@ -15863,13 +15859,13 @@
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="31">
-        <v>890055</v>
+        <v>890053</v>
       </c>
       <c r="B455" s="3">
         <v>6</v>
       </c>
       <c r="C455" s="35">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D455" s="20">
         <v>0</v>
@@ -15897,13 +15893,13 @@
     </row>
     <row r="456" spans="1:12">
       <c r="A456" s="31">
-        <v>890056</v>
+        <v>890054</v>
       </c>
       <c r="B456" s="3">
         <v>6</v>
       </c>
       <c r="C456" s="35">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D456" s="20">
         <v>0</v>
@@ -15931,13 +15927,13 @@
     </row>
     <row r="457" spans="1:12">
       <c r="A457" s="31">
-        <v>890057</v>
+        <v>890055</v>
       </c>
       <c r="B457" s="3">
         <v>6</v>
       </c>
       <c r="C457" s="35">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D457" s="20">
         <v>0</v>
@@ -15965,13 +15961,13 @@
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="31">
-        <v>890058</v>
+        <v>890056</v>
       </c>
       <c r="B458" s="3">
         <v>6</v>
       </c>
       <c r="C458" s="35">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D458" s="20">
         <v>0</v>
@@ -15999,13 +15995,13 @@
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="31">
-        <v>890059</v>
+        <v>890057</v>
       </c>
       <c r="B459" s="3">
         <v>6</v>
       </c>
       <c r="C459" s="35">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D459" s="20">
         <v>0</v>
@@ -16033,13 +16029,13 @@
     </row>
     <row r="460" spans="1:12">
       <c r="A460" s="31">
-        <v>890060</v>
+        <v>890058</v>
       </c>
       <c r="B460" s="3">
         <v>6</v>
       </c>
       <c r="C460" s="35">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D460" s="20">
         <v>0</v>
@@ -16067,13 +16063,13 @@
     </row>
     <row r="461" spans="1:12">
       <c r="A461" s="31">
-        <v>890061</v>
+        <v>890059</v>
       </c>
       <c r="B461" s="3">
         <v>6</v>
       </c>
       <c r="C461" s="35">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D461" s="20">
         <v>0</v>
@@ -16101,13 +16097,13 @@
     </row>
     <row r="462" spans="1:12">
       <c r="A462" s="31">
-        <v>890062</v>
+        <v>890060</v>
       </c>
       <c r="B462" s="3">
         <v>6</v>
       </c>
       <c r="C462" s="35">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D462" s="20">
         <v>0</v>
@@ -16135,13 +16131,13 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" s="31">
-        <v>890063</v>
+        <v>890061</v>
       </c>
       <c r="B463" s="3">
         <v>6</v>
       </c>
       <c r="C463" s="35">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D463" s="20">
         <v>0</v>
@@ -16169,13 +16165,13 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" s="31">
-        <v>890064</v>
+        <v>890062</v>
       </c>
       <c r="B464" s="3">
         <v>6</v>
       </c>
       <c r="C464" s="35">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D464" s="20">
         <v>0</v>
@@ -16203,13 +16199,13 @@
     </row>
     <row r="465" spans="1:12">
       <c r="A465" s="31">
-        <v>890065</v>
+        <v>890063</v>
       </c>
       <c r="B465" s="3">
         <v>6</v>
       </c>
       <c r="C465" s="35">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D465" s="20">
         <v>0</v>
@@ -16237,13 +16233,13 @@
     </row>
     <row r="466" spans="1:12">
       <c r="A466" s="31">
-        <v>890066</v>
+        <v>890064</v>
       </c>
       <c r="B466" s="3">
         <v>6</v>
       </c>
       <c r="C466" s="35">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D466" s="20">
         <v>0</v>
@@ -16269,15 +16265,15 @@
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:12">
       <c r="A467" s="31">
-        <v>891051</v>
+        <v>890065</v>
       </c>
       <c r="B467" s="3">
         <v>6</v>
       </c>
       <c r="C467" s="35">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D467" s="20">
         <v>0</v>
@@ -16300,16 +16296,18 @@
       <c r="J467" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:10">
+      <c r="K467" s="3"/>
+      <c r="L467" s="3"/>
+    </row>
+    <row r="468" spans="1:12">
       <c r="A468" s="31">
-        <v>891052</v>
+        <v>890066</v>
       </c>
       <c r="B468" s="3">
         <v>6</v>
       </c>
       <c r="C468" s="35">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D468" s="20">
         <v>0</v>
@@ -16332,16 +16330,18 @@
       <c r="J468" s="20">
         <v>0</v>
       </c>
+      <c r="K468" s="3"/>
+      <c r="L468" s="3"/>
     </row>
     <row r="469" spans="1:10">
       <c r="A469" s="31">
-        <v>891053</v>
+        <v>891051</v>
       </c>
       <c r="B469" s="3">
         <v>6</v>
       </c>
       <c r="C469" s="35">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D469" s="20">
         <v>0</v>
@@ -16367,13 +16367,13 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470" s="31">
-        <v>891054</v>
+        <v>891052</v>
       </c>
       <c r="B470" s="3">
         <v>6</v>
       </c>
       <c r="C470" s="35">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D470" s="20">
         <v>0</v>
@@ -16399,13 +16399,13 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471" s="31">
-        <v>891055</v>
+        <v>891053</v>
       </c>
       <c r="B471" s="3">
         <v>6</v>
       </c>
       <c r="C471" s="35">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D471" s="20">
         <v>0</v>
@@ -16431,13 +16431,13 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472" s="31">
-        <v>891056</v>
+        <v>891054</v>
       </c>
       <c r="B472" s="3">
         <v>6</v>
       </c>
       <c r="C472" s="35">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D472" s="20">
         <v>0</v>
@@ -16463,13 +16463,13 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473" s="31">
-        <v>891057</v>
+        <v>891055</v>
       </c>
       <c r="B473" s="3">
         <v>6</v>
       </c>
       <c r="C473" s="35">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D473" s="20">
         <v>0</v>
@@ -16495,13 +16495,13 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474" s="31">
-        <v>891058</v>
+        <v>891056</v>
       </c>
       <c r="B474" s="3">
         <v>6</v>
       </c>
       <c r="C474" s="35">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D474" s="20">
         <v>0</v>
@@ -16527,13 +16527,13 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475" s="31">
-        <v>891059</v>
+        <v>891057</v>
       </c>
       <c r="B475" s="3">
         <v>6</v>
       </c>
       <c r="C475" s="35">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D475" s="20">
         <v>0</v>
@@ -16559,13 +16559,13 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476" s="31">
-        <v>892051</v>
+        <v>891058</v>
       </c>
       <c r="B476" s="3">
         <v>6</v>
       </c>
       <c r="C476" s="35">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D476" s="20">
         <v>0</v>
@@ -16591,13 +16591,13 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477" s="31">
-        <v>892052</v>
+        <v>891059</v>
       </c>
       <c r="B477" s="3">
         <v>6</v>
       </c>
       <c r="C477" s="35">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D477" s="20">
         <v>0</v>
@@ -16623,13 +16623,13 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478" s="31">
-        <v>892053</v>
+        <v>892051</v>
       </c>
       <c r="B478" s="3">
         <v>6</v>
       </c>
       <c r="C478" s="35">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D478" s="20">
         <v>0</v>
@@ -16655,13 +16655,13 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="31">
-        <v>892054</v>
+        <v>892052</v>
       </c>
       <c r="B479" s="3">
         <v>6</v>
       </c>
       <c r="C479" s="35">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D479" s="20">
         <v>0</v>
@@ -16687,13 +16687,13 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480" s="31">
-        <v>892055</v>
+        <v>892053</v>
       </c>
       <c r="B480" s="3">
         <v>6</v>
       </c>
       <c r="C480" s="35">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D480" s="20">
         <v>0</v>
@@ -16719,13 +16719,13 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481" s="31">
-        <v>892056</v>
+        <v>892054</v>
       </c>
       <c r="B481" s="3">
         <v>6</v>
       </c>
       <c r="C481" s="35">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D481" s="20">
         <v>0</v>
@@ -16751,13 +16751,13 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482" s="31">
-        <v>892057</v>
+        <v>892055</v>
       </c>
       <c r="B482" s="3">
         <v>6</v>
       </c>
       <c r="C482" s="35">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D482" s="20">
         <v>0</v>
@@ -16783,13 +16783,13 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483" s="31">
-        <v>892058</v>
+        <v>892056</v>
       </c>
       <c r="B483" s="3">
         <v>6</v>
       </c>
       <c r="C483" s="35">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D483" s="20">
         <v>0</v>
@@ -16815,13 +16815,13 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484" s="31">
-        <v>892059</v>
+        <v>892057</v>
       </c>
       <c r="B484" s="3">
         <v>6</v>
       </c>
       <c r="C484" s="35">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D484" s="20">
         <v>0</v>
@@ -16847,13 +16847,13 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485" s="31">
-        <v>893051</v>
+        <v>892058</v>
       </c>
       <c r="B485" s="3">
         <v>6</v>
       </c>
       <c r="C485" s="35">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D485" s="20">
         <v>0</v>
@@ -16879,13 +16879,13 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486" s="31">
-        <v>893052</v>
+        <v>892059</v>
       </c>
       <c r="B486" s="3">
         <v>6</v>
       </c>
       <c r="C486" s="35">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D486" s="20">
         <v>0</v>
@@ -16911,13 +16911,13 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487" s="31">
-        <v>893053</v>
+        <v>893051</v>
       </c>
       <c r="B487" s="3">
         <v>6</v>
       </c>
       <c r="C487" s="35">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D487" s="20">
         <v>0</v>
@@ -16943,13 +16943,13 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488" s="31">
-        <v>893054</v>
+        <v>893052</v>
       </c>
       <c r="B488" s="3">
         <v>6</v>
       </c>
       <c r="C488" s="35">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D488" s="20">
         <v>0</v>
@@ -16975,13 +16975,13 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489" s="31">
-        <v>893055</v>
+        <v>893053</v>
       </c>
       <c r="B489" s="3">
         <v>6</v>
       </c>
       <c r="C489" s="35">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D489" s="20">
         <v>0</v>
@@ -17007,13 +17007,13 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490" s="31">
-        <v>893056</v>
+        <v>893054</v>
       </c>
       <c r="B490" s="3">
         <v>6</v>
       </c>
       <c r="C490" s="35">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D490" s="20">
         <v>0</v>
@@ -17039,13 +17039,13 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491" s="31">
-        <v>893057</v>
+        <v>893055</v>
       </c>
       <c r="B491" s="3">
         <v>6</v>
       </c>
       <c r="C491" s="35">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D491" s="20">
         <v>0</v>
@@ -17071,13 +17071,13 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492" s="31">
-        <v>893058</v>
+        <v>893056</v>
       </c>
       <c r="B492" s="3">
         <v>6</v>
       </c>
       <c r="C492" s="35">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D492" s="20">
         <v>0</v>
@@ -17103,13 +17103,13 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493" s="31">
-        <v>893059</v>
+        <v>893057</v>
       </c>
       <c r="B493" s="3">
         <v>6</v>
       </c>
       <c r="C493" s="35">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D493" s="20">
         <v>0</v>
@@ -17135,13 +17135,13 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494" s="31">
-        <v>894051</v>
+        <v>893058</v>
       </c>
       <c r="B494" s="3">
         <v>6</v>
       </c>
       <c r="C494" s="35">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D494" s="20">
         <v>0</v>
@@ -17167,13 +17167,13 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495" s="31">
-        <v>894052</v>
+        <v>893059</v>
       </c>
       <c r="B495" s="3">
         <v>6</v>
       </c>
       <c r="C495" s="35">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D495" s="20">
         <v>0</v>
@@ -17199,13 +17199,13 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496" s="31">
-        <v>894053</v>
+        <v>894051</v>
       </c>
       <c r="B496" s="3">
         <v>6</v>
       </c>
       <c r="C496" s="35">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D496" s="20">
         <v>0</v>
@@ -17231,13 +17231,13 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497" s="31">
-        <v>894054</v>
+        <v>894052</v>
       </c>
       <c r="B497" s="3">
         <v>6</v>
       </c>
       <c r="C497" s="35">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D497" s="20">
         <v>0</v>
@@ -17263,13 +17263,13 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498" s="31">
-        <v>894055</v>
+        <v>894053</v>
       </c>
       <c r="B498" s="3">
         <v>6</v>
       </c>
       <c r="C498" s="35">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D498" s="20">
         <v>0</v>
@@ -17295,13 +17295,13 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499" s="31">
-        <v>894056</v>
+        <v>894054</v>
       </c>
       <c r="B499" s="3">
         <v>6</v>
       </c>
       <c r="C499" s="35">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D499" s="20">
         <v>0</v>
@@ -17327,13 +17327,13 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500" s="31">
-        <v>894057</v>
+        <v>894055</v>
       </c>
       <c r="B500" s="3">
         <v>6</v>
       </c>
       <c r="C500" s="35">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D500" s="20">
         <v>0</v>
@@ -17359,13 +17359,13 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501" s="31">
-        <v>894058</v>
+        <v>894056</v>
       </c>
       <c r="B501" s="3">
         <v>6</v>
       </c>
       <c r="C501" s="35">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D501" s="20">
         <v>0</v>
@@ -17391,13 +17391,13 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502" s="31">
-        <v>894059</v>
+        <v>894057</v>
       </c>
       <c r="B502" s="3">
         <v>6</v>
       </c>
       <c r="C502" s="35">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D502" s="20">
         <v>0</v>
@@ -17423,13 +17423,13 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503" s="31">
-        <v>895051</v>
+        <v>894058</v>
       </c>
       <c r="B503" s="3">
         <v>6</v>
       </c>
       <c r="C503" s="35">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D503" s="20">
         <v>0</v>
@@ -17455,13 +17455,13 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504" s="31">
-        <v>895052</v>
+        <v>894059</v>
       </c>
       <c r="B504" s="3">
         <v>6</v>
       </c>
       <c r="C504" s="35">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D504" s="20">
         <v>0</v>
@@ -17487,13 +17487,13 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505" s="31">
-        <v>895053</v>
+        <v>895051</v>
       </c>
       <c r="B505" s="3">
         <v>6</v>
       </c>
       <c r="C505" s="35">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D505" s="20">
         <v>0</v>
@@ -17519,13 +17519,13 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506" s="31">
-        <v>895054</v>
+        <v>895052</v>
       </c>
       <c r="B506" s="3">
         <v>6</v>
       </c>
       <c r="C506" s="35">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D506" s="20">
         <v>0</v>
@@ -17551,13 +17551,13 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507" s="31">
-        <v>895055</v>
+        <v>895053</v>
       </c>
       <c r="B507" s="3">
         <v>6</v>
       </c>
       <c r="C507" s="35">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D507" s="20">
         <v>0</v>
@@ -17583,13 +17583,13 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508" s="31">
-        <v>895056</v>
+        <v>895054</v>
       </c>
       <c r="B508" s="3">
         <v>6</v>
       </c>
       <c r="C508" s="35">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D508" s="20">
         <v>0</v>
@@ -17615,13 +17615,13 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509" s="31">
-        <v>895057</v>
+        <v>895055</v>
       </c>
       <c r="B509" s="3">
         <v>6</v>
       </c>
       <c r="C509" s="35">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D509" s="20">
         <v>0</v>
@@ -17647,13 +17647,13 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510" s="31">
-        <v>895058</v>
+        <v>895056</v>
       </c>
       <c r="B510" s="3">
         <v>6</v>
       </c>
       <c r="C510" s="35">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D510" s="20">
         <v>0</v>
@@ -17679,13 +17679,13 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511" s="31">
-        <v>895059</v>
+        <v>895057</v>
       </c>
       <c r="B511" s="3">
         <v>6</v>
       </c>
       <c r="C511" s="35">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D511" s="20">
         <v>0</v>
@@ -17711,13 +17711,13 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512" s="31">
-        <v>896051</v>
+        <v>895058</v>
       </c>
       <c r="B512" s="3">
         <v>6</v>
       </c>
       <c r="C512" s="35">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D512" s="20">
         <v>0</v>
@@ -17743,13 +17743,13 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513" s="31">
-        <v>896052</v>
+        <v>895059</v>
       </c>
       <c r="B513" s="3">
         <v>6</v>
       </c>
       <c r="C513" s="35">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D513" s="20">
         <v>0</v>
@@ -17775,13 +17775,13 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514" s="31">
-        <v>896053</v>
+        <v>896051</v>
       </c>
       <c r="B514" s="3">
         <v>6</v>
       </c>
       <c r="C514" s="35">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D514" s="20">
         <v>0</v>
@@ -17807,13 +17807,13 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515" s="31">
-        <v>896054</v>
+        <v>896052</v>
       </c>
       <c r="B515" s="3">
         <v>6</v>
       </c>
       <c r="C515" s="35">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D515" s="20">
         <v>0</v>
@@ -17839,13 +17839,13 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516" s="31">
-        <v>896055</v>
+        <v>896053</v>
       </c>
       <c r="B516" s="3">
         <v>6</v>
       </c>
       <c r="C516" s="35">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D516" s="20">
         <v>0</v>
@@ -17871,13 +17871,13 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517" s="31">
-        <v>896056</v>
+        <v>896054</v>
       </c>
       <c r="B517" s="3">
         <v>6</v>
       </c>
       <c r="C517" s="35">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D517" s="20">
         <v>0</v>
@@ -17903,13 +17903,13 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518" s="31">
-        <v>896057</v>
+        <v>896055</v>
       </c>
       <c r="B518" s="3">
         <v>6</v>
       </c>
       <c r="C518" s="35">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D518" s="20">
         <v>0</v>
@@ -17935,13 +17935,13 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519" s="31">
-        <v>896058</v>
+        <v>896056</v>
       </c>
       <c r="B519" s="3">
         <v>6</v>
       </c>
       <c r="C519" s="35">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D519" s="20">
         <v>0</v>
@@ -17967,13 +17967,13 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520" s="31">
-        <v>896059</v>
+        <v>896057</v>
       </c>
       <c r="B520" s="3">
         <v>6</v>
       </c>
       <c r="C520" s="35">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D520" s="20">
         <v>0</v>
@@ -17999,13 +17999,13 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521" s="31">
-        <v>896060</v>
+        <v>896058</v>
       </c>
       <c r="B521" s="3">
         <v>6</v>
       </c>
       <c r="C521" s="35">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D521" s="20">
         <v>0</v>
@@ -18031,13 +18031,13 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522" s="31">
-        <v>896061</v>
+        <v>896059</v>
       </c>
       <c r="B522" s="3">
         <v>6</v>
       </c>
       <c r="C522" s="35">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D522" s="20">
         <v>0</v>
@@ -18063,13 +18063,13 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523" s="31">
-        <v>896062</v>
+        <v>896060</v>
       </c>
       <c r="B523" s="3">
         <v>6</v>
       </c>
       <c r="C523" s="35">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D523" s="20">
         <v>0</v>
@@ -18095,13 +18095,13 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524" s="31">
-        <v>896063</v>
+        <v>896061</v>
       </c>
       <c r="B524" s="3">
         <v>6</v>
       </c>
       <c r="C524" s="35">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D524" s="20">
         <v>0</v>
@@ -18127,13 +18127,13 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525" s="31">
-        <v>896064</v>
+        <v>896062</v>
       </c>
       <c r="B525" s="3">
         <v>6</v>
       </c>
       <c r="C525" s="35">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D525" s="20">
         <v>0</v>
@@ -18159,13 +18159,13 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526" s="31">
-        <v>896065</v>
+        <v>896063</v>
       </c>
       <c r="B526" s="3">
         <v>6</v>
       </c>
       <c r="C526" s="35">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D526" s="20">
         <v>0</v>
@@ -18191,13 +18191,13 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527" s="31">
-        <v>896066</v>
+        <v>896064</v>
       </c>
       <c r="B527" s="3">
         <v>6</v>
       </c>
       <c r="C527" s="35">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D527" s="20">
         <v>0</v>
@@ -18223,13 +18223,13 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528" s="31">
-        <v>897051</v>
+        <v>896065</v>
       </c>
       <c r="B528" s="3">
         <v>6</v>
       </c>
       <c r="C528" s="35">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D528" s="20">
         <v>0</v>
@@ -18255,13 +18255,13 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529" s="31">
-        <v>897052</v>
+        <v>896066</v>
       </c>
       <c r="B529" s="3">
         <v>6</v>
       </c>
       <c r="C529" s="35">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D529" s="20">
         <v>0</v>
@@ -18287,13 +18287,13 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530" s="31">
-        <v>897053</v>
+        <v>897051</v>
       </c>
       <c r="B530" s="3">
         <v>6</v>
       </c>
       <c r="C530" s="35">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D530" s="20">
         <v>0</v>
@@ -18319,13 +18319,13 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531" s="31">
-        <v>897054</v>
+        <v>897052</v>
       </c>
       <c r="B531" s="3">
         <v>6</v>
       </c>
       <c r="C531" s="35">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D531" s="20">
         <v>0</v>
@@ -18351,13 +18351,13 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="31">
-        <v>897055</v>
+        <v>897053</v>
       </c>
       <c r="B532" s="3">
         <v>6</v>
       </c>
       <c r="C532" s="35">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D532" s="20">
         <v>0</v>
@@ -18383,13 +18383,13 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533" s="31">
-        <v>897056</v>
+        <v>897054</v>
       </c>
       <c r="B533" s="3">
         <v>6</v>
       </c>
       <c r="C533" s="35">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D533" s="20">
         <v>0</v>
@@ -18415,13 +18415,13 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534" s="31">
-        <v>897057</v>
+        <v>897055</v>
       </c>
       <c r="B534" s="3">
         <v>6</v>
       </c>
       <c r="C534" s="35">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D534" s="20">
         <v>0</v>
@@ -18447,13 +18447,13 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535" s="31">
-        <v>897058</v>
+        <v>897056</v>
       </c>
       <c r="B535" s="3">
         <v>6</v>
       </c>
       <c r="C535" s="35">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D535" s="20">
         <v>0</v>
@@ -18479,13 +18479,13 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536" s="31">
-        <v>897059</v>
+        <v>897057</v>
       </c>
       <c r="B536" s="3">
         <v>6</v>
       </c>
       <c r="C536" s="35">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D536" s="20">
         <v>0</v>
@@ -18511,13 +18511,13 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537" s="31">
-        <v>897060</v>
+        <v>897058</v>
       </c>
       <c r="B537" s="3">
         <v>6</v>
       </c>
       <c r="C537" s="35">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D537" s="20">
         <v>0</v>
@@ -18543,13 +18543,13 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538" s="31">
-        <v>897061</v>
+        <v>897059</v>
       </c>
       <c r="B538" s="3">
         <v>6</v>
       </c>
       <c r="C538" s="35">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D538" s="20">
         <v>0</v>
@@ -18575,13 +18575,13 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539" s="31">
-        <v>897062</v>
+        <v>897060</v>
       </c>
       <c r="B539" s="3">
         <v>6</v>
       </c>
       <c r="C539" s="35">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D539" s="20">
         <v>0</v>
@@ -18607,13 +18607,13 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540" s="31">
-        <v>897063</v>
+        <v>897061</v>
       </c>
       <c r="B540" s="3">
         <v>6</v>
       </c>
       <c r="C540" s="35">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D540" s="20">
         <v>0</v>
@@ -18639,13 +18639,13 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541" s="31">
-        <v>897064</v>
+        <v>897062</v>
       </c>
       <c r="B541" s="3">
         <v>6</v>
       </c>
       <c r="C541" s="35">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D541" s="20">
         <v>0</v>
@@ -18671,13 +18671,13 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542" s="31">
-        <v>897065</v>
+        <v>897063</v>
       </c>
       <c r="B542" s="3">
         <v>6</v>
       </c>
       <c r="C542" s="35">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D542" s="20">
         <v>0</v>
@@ -18703,13 +18703,13 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543" s="31">
-        <v>897066</v>
+        <v>897064</v>
       </c>
       <c r="B543" s="3">
         <v>6</v>
       </c>
       <c r="C543" s="35">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D543" s="20">
         <v>0</v>
@@ -18735,13 +18735,13 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544" s="31">
-        <v>898051</v>
+        <v>897065</v>
       </c>
       <c r="B544" s="3">
         <v>6</v>
       </c>
       <c r="C544" s="35">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D544" s="20">
         <v>0</v>
@@ -18767,13 +18767,13 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545" s="31">
-        <v>898052</v>
+        <v>897066</v>
       </c>
       <c r="B545" s="3">
         <v>6</v>
       </c>
       <c r="C545" s="35">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D545" s="20">
         <v>0</v>
@@ -18799,13 +18799,13 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546" s="31">
-        <v>898053</v>
+        <v>898051</v>
       </c>
       <c r="B546" s="3">
         <v>6</v>
       </c>
       <c r="C546" s="35">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D546" s="20">
         <v>0</v>
@@ -18831,13 +18831,13 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547" s="31">
-        <v>898054</v>
+        <v>898052</v>
       </c>
       <c r="B547" s="3">
         <v>6</v>
       </c>
       <c r="C547" s="35">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D547" s="20">
         <v>0</v>
@@ -18863,13 +18863,13 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548" s="31">
-        <v>898055</v>
+        <v>898053</v>
       </c>
       <c r="B548" s="3">
         <v>6</v>
       </c>
       <c r="C548" s="35">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D548" s="20">
         <v>0</v>
@@ -18895,13 +18895,13 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549" s="31">
-        <v>898056</v>
+        <v>898054</v>
       </c>
       <c r="B549" s="3">
         <v>6</v>
       </c>
       <c r="C549" s="35">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D549" s="20">
         <v>0</v>
@@ -18927,13 +18927,13 @@
     </row>
     <row r="550" spans="1:10">
       <c r="A550" s="31">
-        <v>898057</v>
+        <v>898055</v>
       </c>
       <c r="B550" s="3">
         <v>6</v>
       </c>
       <c r="C550" s="35">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D550" s="20">
         <v>0</v>
@@ -18959,13 +18959,13 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551" s="31">
-        <v>898058</v>
+        <v>898056</v>
       </c>
       <c r="B551" s="3">
         <v>6</v>
       </c>
       <c r="C551" s="35">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D551" s="20">
         <v>0</v>
@@ -18991,13 +18991,13 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552" s="31">
-        <v>898059</v>
+        <v>898057</v>
       </c>
       <c r="B552" s="3">
         <v>6</v>
       </c>
       <c r="C552" s="35">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D552" s="20">
         <v>0</v>
@@ -19023,13 +19023,13 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553" s="31">
-        <v>898060</v>
+        <v>898058</v>
       </c>
       <c r="B553" s="3">
         <v>6</v>
       </c>
       <c r="C553" s="35">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D553" s="20">
         <v>0</v>
@@ -19055,13 +19055,13 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554" s="31">
-        <v>898061</v>
+        <v>898059</v>
       </c>
       <c r="B554" s="3">
         <v>6</v>
       </c>
       <c r="C554" s="35">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D554" s="20">
         <v>0</v>
@@ -19087,13 +19087,13 @@
     </row>
     <row r="555" spans="1:10">
       <c r="A555" s="31">
-        <v>898062</v>
+        <v>898060</v>
       </c>
       <c r="B555" s="3">
         <v>6</v>
       </c>
       <c r="C555" s="35">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D555" s="20">
         <v>0</v>
@@ -19119,13 +19119,13 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556" s="31">
-        <v>898063</v>
+        <v>898061</v>
       </c>
       <c r="B556" s="3">
         <v>6</v>
       </c>
       <c r="C556" s="35">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D556" s="20">
         <v>0</v>
@@ -19151,13 +19151,13 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557" s="31">
-        <v>898064</v>
+        <v>898062</v>
       </c>
       <c r="B557" s="3">
         <v>6</v>
       </c>
       <c r="C557" s="35">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D557" s="20">
         <v>0</v>
@@ -19183,13 +19183,13 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558" s="31">
-        <v>898065</v>
+        <v>898063</v>
       </c>
       <c r="B558" s="3">
         <v>6</v>
       </c>
       <c r="C558" s="35">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D558" s="20">
         <v>0</v>
@@ -19215,13 +19215,13 @@
     </row>
     <row r="559" spans="1:10">
       <c r="A559" s="31">
-        <v>898066</v>
+        <v>898064</v>
       </c>
       <c r="B559" s="3">
         <v>6</v>
       </c>
       <c r="C559" s="35">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D559" s="20">
         <v>0</v>
@@ -19247,13 +19247,13 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560" s="31">
-        <v>899051</v>
+        <v>898065</v>
       </c>
       <c r="B560" s="3">
         <v>6</v>
       </c>
       <c r="C560" s="35">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D560" s="20">
         <v>0</v>
@@ -19279,13 +19279,13 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561" s="31">
-        <v>899052</v>
+        <v>898066</v>
       </c>
       <c r="B561" s="3">
         <v>6</v>
       </c>
       <c r="C561" s="35">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D561" s="20">
         <v>0</v>
@@ -19311,13 +19311,13 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562" s="31">
-        <v>899053</v>
+        <v>899051</v>
       </c>
       <c r="B562" s="3">
         <v>6</v>
       </c>
       <c r="C562" s="35">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D562" s="20">
         <v>0</v>
@@ -19343,13 +19343,13 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563" s="31">
-        <v>899054</v>
+        <v>899052</v>
       </c>
       <c r="B563" s="3">
         <v>6</v>
       </c>
       <c r="C563" s="35">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D563" s="20">
         <v>0</v>
@@ -19375,13 +19375,13 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564" s="31">
-        <v>899055</v>
+        <v>899053</v>
       </c>
       <c r="B564" s="3">
         <v>6</v>
       </c>
       <c r="C564" s="35">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D564" s="20">
         <v>0</v>
@@ -19407,13 +19407,13 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565" s="31">
-        <v>899056</v>
+        <v>899054</v>
       </c>
       <c r="B565" s="3">
         <v>6</v>
       </c>
       <c r="C565" s="35">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D565" s="20">
         <v>0</v>
@@ -19439,13 +19439,13 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566" s="31">
-        <v>899057</v>
+        <v>899055</v>
       </c>
       <c r="B566" s="3">
         <v>6</v>
       </c>
       <c r="C566" s="35">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D566" s="20">
         <v>0</v>
@@ -19471,13 +19471,13 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567" s="31">
-        <v>899058</v>
+        <v>899056</v>
       </c>
       <c r="B567" s="3">
         <v>6</v>
       </c>
       <c r="C567" s="35">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D567" s="20">
         <v>0</v>
@@ -19503,13 +19503,13 @@
     </row>
     <row r="568" spans="1:10">
       <c r="A568" s="31">
-        <v>899059</v>
+        <v>899057</v>
       </c>
       <c r="B568" s="3">
         <v>6</v>
       </c>
       <c r="C568" s="35">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D568" s="20">
         <v>0</v>
@@ -19535,13 +19535,13 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569" s="31">
-        <v>899060</v>
+        <v>899058</v>
       </c>
       <c r="B569" s="3">
         <v>6</v>
       </c>
       <c r="C569" s="35">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D569" s="20">
         <v>0</v>
@@ -19567,13 +19567,13 @@
     </row>
     <row r="570" spans="1:10">
       <c r="A570" s="31">
-        <v>899061</v>
+        <v>899059</v>
       </c>
       <c r="B570" s="3">
         <v>6</v>
       </c>
       <c r="C570" s="35">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D570" s="20">
         <v>0</v>
@@ -19599,13 +19599,13 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571" s="31">
-        <v>899062</v>
+        <v>899060</v>
       </c>
       <c r="B571" s="3">
         <v>6</v>
       </c>
       <c r="C571" s="35">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D571" s="20">
         <v>0</v>
@@ -19631,13 +19631,13 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572" s="31">
-        <v>899063</v>
+        <v>899061</v>
       </c>
       <c r="B572" s="3">
         <v>6</v>
       </c>
       <c r="C572" s="35">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D572" s="20">
         <v>0</v>
@@ -19663,13 +19663,13 @@
     </row>
     <row r="573" spans="1:10">
       <c r="A573" s="31">
-        <v>899064</v>
+        <v>899062</v>
       </c>
       <c r="B573" s="3">
         <v>6</v>
       </c>
       <c r="C573" s="35">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D573" s="20">
         <v>0</v>
@@ -19695,13 +19695,13 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574" s="31">
-        <v>899065</v>
+        <v>899063</v>
       </c>
       <c r="B574" s="3">
         <v>6</v>
       </c>
       <c r="C574" s="35">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D574" s="20">
         <v>0</v>
@@ -19727,13 +19727,13 @@
     </row>
     <row r="575" spans="1:10">
       <c r="A575" s="31">
-        <v>899066</v>
+        <v>899064</v>
       </c>
       <c r="B575" s="3">
         <v>6</v>
       </c>
       <c r="C575" s="35">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D575" s="20">
         <v>0</v>
@@ -19759,13 +19759,13 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576" s="31">
-        <v>882051</v>
+        <v>899065</v>
       </c>
       <c r="B576" s="3">
         <v>6</v>
       </c>
       <c r="C576" s="35">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D576" s="20">
         <v>0</v>
@@ -19791,13 +19791,13 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577" s="31">
-        <v>882052</v>
+        <v>899066</v>
       </c>
       <c r="B577" s="3">
         <v>6</v>
       </c>
       <c r="C577" s="35">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D577" s="20">
         <v>0</v>
@@ -19823,13 +19823,13 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578" s="31">
-        <v>882053</v>
+        <v>882051</v>
       </c>
       <c r="B578" s="3">
         <v>6</v>
       </c>
       <c r="C578" s="35">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D578" s="20">
         <v>0</v>
@@ -19855,13 +19855,13 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579" s="31">
-        <v>882054</v>
+        <v>882052</v>
       </c>
       <c r="B579" s="3">
         <v>6</v>
       </c>
       <c r="C579" s="35">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D579" s="20">
         <v>0</v>
@@ -19887,13 +19887,13 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580" s="31">
-        <v>882055</v>
+        <v>882053</v>
       </c>
       <c r="B580" s="3">
         <v>6</v>
       </c>
       <c r="C580" s="35">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D580" s="20">
         <v>0</v>
@@ -19919,13 +19919,13 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581" s="31">
-        <v>882056</v>
+        <v>882054</v>
       </c>
       <c r="B581" s="3">
         <v>6</v>
       </c>
       <c r="C581" s="35">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D581" s="20">
         <v>0</v>
@@ -19951,13 +19951,13 @@
     </row>
     <row r="582" spans="1:10">
       <c r="A582" s="31">
-        <v>882057</v>
+        <v>882055</v>
       </c>
       <c r="B582" s="3">
         <v>6</v>
       </c>
       <c r="C582" s="35">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D582" s="20">
         <v>0</v>
@@ -19983,13 +19983,13 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583" s="31">
-        <v>882058</v>
+        <v>882056</v>
       </c>
       <c r="B583" s="3">
         <v>6</v>
       </c>
       <c r="C583" s="35">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D583" s="20">
         <v>0</v>
@@ -20015,13 +20015,13 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584" s="31">
-        <v>882059</v>
+        <v>882057</v>
       </c>
       <c r="B584" s="3">
         <v>6</v>
       </c>
       <c r="C584" s="35">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D584" s="20">
         <v>0</v>
@@ -20047,13 +20047,13 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585" s="31">
-        <v>883051</v>
+        <v>882058</v>
       </c>
       <c r="B585" s="3">
         <v>6</v>
       </c>
       <c r="C585" s="35">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D585" s="20">
         <v>0</v>
@@ -20079,13 +20079,13 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586" s="31">
-        <v>883052</v>
+        <v>882059</v>
       </c>
       <c r="B586" s="3">
         <v>6</v>
       </c>
       <c r="C586" s="35">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D586" s="20">
         <v>0</v>
@@ -20111,13 +20111,13 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587" s="31">
-        <v>883053</v>
+        <v>883051</v>
       </c>
       <c r="B587" s="3">
         <v>6</v>
       </c>
       <c r="C587" s="35">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D587" s="20">
         <v>0</v>
@@ -20143,13 +20143,13 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588" s="31">
-        <v>883054</v>
+        <v>883052</v>
       </c>
       <c r="B588" s="3">
         <v>6</v>
       </c>
       <c r="C588" s="35">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D588" s="20">
         <v>0</v>
@@ -20175,13 +20175,13 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589" s="31">
-        <v>883055</v>
+        <v>883053</v>
       </c>
       <c r="B589" s="3">
         <v>6</v>
       </c>
       <c r="C589" s="35">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D589" s="20">
         <v>0</v>
@@ -20207,13 +20207,13 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590" s="31">
-        <v>883056</v>
+        <v>883054</v>
       </c>
       <c r="B590" s="3">
         <v>6</v>
       </c>
       <c r="C590" s="35">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D590" s="20">
         <v>0</v>
@@ -20239,13 +20239,13 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591" s="31">
-        <v>883057</v>
+        <v>883055</v>
       </c>
       <c r="B591" s="3">
         <v>6</v>
       </c>
       <c r="C591" s="35">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D591" s="20">
         <v>0</v>
@@ -20271,13 +20271,13 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592" s="31">
-        <v>883058</v>
+        <v>883056</v>
       </c>
       <c r="B592" s="3">
         <v>6</v>
       </c>
       <c r="C592" s="35">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D592" s="20">
         <v>0</v>
@@ -20303,13 +20303,13 @@
     </row>
     <row r="593" spans="1:10">
       <c r="A593" s="31">
-        <v>883059</v>
+        <v>883057</v>
       </c>
       <c r="B593" s="3">
         <v>6</v>
       </c>
       <c r="C593" s="35">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D593" s="20">
         <v>0</v>
@@ -20335,13 +20335,13 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594" s="31">
-        <v>884051</v>
+        <v>883058</v>
       </c>
       <c r="B594" s="3">
         <v>6</v>
       </c>
       <c r="C594" s="35">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D594" s="20">
         <v>0</v>
@@ -20367,13 +20367,13 @@
     </row>
     <row r="595" spans="1:10">
       <c r="A595" s="31">
-        <v>884052</v>
+        <v>883059</v>
       </c>
       <c r="B595" s="3">
         <v>6</v>
       </c>
       <c r="C595" s="35">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D595" s="20">
         <v>0</v>
@@ -20399,13 +20399,13 @@
     </row>
     <row r="596" spans="1:10">
       <c r="A596" s="31">
-        <v>884053</v>
+        <v>884051</v>
       </c>
       <c r="B596" s="3">
         <v>6</v>
       </c>
       <c r="C596" s="35">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D596" s="20">
         <v>0</v>
@@ -20431,13 +20431,13 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597" s="31">
-        <v>884054</v>
+        <v>884052</v>
       </c>
       <c r="B597" s="3">
         <v>6</v>
       </c>
       <c r="C597" s="35">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D597" s="20">
         <v>0</v>
@@ -20463,13 +20463,13 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598" s="31">
-        <v>884055</v>
+        <v>884053</v>
       </c>
       <c r="B598" s="3">
         <v>6</v>
       </c>
       <c r="C598" s="35">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D598" s="20">
         <v>0</v>
@@ -20495,13 +20495,13 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599" s="31">
-        <v>884056</v>
+        <v>884054</v>
       </c>
       <c r="B599" s="3">
         <v>6</v>
       </c>
       <c r="C599" s="35">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D599" s="20">
         <v>0</v>
@@ -20527,13 +20527,13 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600" s="31">
-        <v>884057</v>
+        <v>884055</v>
       </c>
       <c r="B600" s="3">
         <v>6</v>
       </c>
       <c r="C600" s="35">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D600" s="20">
         <v>0</v>
@@ -20559,13 +20559,13 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601" s="31">
-        <v>884058</v>
+        <v>884056</v>
       </c>
       <c r="B601" s="3">
         <v>6</v>
       </c>
       <c r="C601" s="35">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D601" s="20">
         <v>0</v>
@@ -20591,13 +20591,13 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602" s="31">
-        <v>884059</v>
+        <v>884057</v>
       </c>
       <c r="B602" s="3">
         <v>6</v>
       </c>
       <c r="C602" s="35">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D602" s="20">
         <v>0</v>
@@ -20623,13 +20623,13 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603" s="31">
-        <v>885051</v>
+        <v>884058</v>
       </c>
       <c r="B603" s="3">
         <v>6</v>
       </c>
       <c r="C603" s="35">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D603" s="20">
         <v>0</v>
@@ -20655,13 +20655,13 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604" s="31">
-        <v>885052</v>
+        <v>884059</v>
       </c>
       <c r="B604" s="3">
         <v>6</v>
       </c>
       <c r="C604" s="35">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D604" s="20">
         <v>0</v>
@@ -20687,13 +20687,13 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605" s="31">
-        <v>885053</v>
+        <v>885051</v>
       </c>
       <c r="B605" s="3">
         <v>6</v>
       </c>
       <c r="C605" s="35">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D605" s="20">
         <v>0</v>
@@ -20719,13 +20719,13 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606" s="31">
-        <v>885054</v>
+        <v>885052</v>
       </c>
       <c r="B606" s="3">
         <v>6</v>
       </c>
       <c r="C606" s="35">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D606" s="20">
         <v>0</v>
@@ -20751,13 +20751,13 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607" s="31">
-        <v>885055</v>
+        <v>885053</v>
       </c>
       <c r="B607" s="3">
         <v>6</v>
       </c>
       <c r="C607" s="35">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D607" s="20">
         <v>0</v>
@@ -20783,13 +20783,13 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608" s="31">
-        <v>885056</v>
+        <v>885054</v>
       </c>
       <c r="B608" s="3">
         <v>6</v>
       </c>
       <c r="C608" s="35">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D608" s="20">
         <v>0</v>
@@ -20815,13 +20815,13 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609" s="31">
-        <v>885057</v>
+        <v>885055</v>
       </c>
       <c r="B609" s="3">
         <v>6</v>
       </c>
       <c r="C609" s="35">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D609" s="20">
         <v>0</v>
@@ -20847,13 +20847,13 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610" s="31">
-        <v>885058</v>
+        <v>885056</v>
       </c>
       <c r="B610" s="3">
         <v>6</v>
       </c>
       <c r="C610" s="35">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D610" s="20">
         <v>0</v>
@@ -20879,44 +20879,102 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611" s="31">
+        <v>885057</v>
+      </c>
+      <c r="B611" s="3">
+        <v>6</v>
+      </c>
+      <c r="C611" s="35">
+        <v>433</v>
+      </c>
+      <c r="D611" s="20">
+        <v>0</v>
+      </c>
+      <c r="E611" s="20">
+        <v>0</v>
+      </c>
+      <c r="F611" s="20">
+        <v>0</v>
+      </c>
+      <c r="G611" s="20">
+        <v>0</v>
+      </c>
+      <c r="H611" s="20">
+        <v>0</v>
+      </c>
+      <c r="I611" s="20">
+        <v>0</v>
+      </c>
+      <c r="J611" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10">
+      <c r="A612" s="31">
+        <v>885058</v>
+      </c>
+      <c r="B612" s="3">
+        <v>6</v>
+      </c>
+      <c r="C612" s="35">
+        <v>434</v>
+      </c>
+      <c r="D612" s="20">
+        <v>0</v>
+      </c>
+      <c r="E612" s="20">
+        <v>0</v>
+      </c>
+      <c r="F612" s="20">
+        <v>0</v>
+      </c>
+      <c r="G612" s="20">
+        <v>0</v>
+      </c>
+      <c r="H612" s="20">
+        <v>0</v>
+      </c>
+      <c r="I612" s="20">
+        <v>0</v>
+      </c>
+      <c r="J612" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10">
+      <c r="A613" s="31">
         <v>885059</v>
       </c>
-      <c r="B611" s="3">
-        <v>6</v>
-      </c>
-      <c r="C611" s="35">
+      <c r="B613" s="3">
+        <v>6</v>
+      </c>
+      <c r="C613" s="35">
         <v>435</v>
       </c>
-      <c r="D611" s="20">
-        <v>0</v>
-      </c>
-      <c r="E611" s="20">
-        <v>0</v>
-      </c>
-      <c r="F611" s="20">
-        <v>0</v>
-      </c>
-      <c r="G611" s="20">
-        <v>0</v>
-      </c>
-      <c r="H611" s="20">
-        <v>0</v>
-      </c>
-      <c r="I611" s="20">
-        <v>0</v>
-      </c>
-      <c r="J611" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3">
-      <c r="A612" s="31"/>
-      <c r="C612" s="36"/>
-    </row>
-    <row r="613" spans="3:3">
-      <c r="C613" s="36"/>
-    </row>
-    <row r="614" spans="3:3">
+      <c r="D613" s="20">
+        <v>0</v>
+      </c>
+      <c r="E613" s="20">
+        <v>0</v>
+      </c>
+      <c r="F613" s="20">
+        <v>0</v>
+      </c>
+      <c r="G613" s="20">
+        <v>0</v>
+      </c>
+      <c r="H613" s="20">
+        <v>0</v>
+      </c>
+      <c r="I613" s="20">
+        <v>0</v>
+      </c>
+      <c r="J613" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="31"/>
       <c r="C614" s="36"/>
     </row>
     <row r="615" spans="3:3">
@@ -20993,6 +21051,12 @@
     </row>
     <row r="639" spans="3:3">
       <c r="C639" s="36"/>
+    </row>
+    <row r="640" spans="3:3">
+      <c r="C640" s="36"/>
+    </row>
+    <row r="641" spans="3:3">
+      <c r="C641" s="36"/>
     </row>
   </sheetData>
   <sortState ref="A2:J79">
